--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-2.017039707172548</v>
+        <v>-1.324898190693257</v>
       </c>
       <c r="B2">
-        <v>-1.949349199065342</v>
+        <v>-1.782653019098029</v>
       </c>
       <c r="C2">
-        <v>1.936888179889957</v>
+        <v>1.947989130480485</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.3770954141643942</v>
+        <v>-0.3601679808769414</v>
       </c>
       <c r="B3">
-        <v>-1.2832460802603</v>
+        <v>-1.270179929738052</v>
       </c>
       <c r="C3">
-        <v>1.409433544592747</v>
+        <v>1.568564229081501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-3.199559587932492</v>
+        <v>-2.841530225757719</v>
       </c>
       <c r="B4">
-        <v>1.635862017042916</v>
+        <v>1.633293568916425</v>
       </c>
       <c r="C4">
-        <v>-1.33778180862806</v>
+        <v>-0.9468117339454685</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.4823075764489615</v>
+        <v>-0.04450474377724112</v>
       </c>
       <c r="B5">
-        <v>-1.473672718340756</v>
+        <v>-1.320317296836974</v>
       </c>
       <c r="C5">
-        <v>1.113016397535707</v>
+        <v>1.203123007281829</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2722683197349015</v>
+        <v>0.4603455285510989</v>
       </c>
       <c r="B6">
-        <v>0.8266721678407332</v>
+        <v>0.8312897035729268</v>
       </c>
       <c r="C6">
-        <v>1.263811887012922</v>
+        <v>1.220786853587792</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.6013123861044782</v>
+        <v>0.7464908907700403</v>
       </c>
       <c r="B7">
-        <v>-0.1561459521640284</v>
+        <v>-0.05236501368291094</v>
       </c>
       <c r="C7">
-        <v>0.5308940099779805</v>
+        <v>0.6554427993291464</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.7127282842298748</v>
+        <v>-1.502047135059695</v>
       </c>
       <c r="B8">
-        <v>-1.644802931303081</v>
+        <v>-1.871784640361929</v>
       </c>
       <c r="C8">
-        <v>1.113594261104593</v>
+        <v>1.341264888695627</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.9552406694496548</v>
+        <v>0.8066519125857873</v>
       </c>
       <c r="B9">
-        <v>-0.4603697285488317</v>
+        <v>-0.5307539281068587</v>
       </c>
       <c r="C9">
-        <v>0.3158269591998826</v>
+        <v>0.3298346210509471</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.008504676132959767</v>
+        <v>-0.40176338463444</v>
       </c>
       <c r="B10">
-        <v>-1.23909812030439</v>
+        <v>-1.41696468223569</v>
       </c>
       <c r="C10">
-        <v>-0.2474294013441254</v>
+        <v>-0.1762869963315839</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.1604277213000238</v>
+        <v>0.3807559229639446</v>
       </c>
       <c r="B11">
-        <v>0.8500937766807289</v>
+        <v>0.868788734323966</v>
       </c>
       <c r="C11">
-        <v>1.380834929972187</v>
+        <v>1.382470802702227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.7179595584397599</v>
+        <v>-0.4922101445859631</v>
       </c>
       <c r="B12">
-        <v>1.73176306224669</v>
+        <v>1.698724274695906</v>
       </c>
       <c r="C12">
-        <v>1.389221186189681</v>
+        <v>1.294944158778863</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.686835125991506</v>
+        <v>0.7533164519810612</v>
       </c>
       <c r="B13">
-        <v>0.809855310231429</v>
+        <v>0.8364413586394327</v>
       </c>
       <c r="C13">
-        <v>1.107829790882529</v>
+        <v>1.137330017277848</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.9527939583707434</v>
+        <v>0.7534460798439524</v>
       </c>
       <c r="B14">
-        <v>0.999723918747352</v>
+        <v>0.9661888283607284</v>
       </c>
       <c r="C14">
-        <v>0.6284046326187471</v>
+        <v>0.8392043940674466</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.6466738560868307</v>
+        <v>0.3993505451068483</v>
       </c>
       <c r="B15">
-        <v>0.5129959666779945</v>
+        <v>0.4172730272610266</v>
       </c>
       <c r="C15">
-        <v>0.563963231202895</v>
+        <v>0.5954387507158064</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2188919803711785</v>
+        <v>0.4432539508039373</v>
       </c>
       <c r="B16">
-        <v>0.7941800309634153</v>
+        <v>0.8377746125212342</v>
       </c>
       <c r="C16">
-        <v>1.44072267214085</v>
+        <v>1.409700051297897</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.661805770450427</v>
+        <v>0.7482290398092086</v>
       </c>
       <c r="B17">
-        <v>0.3874352510595888</v>
+        <v>0.4425098019969483</v>
       </c>
       <c r="C17">
-        <v>0.1950508844499215</v>
+        <v>0.4210622037442896</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.9223656595851469</v>
+        <v>1.023584399014808</v>
       </c>
       <c r="B18">
-        <v>-0.3885820853813635</v>
+        <v>-0.254385531412149</v>
       </c>
       <c r="C18">
-        <v>0.9524398965848769</v>
+        <v>0.8734467959357716</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.389843905200061</v>
+        <v>0.6034412865400937</v>
       </c>
       <c r="B19">
-        <v>-0.5379442682594567</v>
+        <v>-0.3785230311101596</v>
       </c>
       <c r="C19">
-        <v>-0.1675430372183116</v>
+        <v>-0.0700775172741876</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.9123049836955145</v>
+        <v>0.697602654522015</v>
       </c>
       <c r="B20">
-        <v>-1.014598462147592</v>
+        <v>-1.083703573067608</v>
       </c>
       <c r="C20">
-        <v>0.2034952089643282</v>
+        <v>0.2645543665654219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.4938865711308761</v>
+        <v>0.3455813123515846</v>
       </c>
       <c r="B21">
-        <v>1.066960825721925</v>
+        <v>0.936707747247468</v>
       </c>
       <c r="C21">
-        <v>0.9574544587314932</v>
+        <v>0.8911337676901565</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.1326609514175109</v>
+        <v>0.2305424348532255</v>
       </c>
       <c r="B22">
-        <v>0.5521134983706245</v>
+        <v>0.648969348824246</v>
       </c>
       <c r="C22">
-        <v>-0.2541550270055314</v>
+        <v>-0.2087080120118511</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.3541431831564441</v>
+        <v>-0.007293265267736208</v>
       </c>
       <c r="B23">
-        <v>-0.4189110413090278</v>
+        <v>-0.2885698137247744</v>
       </c>
       <c r="C23">
-        <v>-1.205924740652656</v>
+        <v>-1.194031187696525</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.09560753516587742</v>
+        <v>0.3150614118098021</v>
       </c>
       <c r="B24">
-        <v>0.2244060687094027</v>
+        <v>0.3019314483878794</v>
       </c>
       <c r="C24">
-        <v>-1.069665958382463</v>
+        <v>-0.8578675286412055</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.022431563626031</v>
+        <v>0.6424538854511294</v>
       </c>
       <c r="B25">
-        <v>-0.02037995329973125</v>
+        <v>-0.2508181930228699</v>
       </c>
       <c r="C25">
-        <v>-0.02658213049130903</v>
+        <v>-0.1525331360599108</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.4294222466958412</v>
+        <v>-0.6496266782402018</v>
       </c>
       <c r="B26">
-        <v>-0.469956688273895</v>
+        <v>-0.5961628678646109</v>
       </c>
       <c r="C26">
-        <v>-1.413813714466948</v>
+        <v>-1.490461848131764</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.9717592010850413</v>
+        <v>0.5646690260104966</v>
       </c>
       <c r="B27">
-        <v>-0.4538998596853011</v>
+        <v>-0.4646925953346729</v>
       </c>
       <c r="C27">
-        <v>-0.8381921949636454</v>
+        <v>-1.198210401483089</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.3258633583886112</v>
+        <v>0.5206905146625993</v>
       </c>
       <c r="B28">
-        <v>0.7841176167974645</v>
+        <v>0.7443132217808076</v>
       </c>
       <c r="C28">
-        <v>-0.7724049337734603</v>
+        <v>-0.6749482376565995</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.703313910762967</v>
+        <v>-1.2160987926349</v>
       </c>
       <c r="B29">
-        <v>-0.429138269988237</v>
+        <v>-0.300244559668797</v>
       </c>
       <c r="C29">
-        <v>0.4348498727373061</v>
+        <v>0.16826247395143</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.3628273337260666</v>
+        <v>-0.1540887259093431</v>
       </c>
       <c r="B30">
-        <v>1.103911024255672</v>
+        <v>1.046058224911667</v>
       </c>
       <c r="C30">
-        <v>-0.4154643320159622</v>
+        <v>-0.246748200398956</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-2.641857375018106</v>
+        <v>-3.765158084115561</v>
       </c>
       <c r="B31">
-        <v>1.864577158071276</v>
+        <v>1.98444025555347</v>
       </c>
       <c r="C31">
-        <v>0.8793842233578291</v>
+        <v>0.4339363578968728</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.48807068143669</v>
+        <v>1.074508460148272</v>
       </c>
       <c r="B32">
-        <v>-0.6768374505529611</v>
+        <v>-0.8489256551102381</v>
       </c>
       <c r="C32">
-        <v>-0.3516524673494906</v>
+        <v>-0.5382179250663461</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.158043597642527</v>
+        <v>0.2014803901703386</v>
       </c>
       <c r="B33">
-        <v>-1.549228213523037</v>
+        <v>-1.385457694012237</v>
       </c>
       <c r="C33">
-        <v>-1.383347938319222</v>
+        <v>-1.27159528680024</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.182145889836434</v>
+        <v>0.2020641369505563</v>
       </c>
       <c r="B34">
-        <v>-0.4360770044602348</v>
+        <v>-0.3104360834490342</v>
       </c>
       <c r="C34">
-        <v>-1.630384110361201</v>
+        <v>-1.579546623231507</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.1124268156538622</v>
+        <v>0.3267441414249793</v>
       </c>
       <c r="B35">
-        <v>0.5243907386507201</v>
+        <v>0.5500077107390493</v>
       </c>
       <c r="C35">
-        <v>0.1225310175783534</v>
+        <v>-0.03333065310946897</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.7136028212904956</v>
+        <v>0.216632213953931</v>
       </c>
       <c r="B36">
-        <v>-1.14782291582513</v>
+        <v>-1.238569120823275</v>
       </c>
       <c r="C36">
-        <v>-0.8848789598765605</v>
+        <v>-0.9637142415293369</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.083286481614151</v>
+        <v>0.7203169326851325</v>
       </c>
       <c r="B37">
-        <v>0.05757065263658898</v>
+        <v>-0.1859996832351015</v>
       </c>
       <c r="C37">
-        <v>-0.08352639902681258</v>
+        <v>-0.05693900361605976</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.8338007451397431</v>
+        <v>0.4386856415690468</v>
       </c>
       <c r="B38">
-        <v>-0.01343853015522876</v>
+        <v>-0.2949977054592307</v>
       </c>
       <c r="C38">
-        <v>-0.9549709452502612</v>
+        <v>-1.062028198612821</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.5279056254172795</v>
+        <v>0.785359354683463</v>
       </c>
       <c r="B39">
-        <v>-0.3862562810988451</v>
+        <v>-0.2326568780728585</v>
       </c>
       <c r="C39">
-        <v>-1.536805564939376</v>
+        <v>-1.561561723748078</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.2101669470311971</v>
+        <v>0.204156720251938</v>
       </c>
       <c r="B40">
-        <v>-1.116863700024399</v>
+        <v>-0.968923612839937</v>
       </c>
       <c r="C40">
-        <v>-0.3469632639752492</v>
+        <v>-0.5489860439865679</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.07981479174996346</v>
+        <v>0.0924439721539627</v>
       </c>
       <c r="B41">
-        <v>0.5244173166349952</v>
+        <v>0.6477206425290444</v>
       </c>
       <c r="C41">
-        <v>-1.510653611820616</v>
+        <v>-1.468741648633252</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.1941817654526537</v>
+        <v>-0.009551418937377166</v>
       </c>
       <c r="B42">
-        <v>-0.157650827160407</v>
+        <v>-0.2193956631132329</v>
       </c>
       <c r="C42">
-        <v>-0.1374479675288926</v>
+        <v>-0.3800369930727864</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.756327725284791</v>
+        <v>-1.928920441132733</v>
       </c>
       <c r="B43">
-        <v>2.173223879792057</v>
+        <v>2.155048261119003</v>
       </c>
       <c r="C43">
-        <v>-1.370058737334634</v>
+        <v>-1.297106529093754</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.658159229722597</v>
+        <v>1.372839929985229</v>
       </c>
       <c r="B2">
-        <v>-1.117260011619504</v>
+        <v>-1.199509045503913</v>
       </c>
       <c r="C2">
-        <v>0.542824823632715</v>
+        <v>-0.7774852717073659</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.944493520112721</v>
+        <v>1.610218840531201</v>
       </c>
       <c r="B3">
-        <v>-1.086683026460278</v>
+        <v>-1.018106298531392</v>
       </c>
       <c r="C3">
-        <v>0.2849705610414193</v>
+        <v>-1.388205611750102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.0844412966605404</v>
+        <v>-0.2014860970911793</v>
       </c>
       <c r="B4">
-        <v>-1.030825534231605</v>
+        <v>-0.8218345067281236</v>
       </c>
       <c r="C4">
-        <v>-0.5507155179277974</v>
+        <v>0.3895418179666774</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.026732371310834</v>
+        <v>0.5734394825087306</v>
       </c>
       <c r="B5">
-        <v>-0.3673544469111924</v>
+        <v>-0.4284081982440424</v>
       </c>
       <c r="C5">
-        <v>0.8428667554056951</v>
+        <v>1.693501285822586</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.9399782898471691</v>
+        <v>0.5566347951925277</v>
       </c>
       <c r="B6">
-        <v>-1.309454727264147</v>
+        <v>-1.36990336537381</v>
       </c>
       <c r="C6">
-        <v>-1.579441689710945</v>
+        <v>-0.4845197363587233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.4942657432637671</v>
+        <v>-0.6261466265329646</v>
       </c>
       <c r="B7">
-        <v>-0.5709859975876412</v>
+        <v>-0.6838370507906384</v>
       </c>
       <c r="C7">
-        <v>-0.8694472798583208</v>
+        <v>-0.8967118443509933</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.045352517872924</v>
+        <v>-0.858863708903056</v>
       </c>
       <c r="B8">
-        <v>-0.2847341289455982</v>
+        <v>-0.097794444878446</v>
       </c>
       <c r="C8">
-        <v>-0.4357850712049551</v>
+        <v>0.9508721784948823</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.4180229884367498</v>
+        <v>-0.03217992815169909</v>
       </c>
       <c r="B9">
-        <v>-1.221287112423515</v>
+        <v>-1.05664916878822</v>
       </c>
       <c r="C9">
-        <v>0.7528247113647168</v>
+        <v>1.293645590437155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.7391131245344462</v>
+        <v>0.6012736568526528</v>
       </c>
       <c r="B10">
-        <v>-1.637739903090439</v>
+        <v>-1.591743144866035</v>
       </c>
       <c r="C10">
-        <v>-0.224357232929673</v>
+        <v>-0.1947537601422232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.421566484600538</v>
+        <v>0.4132840896923637</v>
       </c>
       <c r="B11">
-        <v>-1.421291333870385</v>
+        <v>-1.366133058688914</v>
       </c>
       <c r="C11">
-        <v>0.9682800117780673</v>
+        <v>0.1086486614711793</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.801077045081778</v>
+        <v>-1.778854423523233</v>
       </c>
       <c r="B12">
-        <v>-0.7043159314333903</v>
+        <v>-0.8287178734826103</v>
       </c>
       <c r="C12">
-        <v>-0.5236645293530209</v>
+        <v>0.09728656331703354</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5060406922200168</v>
+        <v>-0.5254271932462385</v>
       </c>
       <c r="B13">
-        <v>-1.126540731650588</v>
+        <v>-1.152558064641229</v>
       </c>
       <c r="C13">
-        <v>0.9512210847213498</v>
+        <v>1.20218673452265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3554803285884991</v>
+        <v>-0.09731619403136992</v>
       </c>
       <c r="B14">
-        <v>-1.022885353349948</v>
+        <v>-0.8963727815357985</v>
       </c>
       <c r="C14">
-        <v>0.583231734286689</v>
+        <v>0.001904454378074625</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4181138018301985</v>
+        <v>0.5888498196027632</v>
       </c>
       <c r="B15">
-        <v>-1.316018207229262</v>
+        <v>-1.116136974101569</v>
       </c>
       <c r="C15">
-        <v>1.438480460772078</v>
+        <v>2.23067276035759</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.925910838980338</v>
+        <v>-1.183205159708512</v>
       </c>
       <c r="B16">
-        <v>0.02172469289730125</v>
+        <v>-0.09254996005489381</v>
       </c>
       <c r="C16">
-        <v>1.415143963145769</v>
+        <v>1.088288354719491</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.3798879309181967</v>
+        <v>0.3128305312551273</v>
       </c>
       <c r="B17">
-        <v>-1.644571547074514</v>
+        <v>-1.646268263620297</v>
       </c>
       <c r="C17">
-        <v>-0.5296138228040492</v>
+        <v>-0.3293038448453783</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.236335526634847</v>
+        <v>-1.325628052059038</v>
       </c>
       <c r="B18">
-        <v>-0.5505501727166581</v>
+        <v>-0.6236947124454675</v>
       </c>
       <c r="C18">
-        <v>0.9744467549922217</v>
+        <v>1.161631204239078</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.4868902201789346</v>
+        <v>-0.2604800333286926</v>
       </c>
       <c r="B19">
-        <v>-0.3499232596585276</v>
+        <v>-0.1834582129623309</v>
       </c>
       <c r="C19">
-        <v>0.05290409827473764</v>
+        <v>1.266638333543854</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.273826000827943</v>
+        <v>1.341416923227822</v>
       </c>
       <c r="B20">
-        <v>-0.7732613618774073</v>
+        <v>-0.5156819709153558</v>
       </c>
       <c r="C20">
-        <v>0.5934738151279514</v>
+        <v>0.4901902344460044</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.9430042784523884</v>
+        <v>-0.6347867024555043</v>
       </c>
       <c r="B21">
-        <v>-0.2041122650314541</v>
+        <v>-0.2655072076815023</v>
       </c>
       <c r="C21">
-        <v>-0.8404972977391622</v>
+        <v>0.3863949470672445</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.4369396854871244</v>
+        <v>-0.7008315240699221</v>
       </c>
       <c r="B22">
-        <v>0.3840042585727463</v>
+        <v>0.1362899359246209</v>
       </c>
       <c r="C22">
-        <v>-1.778878185006432</v>
+        <v>-1.829665823785489</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2620580341242719</v>
+        <v>-0.5313755107976132</v>
       </c>
       <c r="B23">
-        <v>-0.0126626286902856</v>
+        <v>-0.1816540920967632</v>
       </c>
       <c r="C23">
-        <v>-2.023536570772605</v>
+        <v>-0.9236374473415522</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.03382584292591</v>
+        <v>-1.189751186071768</v>
       </c>
       <c r="B24">
-        <v>0.2146200781652589</v>
+        <v>0.0596209593466084</v>
       </c>
       <c r="C24">
-        <v>0.5393719929196283</v>
+        <v>0.5265523615990355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.184942502322416</v>
+        <v>1.792735690135991</v>
       </c>
       <c r="B25">
-        <v>1.487366310096113</v>
+        <v>1.664121270739698</v>
       </c>
       <c r="C25">
-        <v>1.649121340310328</v>
+        <v>1.05683883536916</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.1209605414919198</v>
+        <v>0.3502245455828374</v>
       </c>
       <c r="B26">
-        <v>0.2502838047043968</v>
+        <v>0.5086077708050938</v>
       </c>
       <c r="C26">
-        <v>0.4481286916879654</v>
+        <v>-0.324933288456533</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.03956980326582159</v>
+        <v>-0.4754505826704387</v>
       </c>
       <c r="B27">
-        <v>0.957482657456997</v>
+        <v>0.768253521950141</v>
       </c>
       <c r="C27">
-        <v>0.7870474033941789</v>
+        <v>0.2824624849864096</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.557633439207331</v>
+        <v>-1.613502780742879</v>
       </c>
       <c r="B28">
-        <v>0.2552886524541884</v>
+        <v>0.02155788118953038</v>
       </c>
       <c r="C28">
-        <v>-0.9453025323940425</v>
+        <v>-1.1846275210604</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.03371811666608374</v>
+        <v>-0.4194529593363763</v>
       </c>
       <c r="B29">
-        <v>1.401526732281711</v>
+        <v>1.163120864514573</v>
       </c>
       <c r="C29">
-        <v>0.7234933986409243</v>
+        <v>0.09073485236600289</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9417236072974751</v>
+        <v>-0.9638529668480426</v>
       </c>
       <c r="B30">
-        <v>-0.2541445292628527</v>
+        <v>-0.483000433756066</v>
       </c>
       <c r="C30">
-        <v>-1.700917420769914</v>
+        <v>-1.603730813446615</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.8474257676927277</v>
+        <v>-0.7105511789450287</v>
       </c>
       <c r="B31">
-        <v>0.1654508330686197</v>
+        <v>0.2815955523725146</v>
       </c>
       <c r="C31">
-        <v>-0.7450981048642652</v>
+        <v>-0.7583528433720289</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.8847549545950266</v>
+        <v>1.264464005927566</v>
       </c>
       <c r="B32">
-        <v>0.9225866315190867</v>
+        <v>1.233372054658213</v>
       </c>
       <c r="C32">
-        <v>1.402581368453502</v>
+        <v>0.3225239769794494</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.5911485982492422</v>
+        <v>-0.9299513383228378</v>
       </c>
       <c r="B33">
-        <v>0.6933132663208971</v>
+        <v>0.4931574024463188</v>
       </c>
       <c r="C33">
-        <v>-1.308094000824342</v>
+        <v>-1.335891688027898</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.147663100684805</v>
+        <v>-1.243020028215338</v>
       </c>
       <c r="B34">
-        <v>0.005591533187759882</v>
+        <v>-0.1882273183270821</v>
       </c>
       <c r="C34">
-        <v>-0.5975250492670693</v>
+        <v>-1.500646178396138</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.3665315398342714</v>
+        <v>-0.6204928611054763</v>
       </c>
       <c r="B35">
-        <v>0.8078136416118307</v>
+        <v>0.5644137933448817</v>
       </c>
       <c r="C35">
-        <v>-1.303320460751157</v>
+        <v>-1.83135408716187</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.0659090845913988</v>
+        <v>0.6824139190582168</v>
       </c>
       <c r="B36">
-        <v>1.41376504460527</v>
+        <v>1.595827834821776</v>
       </c>
       <c r="C36">
-        <v>0.5278993715548765</v>
+        <v>0.0596242915928961</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.4564303765884314</v>
+        <v>1.359491086167374</v>
       </c>
       <c r="B37">
-        <v>1.594058262095763</v>
+        <v>1.780624430680066</v>
       </c>
       <c r="C37">
-        <v>-0.286543542441034</v>
+        <v>0.7261004750662536</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2588069627624187</v>
+        <v>0.9686611025625154</v>
       </c>
       <c r="B38">
-        <v>1.201806311711096</v>
+        <v>1.441619834169265</v>
       </c>
       <c r="C38">
-        <v>1.051328923875468</v>
+        <v>1.116762799500101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2.575603069516437</v>
+        <v>1.698914074442843</v>
       </c>
       <c r="B39">
-        <v>1.814313336614496</v>
+        <v>1.563330732800746</v>
       </c>
       <c r="C39">
-        <v>-1.381530861063013</v>
+        <v>-0.7140864734157829</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.103863059773534</v>
+        <v>-1.44394722670985</v>
       </c>
       <c r="B40">
-        <v>1.182372826262518</v>
+        <v>0.9466147810015072</v>
       </c>
       <c r="C40">
-        <v>-0.5308508631831779</v>
+        <v>-0.5144385020925433</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2.130066109955274</v>
+        <v>1.524206513929265</v>
       </c>
       <c r="B41">
-        <v>0.8334872998610902</v>
+        <v>0.6968807599380193</v>
       </c>
       <c r="C41">
-        <v>1.506779367645862</v>
+        <v>-0.9222260267494879</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.2341295464084409</v>
+        <v>0.5444687568038488</v>
       </c>
       <c r="B42">
-        <v>1.14984640725267</v>
+        <v>1.414124631799679</v>
       </c>
       <c r="C42">
-        <v>-0.1746987362521359</v>
+        <v>0.4252612641301316</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.3462710291276171</v>
+        <v>0.8101864994082261</v>
       </c>
       <c r="B43">
-        <v>1.249899629639381</v>
+        <v>1.47461213551125</v>
       </c>
       <c r="C43">
-        <v>0.2933981360909715</v>
+        <v>0.5463063000881891</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.292324537085266</v>
+        <v>1.017313787497548</v>
       </c>
       <c r="B2">
-        <v>-0.7453327602777139</v>
+        <v>0.4802620205779449</v>
       </c>
       <c r="C2">
-        <v>0.2733476085188254</v>
+        <v>-0.5892339653779636</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.073236922684873</v>
+        <v>3.023818619786202</v>
       </c>
       <c r="B3">
-        <v>-1.723038472542759</v>
+        <v>1.760596075826804</v>
       </c>
       <c r="C3">
-        <v>-1.367623782993794</v>
+        <v>1.260379923368621</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.1710368172613999</v>
+        <v>-0.3451814422289752</v>
       </c>
       <c r="B4">
-        <v>-0.1771719597137031</v>
+        <v>0.2419376502858173</v>
       </c>
       <c r="C4">
-        <v>0.5406151123861429</v>
+        <v>-0.5901255342433749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.7689570563343748</v>
+        <v>-0.9811014488304629</v>
       </c>
       <c r="B5">
-        <v>-0.09927625493034106</v>
+        <v>0.08777640850029711</v>
       </c>
       <c r="C5">
-        <v>1.583978685827552</v>
+        <v>-1.53817850361718</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.3443917077641264</v>
+        <v>-0.4160477553459787</v>
       </c>
       <c r="B6">
-        <v>-0.7686870426362454</v>
+        <v>0.7724292358888155</v>
       </c>
       <c r="C6">
-        <v>0.5602275028355812</v>
+        <v>-0.6659098335548058</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.824308847692626</v>
+        <v>-1.613482338394832</v>
       </c>
       <c r="B7">
-        <v>-0.1353190097140634</v>
+        <v>0.04788601545395395</v>
       </c>
       <c r="C7">
-        <v>1.206142106617328</v>
+        <v>-1.364717083763557</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.3555253379882719</v>
+        <v>-0.009785067200555582</v>
       </c>
       <c r="B8">
-        <v>0.6223235276363811</v>
+        <v>-0.5460406935088973</v>
       </c>
       <c r="C8">
-        <v>1.049576256460651</v>
+        <v>-0.896036413606267</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.9507623410742745</v>
+        <v>-1.212385869961582</v>
       </c>
       <c r="B9">
-        <v>0.1433347619577017</v>
+        <v>-0.1024012592543899</v>
       </c>
       <c r="C9">
-        <v>1.520195424412826</v>
+        <v>-1.317496662769408</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.1979473627668769</v>
+        <v>0.05809667262923993</v>
       </c>
       <c r="B10">
-        <v>-1.328883804910285</v>
+        <v>1.36262270075434</v>
       </c>
       <c r="C10">
-        <v>0.3698539006034142</v>
+        <v>-0.461913652830963</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.9017884721010889</v>
+        <v>0.907365608855613</v>
       </c>
       <c r="B11">
-        <v>-1.896381006397548</v>
+        <v>1.894695021091188</v>
       </c>
       <c r="C11">
-        <v>0.5634864027532509</v>
+        <v>-0.5245914160206504</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.77497478616809</v>
+        <v>-1.653866631399974</v>
       </c>
       <c r="B12">
-        <v>-0.5665078981930998</v>
+        <v>0.3681525252194073</v>
       </c>
       <c r="C12">
-        <v>-0.3398301674235349</v>
+        <v>0.4090173120877371</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.303235532835705</v>
+        <v>-1.18398282055043</v>
       </c>
       <c r="B13">
-        <v>-0.6632568891779839</v>
+        <v>0.4603116177171235</v>
       </c>
       <c r="C13">
-        <v>0.55875110316469</v>
+        <v>-0.9619875377388991</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.6545837449241489</v>
+        <v>-0.9179168951425354</v>
       </c>
       <c r="B14">
-        <v>-0.5893666088329901</v>
+        <v>0.6677065770609361</v>
       </c>
       <c r="C14">
-        <v>1.181497975044705</v>
+        <v>-0.9709182159801782</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.1556048515507113</v>
+        <v>-0.3445525217745593</v>
       </c>
       <c r="B15">
-        <v>-0.9838338401454759</v>
+        <v>1.041274932353645</v>
       </c>
       <c r="C15">
-        <v>1.336101993122727</v>
+        <v>-1.16170851620846</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.482275548210645</v>
+        <v>1.179605299756176</v>
       </c>
       <c r="B16">
-        <v>-0.731367474437071</v>
+        <v>0.7397621022749246</v>
       </c>
       <c r="C16">
-        <v>1.478497267108235</v>
+        <v>-1.188594176107758</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.07383772890195356</v>
+        <v>-0.009377477376129227</v>
       </c>
       <c r="B17">
-        <v>-1.328191956643495</v>
+        <v>1.378456020629508</v>
       </c>
       <c r="C17">
-        <v>0.6145853837534341</v>
+        <v>-0.6309450582496818</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.3059917517366995</v>
+        <v>1.305711710639829</v>
       </c>
       <c r="B18">
-        <v>-0.9897420983571785</v>
+        <v>0.9058385917306714</v>
       </c>
       <c r="C18">
-        <v>-1.219864310463584</v>
+        <v>1.80295504988973</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8537989420635602</v>
+        <v>0.5900899648944138</v>
       </c>
       <c r="B19">
-        <v>1.414584871247069</v>
+        <v>-1.316461592134986</v>
       </c>
       <c r="C19">
-        <v>0.4291732427674561</v>
+        <v>-0.1953472363932966</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.959779117511065</v>
+        <v>0.7850505702421438</v>
       </c>
       <c r="B20">
-        <v>-0.4984006688056606</v>
+        <v>0.5719714795386893</v>
       </c>
       <c r="C20">
-        <v>-0.8601335607261195</v>
+        <v>0.9574203976931777</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.150604715947189</v>
+        <v>0.9904069761741783</v>
       </c>
       <c r="B21">
-        <v>-1.006604805057858</v>
+        <v>1.060610518739458</v>
       </c>
       <c r="C21">
-        <v>-1.046938361180715</v>
+        <v>1.092930718032246</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.23814357894474</v>
+        <v>1.14062467399224</v>
       </c>
       <c r="B22">
-        <v>-1.235503246762614</v>
+        <v>1.29063352671902</v>
       </c>
       <c r="C22">
-        <v>-1.378435052347538</v>
+        <v>1.183820818632525</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2624028549895039</v>
+        <v>0.471923721395145</v>
       </c>
       <c r="B23">
-        <v>1.204007462175233</v>
+        <v>-1.47582660943481</v>
       </c>
       <c r="C23">
-        <v>0.9826424458256883</v>
+        <v>-1.205389906117442</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.1995274025649589</v>
+        <v>0.04962643777594064</v>
       </c>
       <c r="B24">
-        <v>-1.2556780746453</v>
+        <v>1.231823018355241</v>
       </c>
       <c r="C24">
-        <v>-0.1741599625272624</v>
+        <v>-0.1293561684639741</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.08519412985279054</v>
+        <v>-0.3962551027903214</v>
       </c>
       <c r="B25">
-        <v>1.004832945537718</v>
+        <v>-0.900173014841002</v>
       </c>
       <c r="C25">
-        <v>-0.9777152497353792</v>
+        <v>1.141202689869699</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.467132831388498</v>
+        <v>-1.823325540151605</v>
       </c>
       <c r="B26">
-        <v>0.9564002790068452</v>
+        <v>-0.8821825171404488</v>
       </c>
       <c r="C26">
-        <v>1.192083945793732</v>
+        <v>-1.027062532429999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.175479655904925</v>
+        <v>-0.2386548798977791</v>
       </c>
       <c r="B27">
-        <v>-0.03882393695707546</v>
+        <v>0.1612544482712021</v>
       </c>
       <c r="C27">
-        <v>-1.87944839377417</v>
+        <v>1.725926592218481</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.225513919541978</v>
+        <v>0.253775665661656</v>
       </c>
       <c r="B28">
-        <v>0.08438621679980078</v>
+        <v>-0.02662836948397179</v>
       </c>
       <c r="C28">
-        <v>-1.55106924082601</v>
+        <v>1.34664832367268</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.082463237779954</v>
+        <v>-0.8152914843501916</v>
       </c>
       <c r="B29">
-        <v>-0.0645213110650044</v>
+        <v>-0.05296086066382347</v>
       </c>
       <c r="C29">
-        <v>-0.671564109189935</v>
+        <v>0.4664863335206851</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.8524200546214489</v>
+        <v>-0.1526517112247529</v>
       </c>
       <c r="B30">
-        <v>-1.096653617180482</v>
+        <v>1.105439336316283</v>
       </c>
       <c r="C30">
-        <v>-1.18730502930545</v>
+        <v>1.328182661188493</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.1208584845249591</v>
+        <v>0.05090464450889962</v>
       </c>
       <c r="B31">
-        <v>0.7161942926171053</v>
+        <v>-0.6057632685459287</v>
       </c>
       <c r="C31">
-        <v>-2.052935185881551</v>
+        <v>1.954750414303719</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.218486675882224</v>
+        <v>2.180620500683372</v>
       </c>
       <c r="B32">
-        <v>0.9270207167221381</v>
+        <v>-0.8529737550062673</v>
       </c>
       <c r="C32">
-        <v>0.07580655758228794</v>
+        <v>-0.4269560420697058</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.2759985591661373</v>
+        <v>-0.3767350874526202</v>
       </c>
       <c r="B33">
-        <v>0.9009167125106465</v>
+        <v>-0.8683744100457423</v>
       </c>
       <c r="C33">
-        <v>-0.2107963816036684</v>
+        <v>0.1222272604881425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2552272850497906</v>
+        <v>-0.01445577641562227</v>
       </c>
       <c r="B34">
-        <v>0.2874579774907647</v>
+        <v>-0.2612668184456209</v>
       </c>
       <c r="C34">
-        <v>0.5975653187154906</v>
+        <v>-0.639546317675855</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7797094892430607</v>
+        <v>-0.2578637430198866</v>
       </c>
       <c r="B35">
-        <v>1.248235499561452</v>
+        <v>-1.373394088110778</v>
       </c>
       <c r="C35">
-        <v>0.6726018490080763</v>
+        <v>-0.7616731335947856</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.3057395481865587</v>
+        <v>0.09375635084501061</v>
       </c>
       <c r="B36">
-        <v>1.827116011789961</v>
+        <v>-1.723509087326495</v>
       </c>
       <c r="C36">
-        <v>-0.9810238363269539</v>
+        <v>0.9985149147858485</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.05403934628878208</v>
+        <v>-0.4018882121276793</v>
       </c>
       <c r="B37">
-        <v>1.253523029740951</v>
+        <v>-1.202730268461106</v>
       </c>
       <c r="C37">
-        <v>0.2745926052854802</v>
+        <v>-0.05549658908495268</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.6958528428231078</v>
+        <v>-0.9513699443765966</v>
       </c>
       <c r="B38">
-        <v>0.4532234660095183</v>
+        <v>-0.3761926229993274</v>
       </c>
       <c r="C38">
-        <v>0.6807665773898652</v>
+        <v>-0.7292045917933994</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.1843537270065274</v>
+        <v>-0.1032647349162238</v>
       </c>
       <c r="B39">
-        <v>-0.02206606029567044</v>
+        <v>0.1011628255729508</v>
       </c>
       <c r="C39">
-        <v>-0.2617585073752572</v>
+        <v>0.2796008403284678</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.399050360654726</v>
+        <v>-0.6150048635659779</v>
       </c>
       <c r="B40">
-        <v>1.088362098765402</v>
+        <v>-1.304190314336976</v>
       </c>
       <c r="C40">
-        <v>-0.6320057787548723</v>
+        <v>0.8045563461025204</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.4682315775233017</v>
+        <v>1.678877405443329</v>
       </c>
       <c r="B41">
-        <v>1.086474618626927</v>
+        <v>-1.269672436675958</v>
       </c>
       <c r="C41">
-        <v>-0.817589743627355</v>
+        <v>0.9619512650802098</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.07007770291800125</v>
+        <v>-0.3836316241407882</v>
       </c>
       <c r="B42">
-        <v>1.964669587587619</v>
+        <v>-1.876313924551633</v>
       </c>
       <c r="C42">
-        <v>-0.8226085242154538</v>
+        <v>0.8755671997552185</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.3164610798563345</v>
+        <v>-0.5594956381448736</v>
       </c>
       <c r="B43">
-        <v>0.7615447218963843</v>
+        <v>-0.7155467379100585</v>
       </c>
       <c r="C43">
-        <v>0.690715913301165</v>
+        <v>-0.6797499733256447</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.1519217201516496</v>
+        <v>0.2470018993654098</v>
       </c>
       <c r="B2">
-        <v>0.1619139113655561</v>
+        <v>0.5174791933520707</v>
       </c>
       <c r="C2">
-        <v>2.027932976662378</v>
+        <v>-2.100991460914822</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.534227524333315</v>
+        <v>3.353260064161086</v>
       </c>
       <c r="B3">
-        <v>1.586175119678782</v>
+        <v>1.717580638139147</v>
       </c>
       <c r="C3">
-        <v>1.911742966631385</v>
+        <v>-2.118489423227477</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8533994028262474</v>
+        <v>1.068249783843104</v>
       </c>
       <c r="B4">
-        <v>-1.448436774694201</v>
+        <v>-1.434064152152671</v>
       </c>
       <c r="C4">
-        <v>1.336190170463988</v>
+        <v>-1.364614409650448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.09121411421419659</v>
+        <v>0.3297395393193395</v>
       </c>
       <c r="B5">
-        <v>0.6829916196814891</v>
+        <v>0.5589414942534483</v>
       </c>
       <c r="C5">
-        <v>1.024144463479603</v>
+        <v>-0.9661560099932504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2118316228300743</v>
+        <v>0.3957755655684444</v>
       </c>
       <c r="B6">
-        <v>-1.173871387499595</v>
+        <v>-1.238238824805452</v>
       </c>
       <c r="C6">
-        <v>0.146108760694956</v>
+        <v>-0.3986254767193207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1000201687406444</v>
+        <v>-0.01690007875627817</v>
       </c>
       <c r="B7">
-        <v>0.6401725696757307</v>
+        <v>0.7166049736319704</v>
       </c>
       <c r="C7">
-        <v>0.4354700881063441</v>
+        <v>-0.4838145863106901</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.4578368449607211</v>
+        <v>-0.7969008133459247</v>
       </c>
       <c r="B8">
-        <v>-0.1950962797102447</v>
+        <v>-0.1532661599516618</v>
       </c>
       <c r="C8">
-        <v>-0.6059075406634374</v>
+        <v>0.1886809494652709</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.4571351530968665</v>
+        <v>0.3464019334782407</v>
       </c>
       <c r="B9">
-        <v>1.937106662686695</v>
+        <v>1.909878643407938</v>
       </c>
       <c r="C9">
-        <v>0.6761082569290764</v>
+        <v>-0.71257837208524</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3094758317464264</v>
+        <v>-0.08973329195642572</v>
       </c>
       <c r="B10">
-        <v>-0.5031278542232406</v>
+        <v>-0.499584846166905</v>
       </c>
       <c r="C10">
-        <v>1.76318829701928</v>
+        <v>-1.589706134033887</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.477449304807339</v>
+        <v>-1.447143163806266</v>
       </c>
       <c r="B11">
-        <v>-0.3535418307274446</v>
+        <v>-0.284688454694376</v>
       </c>
       <c r="C11">
-        <v>1.444101326773052</v>
+        <v>-1.160578661921887</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.06119566628372915</v>
+        <v>-0.3248669734441334</v>
       </c>
       <c r="B12">
-        <v>0.05134021803572848</v>
+        <v>0.1316085852651009</v>
       </c>
       <c r="C12">
-        <v>-0.1455569211884888</v>
+        <v>-0.1974724637264642</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.1266874616363255</v>
+        <v>-0.3384580753592589</v>
       </c>
       <c r="B13">
-        <v>0.120887613140619</v>
+        <v>0.2298533597977699</v>
       </c>
       <c r="C13">
-        <v>0.9830620050461469</v>
+        <v>-1.217721268176706</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.8971605314447103</v>
+        <v>-1.014963054661739</v>
       </c>
       <c r="B14">
-        <v>0.05785371140822535</v>
+        <v>0.2201630730860645</v>
       </c>
       <c r="C14">
-        <v>1.356466682362996</v>
+        <v>-1.25589438308595</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.3558665076977579</v>
+        <v>0.2940219459147174</v>
       </c>
       <c r="B15">
-        <v>-0.003570940259430546</v>
+        <v>-0.1020791336265575</v>
       </c>
       <c r="C15">
-        <v>-0.02873112857460683</v>
+        <v>0.2391434261478022</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.02561964983875039</v>
+        <v>0.3761903265523845</v>
       </c>
       <c r="B16">
-        <v>0.9141783192302113</v>
+        <v>0.8269893261998453</v>
       </c>
       <c r="C16">
-        <v>-0.006987784953934228</v>
+        <v>0.5405032475815726</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.156701637547259</v>
+        <v>-0.9430868529930063</v>
       </c>
       <c r="B17">
-        <v>0.09388350497959434</v>
+        <v>0.1006372166368752</v>
       </c>
       <c r="C17">
-        <v>0.1123602705961518</v>
+        <v>0.3178896196880728</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.5151070764955793</v>
+        <v>-0.7996589059500649</v>
       </c>
       <c r="B18">
-        <v>-0.6249192057025774</v>
+        <v>-0.4854108868304417</v>
       </c>
       <c r="C18">
-        <v>0.1800919485454591</v>
+        <v>-0.4410416693840485</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.7482167399760605</v>
+        <v>-0.8730673614834257</v>
       </c>
       <c r="B19">
-        <v>-1.015041413450263</v>
+        <v>-0.7862255069405431</v>
       </c>
       <c r="C19">
-        <v>0.4561661945684022</v>
+        <v>-0.8071849740086081</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.011106114633117</v>
+        <v>0.6788085117736329</v>
       </c>
       <c r="B20">
-        <v>-0.4795871666070562</v>
+        <v>-0.3095786857135706</v>
       </c>
       <c r="C20">
-        <v>1.286343595012762</v>
+        <v>-1.622798011139184</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.4615317829650175</v>
+        <v>-0.3024356809538168</v>
       </c>
       <c r="B21">
-        <v>-1.20113537403313</v>
+        <v>-1.305799125218855</v>
       </c>
       <c r="C21">
-        <v>0.9496528436644057</v>
+        <v>-0.87070148844998</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.08129775519817314</v>
+        <v>0.3283650285324322</v>
       </c>
       <c r="B22">
-        <v>-0.2471201537340272</v>
+        <v>-0.5668986066255437</v>
       </c>
       <c r="C22">
-        <v>0.7046690657749628</v>
+        <v>-0.5281408258271565</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.4370819257572686</v>
+        <v>0.1399342772174411</v>
       </c>
       <c r="B23">
-        <v>-0.02023201784497992</v>
+        <v>-0.02298165334687412</v>
       </c>
       <c r="C23">
-        <v>-1.413372753381182</v>
+        <v>0.9313227185478404</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2.039621716387086</v>
+        <v>1.590505684813985</v>
       </c>
       <c r="B24">
-        <v>-1.590582556978758</v>
+        <v>-1.425845922798342</v>
       </c>
       <c r="C24">
-        <v>0.003161868877349841</v>
+        <v>0.0340892696811269</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.930826885534315</v>
+        <v>1.529948247895321</v>
       </c>
       <c r="B25">
-        <v>0.401299609515341</v>
+        <v>0.5040033250702286</v>
       </c>
       <c r="C25">
-        <v>0.4245402894200886</v>
+        <v>0.1283440052838719</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.825524736624257</v>
+        <v>-1.880735615471985</v>
       </c>
       <c r="B26">
-        <v>0.2816847950069957</v>
+        <v>0.3649314327475837</v>
       </c>
       <c r="C26">
-        <v>-0.1668964965048675</v>
+        <v>-0.02107904538370545</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.333038482444991</v>
+        <v>0.1577458220999158</v>
       </c>
       <c r="B27">
-        <v>1.06525349083359</v>
+        <v>1.071043193737189</v>
       </c>
       <c r="C27">
-        <v>-0.1745967485622178</v>
+        <v>0.7750883745537217</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5786777239963836</v>
+        <v>-0.3380022491713438</v>
       </c>
       <c r="B28">
-        <v>-1.279089817914924</v>
+        <v>-1.388193971949494</v>
       </c>
       <c r="C28">
-        <v>-0.5481420186178529</v>
+        <v>0.7281118321813949</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.54293730424027</v>
+        <v>1.31864931236449</v>
       </c>
       <c r="B29">
-        <v>2.416895276032786</v>
+        <v>2.236499001683167</v>
       </c>
       <c r="C29">
-        <v>-0.7266160750061015</v>
+        <v>0.800332025774022</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.4909614546050386</v>
+        <v>0.08369929860943033</v>
       </c>
       <c r="B30">
-        <v>-0.3290423535106881</v>
+        <v>-0.3340643347542935</v>
       </c>
       <c r="C30">
-        <v>-1.675561620942864</v>
+        <v>1.437477279755395</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.8867380876165737</v>
+        <v>-1.096557688571637</v>
       </c>
       <c r="B31">
-        <v>-0.1062713163049469</v>
+        <v>0.004758102944837546</v>
       </c>
       <c r="C31">
-        <v>-1.185412424392834</v>
+        <v>0.9866747266657271</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.2100939772804439</v>
+        <v>0.5474025903106962</v>
       </c>
       <c r="B32">
-        <v>-1.16075549720402</v>
+        <v>-1.782314376590019</v>
       </c>
       <c r="C32">
-        <v>-1.553885838195996</v>
+        <v>1.264203006050382</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.628809172871028</v>
+        <v>2.378075971177081</v>
       </c>
       <c r="B33">
-        <v>-2.248444005809492</v>
+        <v>-2.394788606313653</v>
       </c>
       <c r="C33">
-        <v>-0.3440663020822485</v>
+        <v>0.3600148284128599</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.1912605079323501</v>
+        <v>-0.0001571939733256802</v>
       </c>
       <c r="B34">
-        <v>1.440081278224616</v>
+        <v>1.174454960087228</v>
       </c>
       <c r="C34">
-        <v>-0.2622168261134077</v>
+        <v>0.6463771183705858</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.4392496338134991</v>
+        <v>-0.8145264473152314</v>
       </c>
       <c r="B35">
-        <v>-0.7112385343521986</v>
+        <v>-0.6973924424468106</v>
       </c>
       <c r="C35">
-        <v>-1.071228110470922</v>
+        <v>1.089341644190667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.4752939952891032</v>
+        <v>-0.797363626821275</v>
       </c>
       <c r="B36">
-        <v>-0.05803305135948595</v>
+        <v>0.01919579984496193</v>
       </c>
       <c r="C36">
-        <v>-1.655433205927404</v>
+        <v>1.50283155180171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.037351488769616</v>
+        <v>-1.142632953264874</v>
       </c>
       <c r="B37">
-        <v>-0.00489263160575472</v>
+        <v>0.1049348404917203</v>
       </c>
       <c r="C37">
-        <v>-0.4509698344340545</v>
+        <v>0.3519141564456004</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1374607011226559</v>
+        <v>0.248734333433646</v>
       </c>
       <c r="B38">
-        <v>1.395517189182494</v>
+        <v>1.142926695945971</v>
       </c>
       <c r="C38">
-        <v>-0.8886370498889692</v>
+        <v>1.37062845441101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.26839759098956</v>
+        <v>-0.9873914074657918</v>
       </c>
       <c r="B39">
-        <v>-0.4454059928525651</v>
+        <v>-0.4449805148926628</v>
       </c>
       <c r="C39">
-        <v>-1.156520079320183</v>
+        <v>1.472368174203416</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.7130351929936199</v>
+        <v>-0.8807440598741588</v>
       </c>
       <c r="B40">
-        <v>-0.2184601971052124</v>
+        <v>-0.09821659630230746</v>
       </c>
       <c r="C40">
-        <v>-0.8498245643519127</v>
+        <v>0.7047549889246308</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.01180858395960484</v>
+        <v>-0.2957027666246045</v>
       </c>
       <c r="B41">
-        <v>-0.5803328793048534</v>
+        <v>-0.3941726576287574</v>
       </c>
       <c r="C41">
-        <v>-0.4794029768814648</v>
+        <v>0.3860790402673019</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.08187305153437734</v>
+        <v>-0.1169767548100681</v>
       </c>
       <c r="B42">
-        <v>1.136313216080489</v>
+        <v>1.044660061350061</v>
       </c>
       <c r="C42">
-        <v>-1.307781170059396</v>
+        <v>0.9417415960675798</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.05651465127881002</v>
+        <v>-0.1145051203563176</v>
       </c>
       <c r="B43">
-        <v>1.614681128030146</v>
+        <v>1.551641542076612</v>
       </c>
       <c r="C43">
-        <v>-0.5237546001144442</v>
+        <v>0.6596766295672633</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.693125848944306</v>
+        <v>2.702924279687749</v>
       </c>
       <c r="B2">
-        <v>-1.193035574492496</v>
+        <v>-1.199633026406066</v>
       </c>
       <c r="C2">
-        <v>-1.375128626052243</v>
+        <v>1.37443735139947</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.369525976754921</v>
+        <v>1.361078994840578</v>
       </c>
       <c r="B3">
-        <v>-1.388400014294792</v>
+        <v>-1.391117517860739</v>
       </c>
       <c r="C3">
-        <v>0.1638760423515485</v>
+        <v>-0.2020742980314001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8533652209747246</v>
+        <v>0.8588934371240311</v>
       </c>
       <c r="B4">
-        <v>0.2191644590235846</v>
+        <v>0.2363808515585961</v>
       </c>
       <c r="C4">
-        <v>1.530585257933578</v>
+        <v>-1.525751409452079</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.002372180698351284</v>
+        <v>-0.01022492984586568</v>
       </c>
       <c r="B5">
-        <v>-0.4922329212930495</v>
+        <v>-0.4897139769293355</v>
       </c>
       <c r="C5">
-        <v>-0.01278629020759756</v>
+        <v>-0.01296293470784855</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.125617207889824</v>
+        <v>1.127339969832657</v>
       </c>
       <c r="B6">
-        <v>-0.8966040313796286</v>
+        <v>-0.8811035894965304</v>
       </c>
       <c r="C6">
-        <v>0.961610037326893</v>
+        <v>-0.9646296078600013</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.1450941062040886</v>
+        <v>-0.1493404691020517</v>
       </c>
       <c r="B7">
-        <v>-0.4336998970535698</v>
+        <v>-0.4161525159029738</v>
       </c>
       <c r="C7">
-        <v>1.059379083614574</v>
+        <v>-1.070432424702221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2205245429863028</v>
+        <v>0.2014973703072719</v>
       </c>
       <c r="B8">
-        <v>-1.515425075117194</v>
+        <v>-1.514284552561763</v>
       </c>
       <c r="C8">
-        <v>-0.323431688375959</v>
+        <v>0.3034816343606314</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.4855774745674456</v>
+        <v>0.4682230693906137</v>
       </c>
       <c r="B9">
-        <v>-1.248844661655546</v>
+        <v>-1.252307252759419</v>
       </c>
       <c r="C9">
-        <v>-0.3940434982198993</v>
+        <v>0.3755742294947819</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3449823861109677</v>
+        <v>-0.3588746496906624</v>
       </c>
       <c r="B10">
-        <v>-1.471465649521129</v>
+        <v>-1.452081547437238</v>
       </c>
       <c r="C10">
-        <v>0.4526858271747755</v>
+        <v>-0.4696618623581276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.9912028849228997</v>
+        <v>-1.013205236470976</v>
       </c>
       <c r="B11">
-        <v>-0.4343575628581945</v>
+        <v>-0.4281635903198449</v>
       </c>
       <c r="C11">
-        <v>0.616041432467712</v>
+        <v>-0.6427057297870816</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.1746555921670087</v>
+        <v>-0.18635467407695</v>
       </c>
       <c r="B12">
-        <v>1.384411666296552</v>
+        <v>1.376939433217272</v>
       </c>
       <c r="C12">
-        <v>0.8671576162675598</v>
+        <v>-0.8689847057459391</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.916248097131304</v>
+        <v>-0.9280030450275633</v>
       </c>
       <c r="B13">
-        <v>0.7266010585905582</v>
+        <v>0.7354472866402357</v>
       </c>
       <c r="C13">
-        <v>0.9389743489176954</v>
+        <v>-0.9414591483828439</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.09708117069452225</v>
+        <v>-0.1015138416729481</v>
       </c>
       <c r="B14">
-        <v>-1.022852850728967</v>
+        <v>-0.9977121399585918</v>
       </c>
       <c r="C14">
-        <v>1.34076376773137</v>
+        <v>-1.353296462721174</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6697289513481673</v>
+        <v>-0.6697932821615774</v>
       </c>
       <c r="B15">
-        <v>0.1008228458773928</v>
+        <v>0.1291169436698287</v>
       </c>
       <c r="C15">
-        <v>1.763449236465266</v>
+        <v>-1.761495696445558</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5928272148278555</v>
+        <v>0.5810120788671919</v>
       </c>
       <c r="B16">
-        <v>0.5366454862354032</v>
+        <v>0.5231722342846692</v>
       </c>
       <c r="C16">
-        <v>0.05698945524329072</v>
+        <v>-0.05650965001784487</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6792884310227747</v>
+        <v>-0.7049332341300599</v>
       </c>
       <c r="B17">
-        <v>0.03300770258985593</v>
+        <v>0.02380440082825858</v>
       </c>
       <c r="C17">
-        <v>0.3854615884712876</v>
+        <v>-0.3938492468046618</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.4369918620230823</v>
+        <v>-0.4414424941107029</v>
       </c>
       <c r="B18">
-        <v>0.9049114851279555</v>
+        <v>0.9132481812241925</v>
       </c>
       <c r="C18">
-        <v>1.048314861834053</v>
+        <v>-1.029770648509187</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.06993262175543</v>
+        <v>-0.6726653120109016</v>
       </c>
       <c r="B19">
-        <v>-1.095876290761034</v>
+        <v>-1.229514920390202</v>
       </c>
       <c r="C19">
-        <v>0.481265380954261</v>
+        <v>-0.3283965245264686</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.189166085442661</v>
+        <v>-1.212322890474337</v>
       </c>
       <c r="B20">
-        <v>0.5945094898369052</v>
+        <v>0.5901371679400679</v>
       </c>
       <c r="C20">
-        <v>1.001969326755107</v>
+        <v>-1.004584858813015</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.01560232774877961</v>
+        <v>0.01585166290631052</v>
       </c>
       <c r="B21">
-        <v>0.7156708546187952</v>
+        <v>0.7282660526643159</v>
       </c>
       <c r="C21">
-        <v>1.925903382808081</v>
+        <v>-1.927199078901636</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.300038837299904</v>
+        <v>0.3040625272531761</v>
       </c>
       <c r="B22">
-        <v>-0.661734760033677</v>
+        <v>-0.6455437768359177</v>
       </c>
       <c r="C22">
-        <v>0.7771362573956345</v>
+        <v>-0.7496222585960455</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.05302387629977237</v>
+        <v>0.04073569851353245</v>
       </c>
       <c r="B23">
-        <v>0.8405944526518736</v>
+        <v>0.8354955549953595</v>
       </c>
       <c r="C23">
-        <v>0.165134493397112</v>
+        <v>-0.1628512217548185</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.297183926568244</v>
+        <v>-1.326894058056555</v>
       </c>
       <c r="B24">
-        <v>-0.03644838337872903</v>
+        <v>-0.04377284444272078</v>
       </c>
       <c r="C24">
-        <v>-0.6653489108424497</v>
+        <v>0.6548905508653682</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9236490334283383</v>
+        <v>-0.9328266847484379</v>
       </c>
       <c r="B25">
-        <v>1.399450875517056</v>
+        <v>1.403322988711967</v>
       </c>
       <c r="C25">
-        <v>-0.3215084575825213</v>
+        <v>0.3417124602138361</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.6708462319968347</v>
+        <v>0.652286182872126</v>
       </c>
       <c r="B26">
-        <v>-1.246025471465392</v>
+        <v>-1.252199815041265</v>
       </c>
       <c r="C26">
-        <v>-1.091321583940141</v>
+        <v>1.065747746971061</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.516049510530454</v>
+        <v>-1.541313052282448</v>
       </c>
       <c r="B27">
-        <v>0.2015038328692451</v>
+        <v>0.2001896390837561</v>
       </c>
       <c r="C27">
-        <v>-1.165533569064203</v>
+        <v>1.175959134466189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.472863650119911</v>
+        <v>1.476782711932074</v>
       </c>
       <c r="B28">
-        <v>-0.9515893331446247</v>
+        <v>-0.9343829953944575</v>
       </c>
       <c r="C28">
-        <v>0.6414809954640267</v>
+        <v>-0.6575486997642835</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.1111040795646106</v>
+        <v>-0.1192453265323336</v>
       </c>
       <c r="B29">
-        <v>-0.9250757793431493</v>
+        <v>-0.9124750296860057</v>
       </c>
       <c r="C29">
-        <v>-0.7015960267431293</v>
+        <v>0.6993410863592654</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.3290056708967503</v>
+        <v>-0.3435790652647227</v>
       </c>
       <c r="B30">
-        <v>0.8645652322945473</v>
+        <v>0.854017069664219</v>
       </c>
       <c r="C30">
-        <v>-1.256639490065517</v>
+        <v>1.268611480541806</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.9381913194722606</v>
+        <v>0.9359318886120913</v>
       </c>
       <c r="B31">
-        <v>1.883207278454833</v>
+        <v>1.872136221022513</v>
       </c>
       <c r="C31">
-        <v>0.1460929969704008</v>
+        <v>-0.1505550443318492</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.363137829039178</v>
+        <v>-1.385177213402388</v>
       </c>
       <c r="B32">
-        <v>-0.1991430906394873</v>
+        <v>-0.1963672561320641</v>
       </c>
       <c r="C32">
-        <v>-0.8058423044403488</v>
+        <v>0.8163420529037739</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6086649914435416</v>
+        <v>0.5965707730852663</v>
       </c>
       <c r="B33">
-        <v>-0.8767147878968083</v>
+        <v>-0.8804083574971333</v>
       </c>
       <c r="C33">
-        <v>-2.296977267483812</v>
+        <v>2.281286150705026</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.279431152422087</v>
+        <v>-1.313689988203143</v>
       </c>
       <c r="B34">
-        <v>0.1931262766017824</v>
+        <v>0.1824119084202124</v>
       </c>
       <c r="C34">
-        <v>-0.8464646015644622</v>
+        <v>0.8216535380420885</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.611147354930106</v>
+        <v>1.613537516282007</v>
       </c>
       <c r="B35">
-        <v>-1.217085339285364</v>
+        <v>-1.202078221054349</v>
       </c>
       <c r="C35">
-        <v>0.8050585604181698</v>
+        <v>-0.8361051384850939</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.03539968961361877</v>
+        <v>-0.04332364806865842</v>
       </c>
       <c r="B36">
-        <v>-0.1743413163854405</v>
+        <v>-0.1680662027326183</v>
       </c>
       <c r="C36">
-        <v>-1.525807252060562</v>
+        <v>1.538421233841531</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.018914933100177</v>
+        <v>1.02031770853698</v>
       </c>
       <c r="B37">
-        <v>1.584638271125804</v>
+        <v>1.57590644181978</v>
       </c>
       <c r="C37">
-        <v>-1.289559027110937</v>
+        <v>1.287962164810703</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1485121202641504</v>
+        <v>-0.1540541942701093</v>
       </c>
       <c r="B38">
-        <v>0.3054195194059216</v>
+        <v>0.3102135945972912</v>
       </c>
       <c r="C38">
-        <v>-1.286594284485065</v>
+        <v>1.301608468611153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5453378731315617</v>
+        <v>-0.5480216290735421</v>
       </c>
       <c r="B39">
-        <v>1.246935884766026</v>
+        <v>1.260538603391317</v>
       </c>
       <c r="C39">
-        <v>-0.3288201773861266</v>
+        <v>0.3443948560006163</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.097370046742848</v>
+        <v>-1.118102120161458</v>
       </c>
       <c r="B40">
-        <v>0.06543960607257901</v>
+        <v>0.07159411721387021</v>
       </c>
       <c r="C40">
-        <v>0.5576127870980979</v>
+        <v>-0.5751719481392584</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.20329160399323</v>
+        <v>-1.227738657219229</v>
       </c>
       <c r="B41">
-        <v>-0.1040898683350977</v>
+        <v>-0.1053647119124385</v>
       </c>
       <c r="C41">
-        <v>-1.156633023705967</v>
+        <v>1.153588511077721</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.350749644539375</v>
+        <v>2.369428322231577</v>
       </c>
       <c r="B42">
-        <v>2.026433985545524</v>
+        <v>2.014901234013699</v>
       </c>
       <c r="C42">
-        <v>-1.066437675788804</v>
+        <v>1.086201175248528</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.1808658904234959</v>
+        <v>0.1761655037824558</v>
       </c>
       <c r="B43">
-        <v>1.757982395561176</v>
+        <v>1.755203915790252</v>
       </c>
       <c r="C43">
-        <v>0.223531018059249</v>
+        <v>-0.2055952270751129</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.466669926467035</v>
+        <v>1.378241437020425</v>
       </c>
       <c r="B2">
-        <v>-0.5905278145391994</v>
+        <v>0.5075707313912071</v>
       </c>
       <c r="C2">
-        <v>-1.05119299069872</v>
+        <v>1.002004500253448</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.8370915302105792</v>
+        <v>0.7116144103867053</v>
       </c>
       <c r="B3">
-        <v>-1.71257223419728</v>
+        <v>1.643922727901821</v>
       </c>
       <c r="C3">
-        <v>-0.09126063986946685</v>
+        <v>0.0733358136155519</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.200482952170191</v>
+        <v>3.148361770292659</v>
       </c>
       <c r="B4">
-        <v>-1.817789118378885</v>
+        <v>1.74647449739245</v>
       </c>
       <c r="C4">
-        <v>-0.05300525239915222</v>
+        <v>0.08149842864650286</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.492147123045271</v>
+        <v>0.4071026117328816</v>
       </c>
       <c r="B5">
-        <v>-0.506564950686856</v>
+        <v>0.4530072155364526</v>
       </c>
       <c r="C5">
-        <v>0.8132715809909907</v>
+        <v>-0.858929100755864</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.0267296612698688</v>
+        <v>-0.1099924519421149</v>
       </c>
       <c r="B6">
-        <v>-0.5874824400824672</v>
+        <v>0.5456485882832478</v>
       </c>
       <c r="C6">
-        <v>0.5309560390352439</v>
+        <v>-0.543565999518952</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.3253904671638466</v>
+        <v>0.4863799387392878</v>
       </c>
       <c r="B7">
-        <v>-0.6506010140895687</v>
+        <v>0.8295472147302025</v>
       </c>
       <c r="C7">
-        <v>-0.09451967227381</v>
+        <v>0.09266732308020774</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.135742166537603</v>
+        <v>1.008598938133236</v>
       </c>
       <c r="B8">
-        <v>-1.894643307549086</v>
+        <v>1.845821780023666</v>
       </c>
       <c r="C8">
-        <v>-0.07745246788135181</v>
+        <v>0.06785577979662595</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.877767545644298</v>
+        <v>-0.9595559435389688</v>
       </c>
       <c r="B9">
-        <v>-0.8367763615981509</v>
+        <v>0.7777400298591041</v>
       </c>
       <c r="C9">
-        <v>0.2385455310601096</v>
+        <v>-0.2215090401756278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.397573264989395</v>
+        <v>2.298792715666165</v>
       </c>
       <c r="B10">
-        <v>-2.400515370396633</v>
+        <v>2.32384176004692</v>
       </c>
       <c r="C10">
-        <v>-0.626078023905178</v>
+        <v>0.6297754608739915</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.6211830703081516</v>
+        <v>-0.1777673828179346</v>
       </c>
       <c r="B11">
-        <v>-1.190453564862039</v>
+        <v>1.499648333789913</v>
       </c>
       <c r="C11">
-        <v>0.3830813975027623</v>
+        <v>-0.1859847497759568</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.4686318713894968</v>
+        <v>-0.5341481813477922</v>
       </c>
       <c r="B12">
-        <v>0.3388486351770819</v>
+        <v>-0.3820949274750681</v>
       </c>
       <c r="C12">
-        <v>1.51823417825223</v>
+        <v>-1.543303894323504</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.4323405727687059</v>
+        <v>-0.4743259611196144</v>
       </c>
       <c r="B13">
-        <v>0.5602503635325835</v>
+        <v>-0.5903092892712566</v>
       </c>
       <c r="C13">
-        <v>1.472155505675986</v>
+        <v>-1.461481845589974</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.937471735350086</v>
+        <v>-1.012254104336938</v>
       </c>
       <c r="B14">
-        <v>-0.5394901345244051</v>
+        <v>0.5036440393534307</v>
       </c>
       <c r="C14">
-        <v>1.377627280303935</v>
+        <v>-1.36496368497577</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3868379631330372</v>
+        <v>0.3453174462070679</v>
       </c>
       <c r="B15">
-        <v>-0.3938517914936202</v>
+        <v>0.3491284891494565</v>
       </c>
       <c r="C15">
-        <v>2.152789881993264</v>
+        <v>-2.137394197158097</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.3413748210579498</v>
+        <v>0.2748286784290271</v>
       </c>
       <c r="B16">
-        <v>-0.2371137363049986</v>
+        <v>0.1755817710282649</v>
       </c>
       <c r="C16">
-        <v>0.8929959652334669</v>
+        <v>-0.9122061766273117</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6394778745028269</v>
+        <v>-0.7322403758453405</v>
       </c>
       <c r="B17">
-        <v>-0.6989225324571789</v>
+        <v>0.6575304805790202</v>
       </c>
       <c r="C17">
-        <v>0.6580876255456017</v>
+        <v>-0.6646508882863862</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7282074077249483</v>
+        <v>-0.7780551809209313</v>
       </c>
       <c r="B18">
-        <v>0.3409506599007346</v>
+        <v>-0.3850602130628111</v>
       </c>
       <c r="C18">
-        <v>1.068381187610955</v>
+        <v>-1.062293227384552</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.180913531708997</v>
+        <v>-0.28701998060775</v>
       </c>
       <c r="B19">
-        <v>-0.9582905928280855</v>
+        <v>0.8815754470691021</v>
       </c>
       <c r="C19">
-        <v>-0.3229404938817866</v>
+        <v>0.2874385059996225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.376475209036509</v>
+        <v>-1.461751872477173</v>
       </c>
       <c r="B20">
-        <v>0.02690687226955847</v>
+        <v>-0.07792443177480345</v>
       </c>
       <c r="C20">
-        <v>0.7105755310952525</v>
+        <v>-0.7278939587185685</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.912562996944903</v>
+        <v>1.870232136342544</v>
       </c>
       <c r="B21">
-        <v>0.3490153456773128</v>
+        <v>-0.3931050380033678</v>
       </c>
       <c r="C21">
-        <v>1.307344583079213</v>
+        <v>-1.361526424240104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.6793194684623088</v>
+        <v>-0.7600384992311398</v>
       </c>
       <c r="B22">
-        <v>-0.1566267399305465</v>
+        <v>0.103018496668816</v>
       </c>
       <c r="C22">
-        <v>-0.134441194307017</v>
+        <v>0.135200647785391</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2362156529187964</v>
+        <v>0.3855545657082703</v>
       </c>
       <c r="B23">
-        <v>0.1554701589616141</v>
+        <v>0.1177072343134257</v>
       </c>
       <c r="C23">
-        <v>0.009150831986406703</v>
+        <v>0.02849049760968997</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.9616043203833785</v>
+        <v>-1.030356235122172</v>
       </c>
       <c r="B24">
-        <v>0.8262172597242542</v>
+        <v>-0.8522618615081585</v>
       </c>
       <c r="C24">
-        <v>-1.183943447902961</v>
+        <v>1.186326541413913</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8385067092933305</v>
+        <v>0.8561320935163147</v>
       </c>
       <c r="B25">
-        <v>1.970632914541073</v>
+        <v>-1.987273602923508</v>
       </c>
       <c r="C25">
-        <v>0.1715690498623378</v>
+        <v>-0.2027704509396446</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.03843352448459715</v>
+        <v>-0.07202523766389689</v>
       </c>
       <c r="B26">
-        <v>-0.3979861371731297</v>
+        <v>0.412540689328844</v>
       </c>
       <c r="C26">
-        <v>0.3734304987383922</v>
+        <v>-0.3836492026767215</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.378307178128923</v>
+        <v>-1.454557937907265</v>
       </c>
       <c r="B27">
-        <v>0.3813405610447142</v>
+        <v>-0.4164711088616082</v>
       </c>
       <c r="C27">
-        <v>-0.8365839015969517</v>
+        <v>0.8472121931342633</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.2451934069017179</v>
+        <v>0.1500121488659668</v>
       </c>
       <c r="B28">
-        <v>-0.2230701347263119</v>
+        <v>0.1927688076477898</v>
       </c>
       <c r="C28">
-        <v>-1.629143203445791</v>
+        <v>1.631108170503155</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.6029081558921788</v>
+        <v>0.5729798016729429</v>
       </c>
       <c r="B29">
-        <v>0.5008114511381778</v>
+        <v>-0.5544258150513168</v>
       </c>
       <c r="C29">
-        <v>-2.135462659281316</v>
+        <v>2.11858664923984</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9101899706383203</v>
+        <v>-0.9501667355090605</v>
       </c>
       <c r="B30">
-        <v>0.9381408168437241</v>
+        <v>-0.9415264527407718</v>
       </c>
       <c r="C30">
-        <v>0.2131625801914104</v>
+        <v>-0.1990133651935296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.3065019751746265</v>
+        <v>0.3029574518990897</v>
       </c>
       <c r="B31">
-        <v>1.860384759254233</v>
+        <v>-1.869769911394786</v>
       </c>
       <c r="C31">
-        <v>-0.1231712308141258</v>
+        <v>0.09826545657986512</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.398179658195627</v>
+        <v>-1.492842474526692</v>
       </c>
       <c r="B32">
-        <v>0.4241289647236972</v>
+        <v>-0.4401932478939821</v>
       </c>
       <c r="C32">
-        <v>-0.8761317920604649</v>
+        <v>0.8584826155229618</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.7320847177141375</v>
+        <v>0.6629053495446509</v>
       </c>
       <c r="B33">
-        <v>-0.5581309910608158</v>
+        <v>0.5205950826470712</v>
       </c>
       <c r="C33">
-        <v>-1.705011407059803</v>
+        <v>1.731696285987994</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.5238026373697018</v>
+        <v>-0.6764350410373093</v>
       </c>
       <c r="B34">
-        <v>-0.01831092706289182</v>
+        <v>0.03488883694801889</v>
       </c>
       <c r="C34">
-        <v>-0.6716075361300284</v>
+        <v>0.6443234295784669</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.2733230943328582</v>
+        <v>0.4163510560811912</v>
       </c>
       <c r="B35">
-        <v>-0.4085603899112686</v>
+        <v>0.7786276059677627</v>
       </c>
       <c r="C35">
-        <v>0.3380469040200421</v>
+        <v>-0.4057074050769311</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.9720075260941918</v>
+        <v>0.9225095671638115</v>
       </c>
       <c r="B36">
-        <v>0.1794114531339544</v>
+        <v>-0.2512702495178857</v>
       </c>
       <c r="C36">
-        <v>-2.556714488770124</v>
+        <v>2.545267195371225</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.7825172365901284</v>
+        <v>-0.8299788588358757</v>
       </c>
       <c r="B37">
-        <v>1.341895783077826</v>
+        <v>-1.344424837997927</v>
       </c>
       <c r="C37">
-        <v>0.2844389514568526</v>
+        <v>-0.303060668024467</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.9242791296749171</v>
+        <v>-0.9718733819339794</v>
       </c>
       <c r="B38">
-        <v>0.5770435248476424</v>
+        <v>-0.5895153901797789</v>
       </c>
       <c r="C38">
-        <v>0.3843549768032666</v>
+        <v>-0.3634025976377324</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.190185977854379</v>
+        <v>-1.188652662650645</v>
       </c>
       <c r="B39">
-        <v>0.8184358370720302</v>
+        <v>-0.662521652818439</v>
       </c>
       <c r="C39">
-        <v>-0.2800683258039906</v>
+        <v>0.491282894984213</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.1805010613246043</v>
+        <v>-0.2685324963971938</v>
       </c>
       <c r="B40">
-        <v>0.9128799371039686</v>
+        <v>-0.8854538012704254</v>
       </c>
       <c r="C40">
-        <v>0.5033244576592156</v>
+        <v>-0.5026148861873146</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.378521616087544</v>
+        <v>0.3195981965628096</v>
       </c>
       <c r="B41">
-        <v>0.9390630354209675</v>
+        <v>-0.9568083551165872</v>
       </c>
       <c r="C41">
-        <v>-1.587453482612722</v>
+        <v>1.533056739385936</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.009251864445396826</v>
+        <v>-0.03901736012505206</v>
       </c>
       <c r="B42">
-        <v>1.608907028036099</v>
+        <v>-1.605254716116197</v>
       </c>
       <c r="C42">
-        <v>0.3974909619559592</v>
+        <v>-0.4307635453443092</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.2223741790111124</v>
+        <v>-0.2568819580701279</v>
       </c>
       <c r="B43">
-        <v>1.727544922372171</v>
+        <v>-1.715164956677308</v>
       </c>
       <c r="C43">
-        <v>0.237166710641867</v>
+        <v>-0.2471898207515466</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.772995831664125</v>
+        <v>1.168737521091736</v>
       </c>
       <c r="B2">
-        <v>1.022455147102578</v>
+        <v>1.048610897461414</v>
       </c>
       <c r="C2">
-        <v>-2.040914961880987</v>
+        <v>-1.677808217875178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.555219967608976</v>
+        <v>1.946039544143918</v>
       </c>
       <c r="B3">
-        <v>1.741280218075685</v>
+        <v>1.677198131742281</v>
       </c>
       <c r="C3">
-        <v>-0.8781753806362315</v>
+        <v>-0.3278368529048249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.114799035422754</v>
+        <v>1.926808511388362</v>
       </c>
       <c r="B4">
-        <v>1.329422763362339</v>
+        <v>1.552791084415463</v>
       </c>
       <c r="C4">
-        <v>0.1940670556850601</v>
+        <v>0.1439118096331008</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.07645464941041312</v>
+        <v>0.7506324352959961</v>
       </c>
       <c r="B5">
-        <v>0.1449712290850438</v>
+        <v>0.3633204161684794</v>
       </c>
       <c r="C5">
-        <v>-1.407533503469311</v>
+        <v>-1.974607747743266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2442369057485746</v>
+        <v>0.08099072635118461</v>
       </c>
       <c r="B6">
-        <v>0.5712920799015818</v>
+        <v>0.3636600972368118</v>
       </c>
       <c r="C6">
-        <v>0.178475916635289</v>
+        <v>0.4165495732860335</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3634249200829212</v>
+        <v>0.139177389864273</v>
       </c>
       <c r="B7">
-        <v>1.497074034074834</v>
+        <v>1.294576018094329</v>
       </c>
       <c r="C7">
-        <v>0.6055683559902145</v>
+        <v>0.815275184785069</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.001332543135617037</v>
+        <v>-0.3177512696818842</v>
       </c>
       <c r="B8">
-        <v>1.17651592628306</v>
+        <v>1.099190746291997</v>
       </c>
       <c r="C8">
-        <v>-1.199566114085632</v>
+        <v>-0.863330022808815</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.833011888941436</v>
+        <v>-0.9947424043945176</v>
       </c>
       <c r="B9">
-        <v>1.037682638808875</v>
+        <v>0.8909679899704925</v>
       </c>
       <c r="C9">
-        <v>-0.1030441774075885</v>
+        <v>0.1812728943637929</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.531543780550787</v>
+        <v>2.52292767654574</v>
       </c>
       <c r="B10">
-        <v>1.83350330056071</v>
+        <v>2.149087669715453</v>
       </c>
       <c r="C10">
-        <v>0.7695073888858259</v>
+        <v>0.4266944970458272</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4405933133454532</v>
+        <v>0.4074792930094941</v>
       </c>
       <c r="B11">
-        <v>0.6785636167055302</v>
+        <v>0.4475346343540969</v>
       </c>
       <c r="C11">
-        <v>1.148510890913706</v>
+        <v>1.128620319634117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3950098278214238</v>
+        <v>-0.5269268165660869</v>
       </c>
       <c r="B12">
-        <v>0.1297309016029755</v>
+        <v>0.08964969819915312</v>
       </c>
       <c r="C12">
-        <v>-0.7157141069530663</v>
+        <v>-0.798298134463562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.6476955741729187</v>
+        <v>-0.68465414928664</v>
       </c>
       <c r="B13">
-        <v>0.3342287983027587</v>
+        <v>0.188420646595703</v>
       </c>
       <c r="C13">
-        <v>0.007288311106251512</v>
+        <v>-0.004432750075544193</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.563224560788439</v>
+        <v>-0.5863614030537166</v>
       </c>
       <c r="B14">
-        <v>0.7942776368399237</v>
+        <v>0.5629815151211524</v>
       </c>
       <c r="C14">
-        <v>0.962341299662937</v>
+        <v>1.057128134086393</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.262304975399368</v>
+        <v>-1.091907587204888</v>
       </c>
       <c r="B15">
-        <v>0.4473938618582975</v>
+        <v>0.5731305432438236</v>
       </c>
       <c r="C15">
-        <v>0.04112968546516829</v>
+        <v>-0.2708704056768604</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.7101923947638032</v>
+        <v>0.988177021448631</v>
       </c>
       <c r="B16">
-        <v>0.864393598879368</v>
+        <v>1.012666155783304</v>
       </c>
       <c r="C16">
-        <v>0.09351383560672465</v>
+        <v>-0.5544838323749969</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.598207417532888</v>
+        <v>-1.608026923047564</v>
       </c>
       <c r="B17">
-        <v>0.5157277084090073</v>
+        <v>0.4331644839272111</v>
       </c>
       <c r="C17">
-        <v>-0.1023793120637404</v>
+        <v>-0.03646877929356158</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2.353027296674103</v>
+        <v>1.917166651664586</v>
       </c>
       <c r="B18">
-        <v>0.04471623198960801</v>
+        <v>-0.08349513153546496</v>
       </c>
       <c r="C18">
-        <v>-0.6784578998444434</v>
+        <v>-0.4102002758136766</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.988999151451644</v>
+        <v>0.5695705412382623</v>
       </c>
       <c r="B19">
-        <v>1.183955198669299</v>
+        <v>1.142963114383137</v>
       </c>
       <c r="C19">
-        <v>-1.372640084326206</v>
+        <v>-1.147810678896253</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.8008685225427035</v>
+        <v>0.4924298056748349</v>
       </c>
       <c r="B20">
-        <v>0.3078434266306778</v>
+        <v>0.2810992489982174</v>
       </c>
       <c r="C20">
-        <v>-1.953995967120173</v>
+        <v>-1.850172460920907</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.448762276410726</v>
+        <v>0.8939417232846274</v>
       </c>
       <c r="B21">
-        <v>1.245686710415455</v>
+        <v>1.40695787483097</v>
       </c>
       <c r="C21">
-        <v>0.5173328673369179</v>
+        <v>0.1915352251827956</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.085731531716937</v>
+        <v>-0.7185241109818581</v>
       </c>
       <c r="B22">
-        <v>0.8656799639943343</v>
+        <v>1.033845880229006</v>
       </c>
       <c r="C22">
-        <v>0.2571400419764828</v>
+        <v>-0.1170784180016805</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5597619351196366</v>
+        <v>-0.6101899571375324</v>
       </c>
       <c r="B23">
-        <v>-0.4351564108762248</v>
+        <v>-0.5379090115356063</v>
       </c>
       <c r="C23">
-        <v>1.192552323130838</v>
+        <v>1.373008323257032</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.209522106487593</v>
+        <v>-1.246461332778493</v>
       </c>
       <c r="B24">
-        <v>-0.6796565237156158</v>
+        <v>-0.7252716411759659</v>
       </c>
       <c r="C24">
-        <v>0.5579175013199728</v>
+        <v>0.6816405672880181</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9211820858691748</v>
+        <v>-1.079584928904455</v>
       </c>
       <c r="B25">
-        <v>-0.5904367730201221</v>
+        <v>-0.5548553907810994</v>
       </c>
       <c r="C25">
-        <v>-0.5826452051067961</v>
+        <v>-0.4230799026195108</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.3259758630685589</v>
+        <v>-0.5483135794637956</v>
       </c>
       <c r="B26">
-        <v>-0.03964415385692977</v>
+        <v>-0.007460223041278734</v>
       </c>
       <c r="C26">
-        <v>-0.3564347023300666</v>
+        <v>-0.1916283618883994</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.6848545412176446</v>
+        <v>-0.5159062790092875</v>
       </c>
       <c r="B27">
-        <v>-0.4274095741823312</v>
+        <v>-0.3531883070698827</v>
       </c>
       <c r="C27">
-        <v>0.4433373441166772</v>
+        <v>0.4103769816227182</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.4401715969180544</v>
+        <v>-0.4741123176269001</v>
       </c>
       <c r="B28">
-        <v>-0.4086226056270996</v>
+        <v>-0.4705996287594968</v>
       </c>
       <c r="C28">
-        <v>1.495391384680187</v>
+        <v>1.451127958735699</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.3545606691870121</v>
+        <v>-0.4778144956991309</v>
       </c>
       <c r="B29">
-        <v>0.02064731833215545</v>
+        <v>-0.09447690753161875</v>
       </c>
       <c r="C29">
-        <v>1.408162246632824</v>
+        <v>1.732064609465113</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.6343010732387659</v>
+        <v>-0.6287602774032164</v>
       </c>
       <c r="B30">
-        <v>-1.083884159099022</v>
+        <v>-1.12168942056321</v>
       </c>
       <c r="C30">
-        <v>0.6409618817720401</v>
+        <v>0.6188222164957899</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.328658845030287</v>
+        <v>-0.4686090666537855</v>
       </c>
       <c r="B31">
-        <v>-1.382042881872846</v>
+        <v>-1.354814419316788</v>
       </c>
       <c r="C31">
-        <v>-0.9073459807158472</v>
+        <v>-0.87208087671007</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.363349237402296</v>
+        <v>-1.007494227562489</v>
       </c>
       <c r="B32">
-        <v>-1.118356243204426</v>
+        <v>-1.070348120511171</v>
       </c>
       <c r="C32">
-        <v>-0.4185667751115326</v>
+        <v>-0.8139173095798565</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.490880544234942</v>
+        <v>1.894551673695603</v>
       </c>
       <c r="B33">
-        <v>0.431187931216913</v>
+        <v>0.4661974440870559</v>
       </c>
       <c r="C33">
-        <v>2.426546780368974</v>
+        <v>2.60849876340424</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7383966515184802</v>
+        <v>0.5622351943560917</v>
       </c>
       <c r="B34">
-        <v>-1.66742712195512</v>
+        <v>-1.563875169684581</v>
       </c>
       <c r="C34">
-        <v>-0.3202057394746086</v>
+        <v>-0.3804276247774535</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3225716029246335</v>
+        <v>0.2831634835529124</v>
       </c>
       <c r="B35">
-        <v>-1.091393892853423</v>
+        <v>-1.158699295728757</v>
       </c>
       <c r="C35">
-        <v>1.250200785935227</v>
+        <v>1.233053826567203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.152498522937094</v>
+        <v>0.7953492801673879</v>
       </c>
       <c r="B36">
-        <v>-1.08747688585063</v>
+        <v>-1.078209462209143</v>
       </c>
       <c r="C36">
-        <v>-1.450417541625077</v>
+        <v>-1.095893183137499</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.05002288753051697</v>
+        <v>-0.2086018070092985</v>
       </c>
       <c r="B37">
-        <v>-1.464637250035777</v>
+        <v>-1.350839852678777</v>
       </c>
       <c r="C37">
-        <v>-0.9566844717464619</v>
+        <v>-1.114376923409458</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.041832019203433</v>
+        <v>-0.5631201016652417</v>
       </c>
       <c r="B38">
-        <v>-0.8616008528080096</v>
+        <v>-0.7746109218040085</v>
       </c>
       <c r="C38">
-        <v>0.9188160569627657</v>
+        <v>0.5406974481907949</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.01450552670662012</v>
+        <v>0.02198970570770074</v>
       </c>
       <c r="B39">
-        <v>-0.9121174569833244</v>
+        <v>-1.049874096236967</v>
       </c>
       <c r="C39">
-        <v>1.563439089281844</v>
+        <v>1.546478816986141</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.186957509551316</v>
+        <v>-1.311080621243955</v>
       </c>
       <c r="B40">
-        <v>-0.8692152729692715</v>
+        <v>-0.7758514180970985</v>
       </c>
       <c r="C40">
-        <v>-0.2962833361763661</v>
+        <v>-0.2691130337757919</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.3146475131659851</v>
+        <v>-0.5377624651290372</v>
       </c>
       <c r="B41">
-        <v>-1.443844405855464</v>
+        <v>-1.334182275422236</v>
       </c>
       <c r="C41">
-        <v>-1.094888349006489</v>
+        <v>-1.081798518891592</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.748195553737148</v>
+        <v>-0.8276797735021654</v>
       </c>
       <c r="B42">
-        <v>-0.8810763228033845</v>
+        <v>-0.8899128720270971</v>
       </c>
       <c r="C42">
-        <v>0.3497908863529784</v>
+        <v>0.341752943537256</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.5721242240332216</v>
+        <v>-0.326982283475193</v>
       </c>
       <c r="B43">
-        <v>-1.774231453531989</v>
+        <v>-1.727850725139303</v>
       </c>
       <c r="C43">
-        <v>-0.1860983207382843</v>
+        <v>-0.6227957819283757</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.703552516794269</v>
+        <v>-2.112759754454259</v>
       </c>
       <c r="B2">
-        <v>1.648363179364235</v>
+        <v>1.814913918860076</v>
       </c>
       <c r="C2">
-        <v>1.191900049013443</v>
+        <v>-1.219802546300833</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.705088668349441</v>
+        <v>-2.289625673510653</v>
       </c>
       <c r="B3">
-        <v>0.9272153929257262</v>
+        <v>1.13596557102024</v>
       </c>
       <c r="C3">
-        <v>-0.3278208604520203</v>
+        <v>0.2376778112719566</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.739660487989823</v>
+        <v>-1.098769587150646</v>
       </c>
       <c r="B4">
-        <v>0.7622947762765988</v>
+        <v>0.6655068806478986</v>
       </c>
       <c r="C4">
-        <v>1.944093489886391</v>
+        <v>-1.537201282630632</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.9723444591401488</v>
+        <v>-0.6656070480529093</v>
       </c>
       <c r="B5">
-        <v>0.7791532350972071</v>
+        <v>0.5679799780606493</v>
       </c>
       <c r="C5">
-        <v>-1.227279978707494</v>
+        <v>1.403249841285174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.325953314965186</v>
+        <v>-0.8078586011785245</v>
       </c>
       <c r="B6">
-        <v>1.397901704331982</v>
+        <v>1.254529309053214</v>
       </c>
       <c r="C6">
-        <v>0.5975880534877077</v>
+        <v>-0.3360164317208961</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.220328889722377</v>
+        <v>-1.492781796410217</v>
       </c>
       <c r="B7">
-        <v>0.6472995189433984</v>
+        <v>0.9535053281887977</v>
       </c>
       <c r="C7">
-        <v>-1.819779459292384</v>
+        <v>1.609606378103336</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.429903629229858</v>
+        <v>-1.890113268890765</v>
       </c>
       <c r="B8">
-        <v>1.416443635453284</v>
+        <v>1.698626680242614</v>
       </c>
       <c r="C8">
-        <v>1.21453464259034</v>
+        <v>-1.225002217665489</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.5193908962908734</v>
+        <v>-0.1321096266109144</v>
       </c>
       <c r="B9">
-        <v>1.450706777754081</v>
+        <v>1.750153421430728</v>
       </c>
       <c r="C9">
-        <v>0.4277450282621453</v>
+        <v>-0.6410884699109038</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.4409840232639995</v>
+        <v>-0.1917066932860643</v>
       </c>
       <c r="B10">
-        <v>1.32803153439341</v>
+        <v>1.081443594215274</v>
       </c>
       <c r="C10">
-        <v>-1.266919257073218</v>
+        <v>1.452733154523218</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.627871166264502</v>
+        <v>0.7023331912494216</v>
       </c>
       <c r="B11">
-        <v>0.8451793787881396</v>
+        <v>0.6207879148569928</v>
       </c>
       <c r="C11">
-        <v>-0.8793135688318051</v>
+        <v>1.098922590674361</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3711403534189279</v>
+        <v>0.4844693891022311</v>
       </c>
       <c r="B12">
-        <v>0.7183555438015913</v>
+        <v>0.5416752993894205</v>
       </c>
       <c r="C12">
-        <v>-0.9119939859950592</v>
+        <v>1.001853566803558</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5241847924768528</v>
+        <v>0.4997125739744685</v>
       </c>
       <c r="B13">
-        <v>0.139185978009925</v>
+        <v>0.3241259456318275</v>
       </c>
       <c r="C13">
-        <v>-0.5788416609596791</v>
+        <v>0.3148137475387232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.6406390693113017</v>
+        <v>0.3037456152547292</v>
       </c>
       <c r="B14">
-        <v>0.9473843181541163</v>
+        <v>1.083887997455153</v>
       </c>
       <c r="C14">
-        <v>-0.795865324121134</v>
+        <v>0.71078847939956</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.8886541972668562</v>
+        <v>0.9486824415526341</v>
       </c>
       <c r="B15">
-        <v>0.4543727055163796</v>
+        <v>0.3293947265661997</v>
       </c>
       <c r="C15">
-        <v>-0.03578737851036774</v>
+        <v>0.2348973935874674</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.1027362445466833</v>
+        <v>0.259208537900282</v>
       </c>
       <c r="B16">
-        <v>0.9094501511925045</v>
+        <v>0.7025021729863931</v>
       </c>
       <c r="C16">
-        <v>-0.9018189819972416</v>
+        <v>1.091052188211413</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.487821232616132</v>
+        <v>0.6349533362979524</v>
       </c>
       <c r="B17">
-        <v>0.7690062257014139</v>
+        <v>0.5557278203395094</v>
       </c>
       <c r="C17">
-        <v>-0.5566562780586289</v>
+        <v>0.7612835193963355</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.057468336062889</v>
+        <v>-0.6824730535200785</v>
       </c>
       <c r="B18">
-        <v>1.055773907787201</v>
+        <v>0.8500990581571873</v>
       </c>
       <c r="C18">
-        <v>-0.6665831606223118</v>
+        <v>0.8972946845483115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.2796614657989884</v>
+        <v>-0.6043965636270182</v>
       </c>
       <c r="B19">
-        <v>0.9447735287377566</v>
+        <v>1.08941652158088</v>
       </c>
       <c r="C19">
-        <v>1.191415306072975</v>
+        <v>-1.444371737608116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.425163268250645</v>
+        <v>-2.435597867939376</v>
       </c>
       <c r="B20">
-        <v>0.1912018451326057</v>
+        <v>0.2587408615331819</v>
       </c>
       <c r="C20">
-        <v>2.347886474285442</v>
+        <v>-2.183763292780145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.5508946193674086</v>
+        <v>-0.3523224864214884</v>
       </c>
       <c r="B21">
-        <v>0.9017159412339641</v>
+        <v>0.6745441852059356</v>
       </c>
       <c r="C21">
-        <v>-1.248278703392096</v>
+        <v>1.423692407415064</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.5641563604025575</v>
+        <v>0.6994589651606833</v>
       </c>
       <c r="B22">
-        <v>0.625368837699502</v>
+        <v>0.4606204709714514</v>
       </c>
       <c r="C22">
-        <v>-0.07531365498639718</v>
+        <v>0.3234721037225434</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.6077621501411842</v>
+        <v>0.8512176578083731</v>
       </c>
       <c r="B23">
-        <v>-0.2655955668194302</v>
+        <v>-0.3828777063494787</v>
       </c>
       <c r="C23">
-        <v>0.7650199316531671</v>
+        <v>-0.5116720326597763</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.2421803891385272</v>
+        <v>0.3401387369354978</v>
       </c>
       <c r="B24">
-        <v>-0.5209276309647184</v>
+        <v>-0.4335888153814181</v>
       </c>
       <c r="C24">
-        <v>-0.4979850638749739</v>
+        <v>0.4458874130892678</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.210181560044249</v>
+        <v>0.8471982984419225</v>
       </c>
       <c r="B25">
-        <v>-0.4833286578850181</v>
+        <v>-0.2907623379709243</v>
       </c>
       <c r="C25">
-        <v>0.7972254774078263</v>
+        <v>-1.105599127701763</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.7386169838337169</v>
+        <v>0.119705130084148</v>
       </c>
       <c r="B26">
-        <v>-0.3957802630224181</v>
+        <v>-0.3469324968965949</v>
       </c>
       <c r="C26">
-        <v>0.5780995750168827</v>
+        <v>-0.8628991156474043</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.496548983294553</v>
+        <v>-0.09571294672110205</v>
       </c>
       <c r="B27">
-        <v>-0.4786101083689801</v>
+        <v>-0.5529294638489596</v>
       </c>
       <c r="C27">
-        <v>1.869112330651795</v>
+        <v>-1.59800514369662</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.1864735673850835</v>
+        <v>0.2800861304831486</v>
       </c>
       <c r="B28">
-        <v>-1.244994344472072</v>
+        <v>-1.317322599985347</v>
       </c>
       <c r="C28">
-        <v>0.06694633275414184</v>
+        <v>0.07451517121773572</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.012091079218669</v>
+        <v>1.123281833813668</v>
       </c>
       <c r="B29">
-        <v>-0.03116093435146533</v>
+        <v>-0.1581487877888917</v>
       </c>
       <c r="C29">
-        <v>-0.561672821056342</v>
+        <v>0.6538561874054792</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.470171126114245</v>
+        <v>1.397911867192975</v>
       </c>
       <c r="B30">
-        <v>-0.7896172113802548</v>
+        <v>-0.7483440613634696</v>
       </c>
       <c r="C30">
-        <v>-0.2493447993169584</v>
+        <v>-0.0009260512287495018</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.179159918157798</v>
+        <v>1.088099046119337</v>
       </c>
       <c r="B31">
-        <v>-0.5933848342087771</v>
+        <v>-0.357575788115091</v>
       </c>
       <c r="C31">
-        <v>0.7256531517708045</v>
+        <v>-1.163668220272803</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.9916931337407943</v>
+        <v>0.9744126900978558</v>
       </c>
       <c r="B32">
-        <v>-1.088237948568575</v>
+        <v>-1.182496629386938</v>
       </c>
       <c r="C32">
-        <v>0.5023664370197718</v>
+        <v>-0.3405871609762424</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.0363250797318126</v>
+        <v>-0.1676056970669434</v>
       </c>
       <c r="B33">
-        <v>-1.535355359662286</v>
+        <v>-1.578111543917958</v>
       </c>
       <c r="C33">
-        <v>-1.406758213142635</v>
+        <v>1.334108653847575</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2202564939523997</v>
+        <v>-0.1872727544015841</v>
       </c>
       <c r="B34">
-        <v>-1.524760896252677</v>
+        <v>-1.618191649633594</v>
       </c>
       <c r="C34">
-        <v>-0.3826858812963392</v>
+        <v>0.5183746343880726</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.6740256076816974</v>
+        <v>0.7851683631142639</v>
       </c>
       <c r="B35">
-        <v>-1.048684596319668</v>
+        <v>-0.9689507096212731</v>
       </c>
       <c r="C35">
-        <v>-0.9025645731164622</v>
+        <v>0.6618959692398684</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.4531380619640996</v>
+        <v>-0.4249968462863222</v>
       </c>
       <c r="B36">
-        <v>-1.561964584748701</v>
+        <v>-1.439398796376231</v>
       </c>
       <c r="C36">
-        <v>-0.2103027963557879</v>
+        <v>-0.1526540462234552</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.120055892249453</v>
+        <v>0.9166265773650294</v>
       </c>
       <c r="B37">
-        <v>-1.103984704691582</v>
+        <v>-1.075111964794138</v>
       </c>
       <c r="C37">
-        <v>0.3093404602320849</v>
+        <v>-0.6993207530186695</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.5058508446160412</v>
+        <v>0.4314658121061765</v>
       </c>
       <c r="B38">
-        <v>-1.346891362448911</v>
+        <v>-1.428112233168906</v>
       </c>
       <c r="C38">
-        <v>-0.6505723903182764</v>
+        <v>0.6997623268415827</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5910203346076676</v>
+        <v>0.5674095796087525</v>
       </c>
       <c r="B39">
-        <v>-0.8953488468493238</v>
+        <v>-0.979833009338289</v>
       </c>
       <c r="C39">
-        <v>-0.8232820287155399</v>
+        <v>0.8348972968715974</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.217167665667887</v>
+        <v>0.2294188100490733</v>
       </c>
       <c r="B40">
-        <v>-0.3140631614905822</v>
+        <v>-0.3535380935942956</v>
       </c>
       <c r="C40">
-        <v>2.076020961227265</v>
+        <v>-1.8708911684704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.443170273978306</v>
+        <v>1.3819029747663</v>
       </c>
       <c r="B41">
-        <v>-0.8071076621913281</v>
+        <v>-0.6144345920929073</v>
       </c>
       <c r="C41">
-        <v>0.04474101546489943</v>
+        <v>-0.3222270300089182</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.099029121149866</v>
+        <v>1.129768510469137</v>
       </c>
       <c r="B42">
-        <v>-0.9216889968966716</v>
+        <v>-0.694094693234336</v>
       </c>
       <c r="C42">
-        <v>-0.3893288816260277</v>
+        <v>-0.03034790019835727</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.523636331106164</v>
+        <v>-1.364665803419244</v>
       </c>
       <c r="B43">
-        <v>-1.907690444701584</v>
+        <v>-1.893391683534583</v>
       </c>
       <c r="C43">
-        <v>0.7170609850220997</v>
+        <v>-0.5385917906620256</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.133944702243121</v>
+        <v>-0.9308323989752627</v>
       </c>
       <c r="B2">
-        <v>1.035245948538057</v>
+        <v>-0.9403309567215572</v>
       </c>
       <c r="C2">
-        <v>-0.0983027037505125</v>
+        <v>0.104902687903722</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.4681456264548602</v>
+        <v>-0.2636924787115943</v>
       </c>
       <c r="B3">
-        <v>0.832520590549214</v>
+        <v>-0.7163026799659983</v>
       </c>
       <c r="C3">
-        <v>0.3483473610330466</v>
+        <v>0.4536649631904012</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-3.294116603767796</v>
+        <v>-3.112357076803705</v>
       </c>
       <c r="B4">
-        <v>1.487825256926901</v>
+        <v>-1.37480348805178</v>
       </c>
       <c r="C4">
-        <v>-0.6734414924402237</v>
+        <v>-0.5321061501732101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4440553163481467</v>
+        <v>0.6897190280411656</v>
       </c>
       <c r="B5">
-        <v>0.9375998087209433</v>
+        <v>-0.8113651000372519</v>
       </c>
       <c r="C5">
-        <v>0.5795971427078673</v>
+        <v>0.6828552476015295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.3917270555770713</v>
+        <v>-0.9651241784304823</v>
       </c>
       <c r="B6">
-        <v>0.9804457241000101</v>
+        <v>-1.275097800704461</v>
       </c>
       <c r="C6">
-        <v>0.7630683920103012</v>
+        <v>0.5380897647874442</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.5350061323801958</v>
+        <v>0.6513913130498654</v>
       </c>
       <c r="B7">
-        <v>0.2939828717126288</v>
+        <v>-0.1921164106686183</v>
       </c>
       <c r="C7">
-        <v>1.741255840001363</v>
+        <v>1.75024420069731</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-2.490598339456783</v>
+        <v>-2.298225447052099</v>
       </c>
       <c r="B8">
-        <v>1.161668246974063</v>
+        <v>-1.035441485339736</v>
       </c>
       <c r="C8">
-        <v>-1.186800276896479</v>
+        <v>-0.9098223801164803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.3151222110311137</v>
+        <v>-0.02006321719761165</v>
       </c>
       <c r="B9">
-        <v>1.249663894534603</v>
+        <v>-1.140340245661418</v>
       </c>
       <c r="C9">
-        <v>0.1072587649397432</v>
+        <v>0.2427752759395852</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.989877959267571</v>
+        <v>-1.705039983509349</v>
       </c>
       <c r="B10">
-        <v>1.67476463435121</v>
+        <v>-1.572003427539579</v>
       </c>
       <c r="C10">
-        <v>-0.6972690800693269</v>
+        <v>-0.5449175638082395</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.8402249815853992</v>
+        <v>0.4392032809968676</v>
       </c>
       <c r="B11">
-        <v>0.08545245497043</v>
+        <v>-0.3687847206627036</v>
       </c>
       <c r="C11">
-        <v>0.950651789662817</v>
+        <v>0.9741799635517172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.3297420287899571</v>
+        <v>-0.1602001308152451</v>
       </c>
       <c r="B12">
-        <v>1.100990637492897</v>
+        <v>-1.331379845787561</v>
       </c>
       <c r="C12">
-        <v>1.313422141901245</v>
+        <v>1.104536862421888</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.7091723445828283</v>
+        <v>0.7302248160343396</v>
       </c>
       <c r="B13">
-        <v>-0.6371693190750726</v>
+        <v>0.7363545043286895</v>
       </c>
       <c r="C13">
-        <v>1.526218999342936</v>
+        <v>1.574861160203613</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.01671301770145871</v>
+        <v>0.2260536090047983</v>
       </c>
       <c r="B14">
-        <v>1.003522542541233</v>
+        <v>-0.8879882628341675</v>
       </c>
       <c r="C14">
-        <v>0.6949291787381086</v>
+        <v>0.8276657688206016</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.1270893415929766</v>
+        <v>0.4384532620576534</v>
       </c>
       <c r="B15">
-        <v>0.8452346193938814</v>
+        <v>-0.7546752329060701</v>
       </c>
       <c r="C15">
-        <v>-0.145813034893608</v>
+        <v>0.02902379304133955</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5506653965049015</v>
+        <v>0.7328454482320803</v>
       </c>
       <c r="B16">
-        <v>0.4686136693134345</v>
+        <v>-0.3876336736220153</v>
       </c>
       <c r="C16">
-        <v>1.130154004064767</v>
+        <v>1.127358150445901</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.9220330556907592</v>
+        <v>0.685279467734779</v>
       </c>
       <c r="B17">
-        <v>0.7408742424963539</v>
+        <v>-0.9951086547422693</v>
       </c>
       <c r="C17">
-        <v>0.8723337420712292</v>
+        <v>0.6472731029954321</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.9030087375681629</v>
+        <v>-1.349377982298984</v>
       </c>
       <c r="B18">
-        <v>0.8924502749030362</v>
+        <v>-1.049453973423839</v>
       </c>
       <c r="C18">
-        <v>1.538463537387968</v>
+        <v>1.262161941796621</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.2328389091260268</v>
+        <v>0.03282968926565242</v>
       </c>
       <c r="B19">
-        <v>1.305042240007706</v>
+        <v>-1.187136026539947</v>
       </c>
       <c r="C19">
-        <v>0.2370075074391389</v>
+        <v>0.2719290252747463</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.7234971464755092</v>
+        <v>-0.5632882015560544</v>
       </c>
       <c r="B20">
-        <v>0.607610631166618</v>
+        <v>-0.5053426092493092</v>
       </c>
       <c r="C20">
-        <v>0.2554099912060492</v>
+        <v>0.3616848834756693</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.5259788293909611</v>
+        <v>-0.3387869565095181</v>
       </c>
       <c r="B21">
-        <v>1.17023473976083</v>
+        <v>-1.074470447674201</v>
       </c>
       <c r="C21">
-        <v>0.9130009425525172</v>
+        <v>0.8362246520048692</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.244674212334906</v>
+        <v>0.4886163132327885</v>
       </c>
       <c r="B22">
-        <v>0.03152324498245986</v>
+        <v>0.04410114407643646</v>
       </c>
       <c r="C22">
-        <v>-1.377176516299027</v>
+        <v>-1.268620538405483</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.5368260598039334</v>
+        <v>-0.1478665956488369</v>
       </c>
       <c r="B23">
-        <v>0.0007464740727393088</v>
+        <v>-0.3207351836711367</v>
       </c>
       <c r="C23">
-        <v>-1.41438958794278</v>
+        <v>-1.757390665493517</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.4875337581178442</v>
+        <v>-0.4002552034241245</v>
       </c>
       <c r="B24">
-        <v>-0.4160729846922284</v>
+        <v>0.4752318079835185</v>
       </c>
       <c r="C24">
-        <v>-0.9824342477265986</v>
+        <v>-0.8997662346185968</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.297281994179544</v>
+        <v>1.557829246503563</v>
       </c>
       <c r="B25">
-        <v>-0.259308285645805</v>
+        <v>0.3202945173930307</v>
       </c>
       <c r="C25">
-        <v>-1.248765314294539</v>
+        <v>-1.116510761789581</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.532028553236512</v>
+        <v>-0.2776125109514376</v>
       </c>
       <c r="B26">
-        <v>0.2225086059377203</v>
+        <v>-0.156468639808261</v>
       </c>
       <c r="C26">
-        <v>-2.123829454547528</v>
+        <v>-2.03525878811923</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.216123194675764</v>
+        <v>-0.9797597250980551</v>
       </c>
       <c r="B27">
-        <v>-0.03836253880578635</v>
+        <v>0.0833666170535043</v>
       </c>
       <c r="C27">
-        <v>-2.311231596735615</v>
+        <v>-2.185541530938628</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.2998383614694994</v>
+        <v>-0.5416215507428555</v>
       </c>
       <c r="B28">
-        <v>-0.02457411481265898</v>
+        <v>-0.08399268543204605</v>
       </c>
       <c r="C28">
-        <v>-1.390136080145111</v>
+        <v>-1.609325570381734</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.222938669174038</v>
+        <v>0.8030295127057061</v>
       </c>
       <c r="B29">
-        <v>-0.3059379620347032</v>
+        <v>0.009886239417308472</v>
       </c>
       <c r="C29">
-        <v>-0.7944735394465182</v>
+        <v>-1.165313644220907</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.222566991355467</v>
+        <v>1.432519597264277</v>
       </c>
       <c r="B30">
-        <v>-0.6320855277266041</v>
+        <v>0.6911049398357428</v>
       </c>
       <c r="C30">
-        <v>-0.4451798345884422</v>
+        <v>-0.2852659747612316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7048209054505221</v>
+        <v>0.8103846730602898</v>
       </c>
       <c r="B31">
-        <v>-0.5952712903725811</v>
+        <v>0.6543369305363815</v>
       </c>
       <c r="C31">
-        <v>0.1373636936956754</v>
+        <v>0.174118478518951</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.363922364623221</v>
+        <v>1.512973400040882</v>
       </c>
       <c r="B32">
-        <v>-0.8250126919916315</v>
+        <v>0.8912900405327531</v>
       </c>
       <c r="C32">
-        <v>-0.04919665588320995</v>
+        <v>0.07750892641032256</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.275524478086242</v>
+        <v>1.351670554978321</v>
       </c>
       <c r="B33">
-        <v>-1.287525848512365</v>
+        <v>1.349617395622455</v>
       </c>
       <c r="C33">
-        <v>0.3435591547217482</v>
+        <v>0.4199947716735679</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.123053236684377</v>
+        <v>1.219368770040005</v>
       </c>
       <c r="B34">
-        <v>-1.288910921700896</v>
+        <v>1.119847802782891</v>
       </c>
       <c r="C34">
-        <v>-0.101588414889879</v>
+        <v>-0.314748826498102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.6416605698501709</v>
+        <v>-0.8795069466226336</v>
       </c>
       <c r="B35">
-        <v>-1.790193016656112</v>
+        <v>1.839053668477105</v>
       </c>
       <c r="C35">
-        <v>1.286760590747998</v>
+        <v>1.235315566300088</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.07425655291420996</v>
+        <v>-0.04032418064698225</v>
       </c>
       <c r="B36">
-        <v>-1.721004783691345</v>
+        <v>1.783008220179244</v>
       </c>
       <c r="C36">
-        <v>0.5239292386163121</v>
+        <v>0.5649377252030332</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.8973836296087413</v>
+        <v>0.9385675278346811</v>
       </c>
       <c r="B37">
-        <v>-0.9106786858971325</v>
+        <v>0.9783743751577937</v>
       </c>
       <c r="C37">
-        <v>0.1372084831517451</v>
+        <v>0.1488194963071404</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3050355720349678</v>
+        <v>0.2583943536899339</v>
       </c>
       <c r="B38">
-        <v>-1.478312841457677</v>
+        <v>1.528390479489874</v>
       </c>
       <c r="C38">
-        <v>0.5085798265667596</v>
+        <v>0.5348350971532214</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.8402318751967303</v>
+        <v>0.9695252353865577</v>
       </c>
       <c r="B39">
-        <v>-1.426202977538924</v>
+        <v>1.279392571541491</v>
       </c>
       <c r="C39">
-        <v>0.6705420792843017</v>
+        <v>0.47905702628515</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.03104640083198688</v>
+        <v>-1.003455373947237</v>
       </c>
       <c r="B40">
-        <v>-0.4477624133170569</v>
+        <v>0.1711583325154511</v>
       </c>
       <c r="C40">
-        <v>-1.352358997382893</v>
+        <v>-1.923498930946667</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.03628548511777339</v>
+        <v>0.02048863307647789</v>
       </c>
       <c r="B41">
-        <v>-1.243102730869796</v>
+        <v>1.310847441965158</v>
       </c>
       <c r="C41">
-        <v>-0.8385652092522902</v>
+        <v>-0.6829822550582089</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.2675687064104356</v>
+        <v>-0.3905049177979341</v>
       </c>
       <c r="B42">
-        <v>-1.379354223655928</v>
+        <v>1.441118146764355</v>
       </c>
       <c r="C42">
-        <v>0.5990249893499496</v>
+        <v>0.6113606368070772</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.3690562271845673</v>
+        <v>0.378527324509308</v>
       </c>
       <c r="B43">
-        <v>-1.421678194992664</v>
+        <v>1.454196375390743</v>
       </c>
       <c r="C43">
-        <v>0.05286464599099439</v>
+        <v>0.1956906465188763</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-3.571645422289376</v>
+        <v>-2.964335173306723</v>
       </c>
       <c r="B2">
-        <v>2.226236375253899</v>
+        <v>-2.068150073127186</v>
       </c>
       <c r="C2">
-        <v>2.531711520031092</v>
+        <v>2.024284574676992</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-2.176182037452813</v>
+        <v>-2.351421841921467</v>
       </c>
       <c r="B3">
-        <v>2.013803124017239</v>
+        <v>-2.082866469462773</v>
       </c>
       <c r="C3">
-        <v>1.185862958294014</v>
+        <v>1.229427920126537</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-2.402469842670981</v>
+        <v>-2.808426377405036</v>
       </c>
       <c r="B4">
-        <v>0.698595128201585</v>
+        <v>-0.831076112080755</v>
       </c>
       <c r="C4">
-        <v>0.8119247926999398</v>
+        <v>0.9609745369967349</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.002714502015926987</v>
+        <v>-0.08637814839721696</v>
       </c>
       <c r="B5">
-        <v>0.7066026766685469</v>
+        <v>-0.7119151456280581</v>
       </c>
       <c r="C5">
-        <v>-1.144943118059412</v>
+        <v>-1.236695798667021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.6367812168771647</v>
+        <v>-0.4036417477049951</v>
       </c>
       <c r="B6">
-        <v>1.385002780001801</v>
+        <v>-1.154321897203666</v>
       </c>
       <c r="C6">
-        <v>-1.335205119760453</v>
+        <v>-1.418215800172985</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1715718197291705</v>
+        <v>0.2987169890113638</v>
       </c>
       <c r="B7">
-        <v>0.6955289247117005</v>
+        <v>-0.5527062364607641</v>
       </c>
       <c r="C7">
-        <v>-0.6164937588368566</v>
+        <v>-0.6559868755892895</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.195131456054108</v>
+        <v>-0.8786700536315204</v>
       </c>
       <c r="B8">
-        <v>1.113746751421197</v>
+        <v>-1.07443598470482</v>
       </c>
       <c r="C8">
-        <v>1.747064160851787</v>
+        <v>1.537173338935958</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.08700465217040576</v>
+        <v>-0.5037087736286403</v>
       </c>
       <c r="B9">
-        <v>1.144346238121958</v>
+        <v>-1.480749570902813</v>
       </c>
       <c r="C9">
-        <v>1.250653831746537</v>
+        <v>1.153832969177466</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.352508919641865</v>
+        <v>-1.850716338546469</v>
       </c>
       <c r="B10">
-        <v>1.571286936841866</v>
+        <v>-1.854954055241963</v>
       </c>
       <c r="C10">
-        <v>1.190401600130368</v>
+        <v>1.300778475170148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.5319010919628301</v>
+        <v>0.6049871337685733</v>
       </c>
       <c r="B11">
-        <v>0.0498082019488757</v>
+        <v>0.02124648683433026</v>
       </c>
       <c r="C11">
-        <v>-0.3272305627195436</v>
+        <v>-0.3506025769721185</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.5047017376021496</v>
+        <v>-0.3128134301750157</v>
       </c>
       <c r="B12">
-        <v>0.8752287795726248</v>
+        <v>-0.6959102701141027</v>
       </c>
       <c r="C12">
-        <v>-1.715324666724538</v>
+        <v>-1.65644825554142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.531977277679881</v>
+        <v>0.5826386008062451</v>
       </c>
       <c r="B13">
-        <v>-0.3309452863153606</v>
+        <v>0.374702877559792</v>
       </c>
       <c r="C13">
-        <v>0.09551775701638909</v>
+        <v>0.08234131400538655</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.03932823550480152</v>
+        <v>0.1877672049876187</v>
       </c>
       <c r="B14">
-        <v>0.8258183730426748</v>
+        <v>-0.6867256010457965</v>
       </c>
       <c r="C14">
-        <v>-0.3697413190777965</v>
+        <v>-0.4710499673238575</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.6509022971866504</v>
+        <v>0.4075668412015553</v>
       </c>
       <c r="B15">
-        <v>0.1385168363988621</v>
+        <v>-0.3900674157940031</v>
       </c>
       <c r="C15">
-        <v>0.6917902404787885</v>
+        <v>0.8503861099222848</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.4133199804065706</v>
+        <v>-0.4877180561084342</v>
       </c>
       <c r="B16">
-        <v>0.5284336638783231</v>
+        <v>-0.4464989493230888</v>
       </c>
       <c r="C16">
-        <v>-1.947710751185004</v>
+        <v>-2.022971137228759</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.539967450104666</v>
+        <v>0.5964367388752793</v>
       </c>
       <c r="B17">
-        <v>-0.1696282174346302</v>
+        <v>0.2587598958705395</v>
       </c>
       <c r="C17">
-        <v>-0.7726997343242232</v>
+        <v>-0.7699988566613151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.8200322199280294</v>
+        <v>-0.5929522242103752</v>
       </c>
       <c r="B18">
-        <v>0.97453463137907</v>
+        <v>-0.7590252657207431</v>
       </c>
       <c r="C18">
-        <v>-2.153132398244926</v>
+        <v>-2.167931276860248</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.6385310066297494</v>
+        <v>-0.4004028492339639</v>
       </c>
       <c r="B19">
-        <v>1.128747478679161</v>
+        <v>-0.9708021973593203</v>
       </c>
       <c r="C19">
-        <v>-0.5591238038712198</v>
+        <v>-0.607599091557717</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.263265905905086</v>
+        <v>-1.389960794988123</v>
       </c>
       <c r="B20">
-        <v>1.355122681327242</v>
+        <v>-1.434037032393396</v>
       </c>
       <c r="C20">
-        <v>-1.540064277526439</v>
+        <v>-1.710364809389081</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.4829564696247037</v>
+        <v>-0.7671818509977085</v>
       </c>
       <c r="B21">
-        <v>1.110337353791318</v>
+        <v>-1.179500841946012</v>
       </c>
       <c r="C21">
-        <v>-1.430811388709936</v>
+        <v>-1.602572604381341</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.5113072962051176</v>
+        <v>0.3241839646076433</v>
       </c>
       <c r="B22">
-        <v>-0.009844774997908404</v>
+        <v>-0.1188002293110205</v>
       </c>
       <c r="C22">
-        <v>1.03219336576155</v>
+        <v>1.219562528636295</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.102236635349682</v>
+        <v>0.044540127548299</v>
       </c>
       <c r="B23">
-        <v>-0.6133962579083498</v>
+        <v>0.6643690395542919</v>
       </c>
       <c r="C23">
-        <v>-0.4607580762654124</v>
+        <v>-0.3999444643624904</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3555100839154711</v>
+        <v>0.4525188966021557</v>
       </c>
       <c r="B24">
-        <v>-0.7708291637402519</v>
+        <v>0.7537389137748071</v>
       </c>
       <c r="C24">
-        <v>1.149311693937478</v>
+        <v>1.0613836457046</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.1587899358060121</v>
+        <v>0.0006425514155253568</v>
       </c>
       <c r="B25">
-        <v>-0.2295972638390687</v>
+        <v>0.306320176038327</v>
       </c>
       <c r="C25">
-        <v>0.1795419431100358</v>
+        <v>0.1259594501243133</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.3321482115043845</v>
+        <v>0.2658926277666525</v>
       </c>
       <c r="B26">
-        <v>-0.4933605477667738</v>
+        <v>0.3992242846278106</v>
       </c>
       <c r="C26">
-        <v>0.1658657687235602</v>
+        <v>0.1821331123544779</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.07138359397211355</v>
+        <v>-0.3578957827291167</v>
       </c>
       <c r="B27">
-        <v>-0.3430985681705945</v>
+        <v>0.1168574788073119</v>
       </c>
       <c r="C27">
-        <v>1.317473874606225</v>
+        <v>1.502550807333249</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5195057212921329</v>
+        <v>0.596721482608338</v>
       </c>
       <c r="B28">
-        <v>-0.3730585255423567</v>
+        <v>0.4329045517677018</v>
       </c>
       <c r="C28">
-        <v>-0.1238433319710618</v>
+        <v>-0.1190833613159951</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.7448948670939169</v>
+        <v>0.8068292207404512</v>
       </c>
       <c r="B29">
-        <v>-0.6476583652133868</v>
+        <v>0.6514439106118181</v>
       </c>
       <c r="C29">
-        <v>0.6971321418889128</v>
+        <v>0.665429759542513</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.4372561962159055</v>
+        <v>0.5048505952069755</v>
       </c>
       <c r="B30">
-        <v>-0.9572158940433498</v>
+        <v>0.9790756921670022</v>
       </c>
       <c r="C30">
-        <v>-0.2055423442236047</v>
+        <v>-0.1734693486974521</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7889340739708283</v>
+        <v>0.7664379453344348</v>
       </c>
       <c r="B31">
-        <v>-1.107715076707743</v>
+        <v>1.095000622185591</v>
       </c>
       <c r="C31">
-        <v>-0.1808255192059456</v>
+        <v>-0.06444133987956994</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.971109779660852</v>
+        <v>0.9305321592361568</v>
       </c>
       <c r="B32">
-        <v>-1.029229544696639</v>
+        <v>1.019342171015619</v>
       </c>
       <c r="C32">
-        <v>-0.07170301375338778</v>
+        <v>0.0227275234027987</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.974289564805623</v>
+        <v>0.9645899098557305</v>
       </c>
       <c r="B33">
-        <v>-1.086653134666275</v>
+        <v>1.0810769096355</v>
       </c>
       <c r="C33">
-        <v>-0.03912424545833595</v>
+        <v>0.07501887999376153</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8430225938650122</v>
+        <v>0.8356297447093869</v>
       </c>
       <c r="B34">
-        <v>-1.201069973601017</v>
+        <v>1.207606347367443</v>
       </c>
       <c r="C34">
-        <v>-0.1440303386464646</v>
+        <v>-0.09614546781404418</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.736641241434987</v>
+        <v>0.7294301204700397</v>
       </c>
       <c r="B35">
-        <v>-1.243186806916582</v>
+        <v>1.249647532235352</v>
       </c>
       <c r="C35">
-        <v>-0.2311572958210758</v>
+        <v>-0.1589602543998868</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.7677018243179752</v>
+        <v>0.7968258383282639</v>
       </c>
       <c r="B36">
-        <v>-0.8467444437215128</v>
+        <v>0.8304403576239996</v>
       </c>
       <c r="C36">
-        <v>0.6527955119773348</v>
+        <v>0.631882391740836</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.8804411717661282</v>
+        <v>0.8266096233992269</v>
       </c>
       <c r="B37">
-        <v>-1.009615729046239</v>
+        <v>0.9334450724003949</v>
       </c>
       <c r="C37">
-        <v>0.3335180212561129</v>
+        <v>0.4532067036083045</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.8900273246073656</v>
+        <v>0.8440834773236106</v>
       </c>
       <c r="B38">
-        <v>-1.068269247757386</v>
+        <v>1.062012332341548</v>
       </c>
       <c r="C38">
-        <v>-0.08612054433861341</v>
+        <v>-0.00926385965874631</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9200409110975807</v>
+        <v>0.9117495223271653</v>
       </c>
       <c r="B39">
-        <v>-1.185113959857682</v>
+        <v>1.185496229730617</v>
       </c>
       <c r="C39">
-        <v>-0.06684576702748647</v>
+        <v>-0.02201677631412005</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2824955096527366</v>
+        <v>0.4026882315977624</v>
       </c>
       <c r="B40">
-        <v>-0.7832918591458558</v>
+        <v>0.7648288472608438</v>
       </c>
       <c r="C40">
-        <v>0.691350263566995</v>
+        <v>0.644126288119823</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.7655670620392705</v>
+        <v>0.7995201547015739</v>
       </c>
       <c r="B41">
-        <v>-0.9944941758263741</v>
+        <v>0.9734145948948041</v>
       </c>
       <c r="C41">
-        <v>0.485500167413999</v>
+        <v>0.4904910035919998</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8752656428737691</v>
+        <v>0.8819323229848275</v>
       </c>
       <c r="B42">
-        <v>-0.7952755987727915</v>
+        <v>0.8496372847533781</v>
       </c>
       <c r="C42">
-        <v>-0.4766500200191542</v>
+        <v>-0.40051126501139</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.8124192818778803</v>
+        <v>0.7919014175699073</v>
       </c>
       <c r="B43">
-        <v>-1.25240451956982</v>
+        <v>1.281951738761461</v>
       </c>
       <c r="C43">
-        <v>-0.2105282177202297</v>
+        <v>-0.09939814536563195</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-2.107033605585591</v>
+        <v>-2.484249907239396</v>
       </c>
       <c r="B2">
-        <v>1.761142110546847</v>
+        <v>1.908649136963724</v>
       </c>
       <c r="C2">
-        <v>2.353397725559868</v>
+        <v>2.653692182087006</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-2.703399041607966</v>
+        <v>-2.469408704910374</v>
       </c>
       <c r="B3">
-        <v>1.743748776902037</v>
+        <v>1.536490645951754</v>
       </c>
       <c r="C3">
-        <v>3.132830889833578</v>
+        <v>3.103564538832028</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-3.587294347427322</v>
+        <v>-3.303867792284927</v>
       </c>
       <c r="B4">
-        <v>2.745833106412129</v>
+        <v>2.517004378166664</v>
       </c>
       <c r="C4">
-        <v>2.576065006912342</v>
+        <v>2.533157772100451</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.6296831246846563</v>
+        <v>-0.5020249174247413</v>
       </c>
       <c r="B5">
-        <v>1.237391919795104</v>
+        <v>1.12530583944429</v>
       </c>
       <c r="C5">
-        <v>-0.9604901981817828</v>
+        <v>-0.7970246862685829</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-1.404828709753158</v>
+        <v>-1.248698296000113</v>
       </c>
       <c r="B6">
-        <v>1.551664560436294</v>
+        <v>1.431694627161703</v>
       </c>
       <c r="C6">
-        <v>-2.248401048826785</v>
+        <v>-2.025188757288442</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3235953335876895</v>
+        <v>0.1792184151942944</v>
       </c>
       <c r="B7">
-        <v>-0.02557079546366456</v>
+        <v>0.1186797372322833</v>
       </c>
       <c r="C7">
-        <v>-0.9411928690838705</v>
+        <v>-1.034202395412389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1643148179279759</v>
+        <v>-0.04965739460696162</v>
       </c>
       <c r="B8">
-        <v>0.2945118026656094</v>
+        <v>0.4545615609202169</v>
       </c>
       <c r="C8">
-        <v>0.004133250586580896</v>
+        <v>0.03483913303767962</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.003270223359071875</v>
+        <v>0.09896084629091056</v>
       </c>
       <c r="B9">
-        <v>0.2040084843618865</v>
+        <v>0.1704522114130129</v>
       </c>
       <c r="C9">
-        <v>0.2374912834404476</v>
+        <v>0.2658731126495872</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.1699524608659282</v>
+        <v>-0.06449126688867882</v>
       </c>
       <c r="B10">
-        <v>0.3912129593232976</v>
+        <v>0.3908290730253277</v>
       </c>
       <c r="C10">
-        <v>-1.082090745510343</v>
+        <v>-1.047867664125804</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.7813527041112743</v>
+        <v>0.8257215015242835</v>
       </c>
       <c r="B11">
-        <v>-0.3205049993954575</v>
+        <v>-0.3421693091723398</v>
       </c>
       <c r="C11">
-        <v>-0.4841739534884109</v>
+        <v>-0.497873131164172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.3360062569404511</v>
+        <v>0.2266210629263906</v>
       </c>
       <c r="B12">
-        <v>0.05455676297075255</v>
+        <v>0.1945543227574475</v>
       </c>
       <c r="C12">
-        <v>-0.7629120547912852</v>
+        <v>-0.8681997906896396</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3795840885103001</v>
+        <v>0.2106148272934331</v>
       </c>
       <c r="B13">
-        <v>0.1394799286591289</v>
+        <v>0.2762802021854139</v>
       </c>
       <c r="C13">
-        <v>-0.374111542563141</v>
+        <v>-0.3710898504397375</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.7197509577208407</v>
+        <v>-1.153656579820835</v>
       </c>
       <c r="B14">
-        <v>1.239725257569565</v>
+        <v>1.549822781279232</v>
       </c>
       <c r="C14">
-        <v>-0.6262023562288664</v>
+        <v>-0.8913253478766707</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4664739806482034</v>
+        <v>0.5368081140666541</v>
       </c>
       <c r="B15">
-        <v>-0.1826732470615157</v>
+        <v>-0.2134896967974298</v>
       </c>
       <c r="C15">
-        <v>-0.3307997771154412</v>
+        <v>-0.3470995866961242</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.3203740797304538</v>
+        <v>0.4023394605676658</v>
       </c>
       <c r="B16">
-        <v>0.454651820960947</v>
+        <v>0.4021901536274003</v>
       </c>
       <c r="C16">
-        <v>-1.093655922495365</v>
+        <v>-1.095857549018923</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.003842346736466405</v>
+        <v>0.09594043874904613</v>
       </c>
       <c r="B17">
-        <v>0.4182917961115691</v>
+        <v>0.3822062278401613</v>
       </c>
       <c r="C17">
-        <v>-0.7085068582706954</v>
+        <v>-0.7305543975253891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.196556588746445</v>
+        <v>-1.716905136334001</v>
       </c>
       <c r="B18">
-        <v>1.76792738230014</v>
+        <v>2.10211691265528</v>
       </c>
       <c r="C18">
-        <v>-1.405555217558166</v>
+        <v>-1.477979302015454</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.1433555447386718</v>
+        <v>0.116809926549281</v>
       </c>
       <c r="B19">
-        <v>0.3740351718845122</v>
+        <v>0.3768081973335719</v>
       </c>
       <c r="C19">
-        <v>-0.5182082322088886</v>
+        <v>-0.3721695941732841</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.741216116060029</v>
+        <v>-1.554474429230381</v>
       </c>
       <c r="B20">
-        <v>1.911565707489524</v>
+        <v>1.742972279973994</v>
       </c>
       <c r="C20">
-        <v>-0.8251348023419784</v>
+        <v>-0.6924310063399997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.9387883279799248</v>
+        <v>-0.7979656260863293</v>
       </c>
       <c r="B21">
-        <v>1.146707450103648</v>
+        <v>1.061134039892262</v>
       </c>
       <c r="C21">
-        <v>-1.621995419404372</v>
+        <v>-1.527911550755011</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4198484817044243</v>
+        <v>0.4913233306941917</v>
       </c>
       <c r="B22">
-        <v>-0.4179731230876271</v>
+        <v>-0.4437943808470275</v>
       </c>
       <c r="C22">
-        <v>0.1217204073149012</v>
+        <v>0.05510696501001323</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.2530853127712341</v>
+        <v>0.1536014755389151</v>
       </c>
       <c r="B23">
-        <v>-0.5708394083090595</v>
+        <v>-0.6064834931722916</v>
       </c>
       <c r="C23">
-        <v>-0.005743612228654316</v>
+        <v>-0.04310980495654435</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.6363662812921146</v>
+        <v>0.6531081841395494</v>
       </c>
       <c r="B24">
-        <v>-0.6177408733095366</v>
+        <v>-0.6280780135979783</v>
       </c>
       <c r="C24">
-        <v>0.5760566784360164</v>
+        <v>0.5404563970349793</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.03147754662127229</v>
+        <v>0.01490677628809821</v>
       </c>
       <c r="B25">
-        <v>-0.222395022315595</v>
+        <v>-0.2013559490660118</v>
       </c>
       <c r="C25">
-        <v>0.6251710828147877</v>
+        <v>0.5925966850828641</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.09128222622587297</v>
+        <v>0.1733854127400815</v>
       </c>
       <c r="B26">
-        <v>-0.8788847082724504</v>
+        <v>-0.9066705535572319</v>
       </c>
       <c r="C26">
-        <v>0.7748925523222661</v>
+        <v>0.6978481230192409</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.5695444622237642</v>
+        <v>0.6283958632726595</v>
       </c>
       <c r="B27">
-        <v>-0.714797274929841</v>
+        <v>-0.7376179644338727</v>
       </c>
       <c r="C27">
-        <v>0.3756753936294087</v>
+        <v>0.2969647320202529</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5615096469201081</v>
+        <v>0.6246322937754943</v>
       </c>
       <c r="B28">
-        <v>-0.6582713553227576</v>
+        <v>-0.6857644794643719</v>
       </c>
       <c r="C28">
-        <v>0.3904935561382167</v>
+        <v>0.3178794459375153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.7399574460575693</v>
+        <v>0.7385508929554598</v>
       </c>
       <c r="B29">
-        <v>-0.8369521959528948</v>
+        <v>-0.8337148034393251</v>
       </c>
       <c r="C29">
-        <v>0.2249889492991544</v>
+        <v>0.1980712810058692</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.6798272673951566</v>
+        <v>0.7054366777450793</v>
       </c>
       <c r="B30">
-        <v>-0.8113940640142566</v>
+        <v>-0.7981270549002015</v>
       </c>
       <c r="C30">
-        <v>0.1478599941295551</v>
+        <v>0.1267803176622219</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.6922482708399179</v>
+        <v>0.743571553637719</v>
       </c>
       <c r="B31">
-        <v>-0.6898187222193793</v>
+        <v>-0.7203331529085845</v>
       </c>
       <c r="C31">
-        <v>0.4595454924480288</v>
+        <v>0.4408573460807877</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.7387528904626347</v>
+        <v>0.7744454662615485</v>
       </c>
       <c r="B32">
-        <v>-0.8568355750349738</v>
+        <v>-0.8710142098654533</v>
       </c>
       <c r="C32">
-        <v>-0.179750363568706</v>
+        <v>-0.1925029118539736</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6585647473102411</v>
+        <v>0.6962919206610447</v>
       </c>
       <c r="B33">
-        <v>-0.8831292896768079</v>
+        <v>-0.8943255268474557</v>
       </c>
       <c r="C33">
-        <v>-0.1168926121564025</v>
+        <v>-0.1305584370413748</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7486288148805492</v>
+        <v>0.7831982084343619</v>
       </c>
       <c r="B34">
-        <v>-0.8119502399486723</v>
+        <v>-0.8298187797471764</v>
       </c>
       <c r="C34">
-        <v>-0.1656482460146787</v>
+        <v>-0.1808760790610822</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.753279331080554</v>
+        <v>0.7716517205127248</v>
       </c>
       <c r="B35">
-        <v>-0.7287396474175775</v>
+        <v>-0.7503568804494718</v>
       </c>
       <c r="C35">
-        <v>0.04360188144460993</v>
+        <v>0.1287146045263087</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.5022612823541408</v>
+        <v>0.3841886584038884</v>
       </c>
       <c r="B36">
-        <v>-0.6744614645801976</v>
+        <v>-0.6621193620982847</v>
       </c>
       <c r="C36">
-        <v>0.5374607896213447</v>
+        <v>0.671472772259176</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.668500520594648</v>
+        <v>0.7175088212365781</v>
       </c>
       <c r="B37">
-        <v>-0.8657228088557962</v>
+        <v>-0.8867479569126294</v>
       </c>
       <c r="C37">
-        <v>0.117704432913194</v>
+        <v>0.0738290101324902</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.5820203481984139</v>
+        <v>0.6330258510527031</v>
       </c>
       <c r="B38">
-        <v>-1.066501601995202</v>
+        <v>-1.073005201710671</v>
       </c>
       <c r="C38">
-        <v>0.2093780747940345</v>
+        <v>0.1409472077495576</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.6470995182045141</v>
+        <v>0.6965687119283562</v>
       </c>
       <c r="B39">
-        <v>-1.013287928701805</v>
+        <v>-1.020626686731036</v>
       </c>
       <c r="C39">
-        <v>0.2241346485252682</v>
+        <v>0.1711964809854244</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3701291108698094</v>
+        <v>0.3307582346423682</v>
       </c>
       <c r="B40">
-        <v>-0.8925569809005517</v>
+        <v>-0.8981850127071849</v>
       </c>
       <c r="C40">
-        <v>0.7765385338337206</v>
+        <v>0.7894025110297795</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.4801334593080516</v>
+        <v>0.4440518701217706</v>
       </c>
       <c r="B41">
-        <v>-0.9759227755895</v>
+        <v>-0.9849625030315516</v>
       </c>
       <c r="C41">
-        <v>0.4606559076787076</v>
+        <v>0.4410296295055761</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.7006733065692559</v>
+        <v>0.6920320098329135</v>
       </c>
       <c r="B42">
-        <v>-0.8928942751571326</v>
+        <v>-0.9117809785351286</v>
       </c>
       <c r="C42">
-        <v>0.07193259184797694</v>
+        <v>0.07543645370999151</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.7588283257299614</v>
+        <v>0.8017315237892763</v>
       </c>
       <c r="B43">
-        <v>-0.8266366209807362</v>
+        <v>-0.8412103778310279</v>
       </c>
       <c r="C43">
-        <v>0.009736708513825118</v>
+        <v>-0.02589485875620457</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.309654965483441</v>
+        <v>-1.171558795810901</v>
       </c>
       <c r="B2">
-        <v>-0.5355257421869046</v>
+        <v>0.5400352773671007</v>
       </c>
       <c r="C2">
-        <v>-0.4142097277783233</v>
+        <v>-0.485526054581485</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.440410873934405</v>
+        <v>-1.368397986799037</v>
       </c>
       <c r="B3">
-        <v>-1.845387667448912</v>
+        <v>1.784572451752519</v>
       </c>
       <c r="C3">
-        <v>-1.148155198492817</v>
+        <v>-1.15104405649517</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.5047205616006454</v>
+        <v>-0.3894718480360944</v>
       </c>
       <c r="B4">
-        <v>-1.600506965537031</v>
+        <v>1.576039291778892</v>
       </c>
       <c r="C4">
-        <v>-0.5651145852627807</v>
+        <v>-0.6210242226974027</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.3525847606052265</v>
+        <v>-1.146495653887093</v>
       </c>
       <c r="B5">
-        <v>-0.2624895260952742</v>
+        <v>0.06885369301985433</v>
       </c>
       <c r="C5">
-        <v>-1.157314371382624</v>
+        <v>-1.358774602867737</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-1.259798559308183</v>
+        <v>-2.167160567036135</v>
       </c>
       <c r="B6">
-        <v>-2.242277601263048</v>
+        <v>2.344593436708063</v>
       </c>
       <c r="C6">
-        <v>0.03369686107632245</v>
+        <v>0.1901782337104698</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.301211711910876</v>
+        <v>0.4116921099354959</v>
       </c>
       <c r="B7">
-        <v>-0.8191905948653382</v>
+        <v>0.8464951011765549</v>
       </c>
       <c r="C7">
-        <v>-1.271334225455874</v>
+        <v>-1.262536742945016</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0773657400802058</v>
+        <v>0.1938358063578083</v>
       </c>
       <c r="B8">
-        <v>-1.354251265020611</v>
+        <v>1.36456534197593</v>
       </c>
       <c r="C8">
-        <v>-0.004671818144510879</v>
+        <v>-0.03152187108380838</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.421844507481115</v>
+        <v>-0.1151103320625561</v>
       </c>
       <c r="B9">
-        <v>-0.5701415155005476</v>
+        <v>0.5960864264870607</v>
       </c>
       <c r="C9">
-        <v>-0.4533752823923812</v>
+        <v>-0.4703057256072536</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.44010203420057</v>
+        <v>0.6334300807383251</v>
       </c>
       <c r="B10">
-        <v>-1.444261082927315</v>
+        <v>1.449200474484787</v>
       </c>
       <c r="C10">
-        <v>0.8228181510309137</v>
+        <v>0.7668253814847803</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.325517726823909</v>
+        <v>1.307568909684062</v>
       </c>
       <c r="B11">
-        <v>-0.8647043474935375</v>
+        <v>0.8747270409256709</v>
       </c>
       <c r="C11">
-        <v>0.1823622827507996</v>
+        <v>0.2565982005964835</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.1767325864249303</v>
+        <v>0.1726500309568414</v>
       </c>
       <c r="B12">
-        <v>1.111925387523455</v>
+        <v>-1.038746431365374</v>
       </c>
       <c r="C12">
-        <v>0.6962114891882647</v>
+        <v>0.6279328860278928</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.287213737011434</v>
+        <v>1.49492807850332</v>
       </c>
       <c r="B13">
-        <v>-0.5820473826400541</v>
+        <v>0.6257044353588181</v>
       </c>
       <c r="C13">
-        <v>-0.8619911627313065</v>
+        <v>-0.8664401810229406</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.8443442498254287</v>
+        <v>1.035690619572564</v>
       </c>
       <c r="B14">
-        <v>-0.1917929761864594</v>
+        <v>0.25466250312011</v>
       </c>
       <c r="C14">
-        <v>-1.254475205949912</v>
+        <v>-1.26791224565197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4544902145692679</v>
+        <v>0.7324136213695256</v>
       </c>
       <c r="B15">
-        <v>-0.5687572814467746</v>
+        <v>0.5679370574192506</v>
       </c>
       <c r="C15">
-        <v>0.3406826199343</v>
+        <v>0.3019534895327696</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4082326180302539</v>
+        <v>-0.3770748196296866</v>
       </c>
       <c r="B16">
-        <v>-0.4806718346008077</v>
+        <v>0.3663664035920507</v>
       </c>
       <c r="C16">
-        <v>0.4646481847724593</v>
+        <v>0.6040284246221346</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.7343727344836836</v>
+        <v>0.1880806842563556</v>
       </c>
       <c r="B17">
-        <v>-0.6602302264127428</v>
+        <v>0.5563867672914767</v>
       </c>
       <c r="C17">
-        <v>-0.03434188045909439</v>
+        <v>0.03844529611772608</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.076728271867609</v>
+        <v>-0.7754823221548396</v>
       </c>
       <c r="B18">
-        <v>-0.07421097411083714</v>
+        <v>0.09579917956282809</v>
       </c>
       <c r="C18">
-        <v>0.1053162667196614</v>
+        <v>-0.007473944306442242</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.363079909892791</v>
+        <v>-1.128277753069121</v>
       </c>
       <c r="B19">
-        <v>-1.097877899080857</v>
+        <v>1.076144634231571</v>
       </c>
       <c r="C19">
-        <v>1.88044408910839</v>
+        <v>1.794029222535795</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.291650306060303</v>
+        <v>-1.089730592227475</v>
       </c>
       <c r="B20">
-        <v>-1.051459805726089</v>
+        <v>1.037709885447931</v>
       </c>
       <c r="C20">
-        <v>0.5573369611365161</v>
+        <v>0.4587915049699766</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.999134059041564</v>
+        <v>-1.935223457279153</v>
       </c>
       <c r="B21">
-        <v>-0.882264197112687</v>
+        <v>0.9079839191088206</v>
       </c>
       <c r="C21">
-        <v>2.339475875192624</v>
+        <v>2.234423204424503</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.062940967157032</v>
+        <v>0.493679431490125</v>
       </c>
       <c r="B22">
-        <v>0.1948648613516726</v>
+        <v>-0.3021459114901653</v>
       </c>
       <c r="C22">
-        <v>0.7007887706098644</v>
+        <v>1.096827361877279</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.8731704382964833</v>
+        <v>-0.5541113462182072</v>
       </c>
       <c r="B23">
-        <v>0.6258588551507526</v>
+        <v>-0.5626277827635202</v>
       </c>
       <c r="C23">
-        <v>1.450903282085845</v>
+        <v>1.377746592714745</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-2.251859458070889</v>
+        <v>-2.091338456412238</v>
       </c>
       <c r="B24">
-        <v>1.297374264939515</v>
+        <v>-1.151920656652926</v>
       </c>
       <c r="C24">
-        <v>2.32074675972242</v>
+        <v>2.248746914770835</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.4047633150916248</v>
+        <v>-0.1677958079221733</v>
       </c>
       <c r="B25">
-        <v>0.818318243261913</v>
+        <v>-0.7187218707818066</v>
       </c>
       <c r="C25">
-        <v>1.317592454518177</v>
+        <v>1.241697965417228</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.0259102669773041</v>
+        <v>0.2072823887356423</v>
       </c>
       <c r="B26">
-        <v>-0.4487411630052083</v>
+        <v>0.4971020433465757</v>
       </c>
       <c r="C26">
-        <v>-0.5491759793049157</v>
+        <v>-0.5303739624037893</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.329531366638362</v>
+        <v>0.8605817496314725</v>
       </c>
       <c r="B27">
-        <v>0.5592177599335427</v>
+        <v>-0.8195673458611042</v>
       </c>
       <c r="C27">
-        <v>0.03515771565698162</v>
+        <v>0.2075825678998019</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.247545181838266</v>
+        <v>0.7595645655938595</v>
       </c>
       <c r="B28">
-        <v>0.7033913957215437</v>
+        <v>-0.9665620243373775</v>
       </c>
       <c r="C28">
-        <v>-1.044613967234662</v>
+        <v>-1.169522193251598</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.3553651927241886</v>
+        <v>-0.1878901110913885</v>
       </c>
       <c r="B29">
-        <v>0.5735450716613776</v>
+        <v>-0.4557119188811943</v>
       </c>
       <c r="C29">
-        <v>1.169694671477425</v>
+        <v>1.081786334276352</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.962743252781858</v>
+        <v>1.188048299571868</v>
       </c>
       <c r="B30">
-        <v>0.8268572745165574</v>
+        <v>-0.7286483573662477</v>
       </c>
       <c r="C30">
-        <v>-0.9383308837301771</v>
+        <v>-0.9517683918352154</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.3218508259973424</v>
+        <v>0.5942213948562396</v>
       </c>
       <c r="B31">
-        <v>1.111590799293079</v>
+        <v>-1.005987106701713</v>
       </c>
       <c r="C31">
-        <v>-1.141547311382985</v>
+        <v>-1.158667256551986</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.698077102902601</v>
+        <v>1.899358590477491</v>
       </c>
       <c r="B32">
-        <v>-0.1268056378830502</v>
+        <v>0.201329448841417</v>
       </c>
       <c r="C32">
-        <v>-0.9389470472749357</v>
+        <v>-0.9397698931460338</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.1729383070657286</v>
+        <v>-0.7122736681072486</v>
       </c>
       <c r="B33">
-        <v>1.005415570954753</v>
+        <v>-1.277468276812351</v>
       </c>
       <c r="C33">
-        <v>0.3179466716955771</v>
+        <v>0.4570179337346733</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.4492678444636035</v>
+        <v>-0.2950631207179544</v>
       </c>
       <c r="B34">
-        <v>1.005126538675727</v>
+        <v>-1.273422950541367</v>
       </c>
       <c r="C34">
-        <v>0.4689812458615406</v>
+        <v>0.6422413175283653</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.4071573347354888</v>
+        <v>0.5785769972913652</v>
       </c>
       <c r="B35">
-        <v>-0.1926071981412419</v>
+        <v>0.2662429848873005</v>
       </c>
       <c r="C35">
-        <v>0.2508027927192942</v>
+        <v>0.2279554834731355</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.2967013360555679</v>
+        <v>0.02805139689572451</v>
       </c>
       <c r="B36">
-        <v>1.628029461079073</v>
+        <v>-1.511329360348924</v>
       </c>
       <c r="C36">
-        <v>-0.1162376268138852</v>
+        <v>-0.1319260422789885</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.2305410922142405</v>
+        <v>0.1292670468587511</v>
       </c>
       <c r="B37">
-        <v>1.723760001124835</v>
+        <v>-1.60625831343765</v>
       </c>
       <c r="C37">
-        <v>-0.6578013509328966</v>
+        <v>-0.6737065441900528</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.278681864241849</v>
+        <v>1.605168039702966</v>
       </c>
       <c r="B38">
-        <v>0.4006467196833521</v>
+        <v>-0.3058220512323719</v>
       </c>
       <c r="C38">
-        <v>0.2899701872364569</v>
+        <v>0.2746292193708372</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.274520425491716</v>
+        <v>0.7177333338045007</v>
       </c>
       <c r="B39">
-        <v>0.8623321875249452</v>
+        <v>-1.122008581465026</v>
       </c>
       <c r="C39">
-        <v>-0.4304527527452788</v>
+        <v>-0.2654750518823991</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.02387445875299453</v>
+        <v>0.343895957705746</v>
       </c>
       <c r="B40">
-        <v>0.9731358658474518</v>
+        <v>-0.8751462991647212</v>
       </c>
       <c r="C40">
-        <v>0.3223895701642298</v>
+        <v>0.3269129033180611</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.589343288502881</v>
+        <v>-1.354283463994332</v>
       </c>
       <c r="B41">
-        <v>1.777268044875074</v>
+        <v>-1.662491340035269</v>
       </c>
       <c r="C41">
-        <v>-1.814177811067947</v>
+        <v>-1.835956094400247</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.02768232793627698</v>
+        <v>0.1603949567744413</v>
       </c>
       <c r="B42">
-        <v>0.7358403076756499</v>
+        <v>-0.6244342805674024</v>
       </c>
       <c r="C42">
-        <v>0.5896577405434139</v>
+        <v>0.5433197689285963</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.09787584461263</v>
+        <v>1.290626011690879</v>
       </c>
       <c r="B43">
-        <v>-0.03829572610893908</v>
+        <v>0.1104830619219271</v>
       </c>
       <c r="C43">
-        <v>-1.861356454664169</v>
+        <v>-1.819945130132903</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.324898190693257</v>
+        <v>0.6659043073960902</v>
       </c>
       <c r="B2">
-        <v>-1.782653019098029</v>
+        <v>-1.782666381489552</v>
       </c>
       <c r="C2">
-        <v>1.947989130480485</v>
+        <v>0.7099004275434536</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.3601679808769414</v>
+        <v>-0.07758340702040484</v>
       </c>
       <c r="B3">
-        <v>-1.270179929738052</v>
+        <v>-1.214643589690989</v>
       </c>
       <c r="C3">
-        <v>1.568564229081501</v>
+        <v>1.381050529697174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-2.841530225757719</v>
+        <v>-3.646698339465137</v>
       </c>
       <c r="B4">
-        <v>1.633293568916425</v>
+        <v>2.233129053695363</v>
       </c>
       <c r="C4">
-        <v>-0.9468117339454685</v>
+        <v>1.880929273742417</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.04450474377724112</v>
+        <v>0.5540453965082902</v>
       </c>
       <c r="B5">
-        <v>-1.320317296836974</v>
+        <v>-1.273476484738039</v>
       </c>
       <c r="C5">
-        <v>1.203123007281829</v>
+        <v>1.050198636878274</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.4603455285510989</v>
+        <v>-0.6201645822162299</v>
       </c>
       <c r="B6">
-        <v>0.8312897035729268</v>
+        <v>0.8526287594381388</v>
       </c>
       <c r="C6">
-        <v>1.220786853587792</v>
+        <v>0.3020424818015244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.7464908907700403</v>
+        <v>-0.4802520644077404</v>
       </c>
       <c r="B7">
-        <v>-0.05236501368291094</v>
+        <v>0.1188938889394251</v>
       </c>
       <c r="C7">
-        <v>0.6554427993291464</v>
+        <v>1.234667628867872</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.502047135059695</v>
+        <v>1.827820975533425</v>
       </c>
       <c r="B8">
-        <v>-1.871784640361929</v>
+        <v>-1.866460385956607</v>
       </c>
       <c r="C8">
-        <v>1.341264888695627</v>
+        <v>-0.03366615125365947</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.8066519125857873</v>
+        <v>0.385956945428886</v>
       </c>
       <c r="B9">
-        <v>-0.5307539281068587</v>
+        <v>-0.4449229811166119</v>
       </c>
       <c r="C9">
-        <v>0.3298346210509471</v>
+        <v>0.7586846459149704</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.40176338463444</v>
+        <v>0.6966859348011587</v>
       </c>
       <c r="B10">
-        <v>-1.41696468223569</v>
+        <v>-1.301347436792581</v>
       </c>
       <c r="C10">
-        <v>-0.1762869963315839</v>
+        <v>0.6721775499724847</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3807559229639446</v>
+        <v>-0.05973564471816089</v>
       </c>
       <c r="B11">
-        <v>0.868788734323966</v>
+        <v>0.7506869270163882</v>
       </c>
       <c r="C11">
-        <v>1.382470802702227</v>
+        <v>0.1139423217047942</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.4922101445859631</v>
+        <v>-1.337713871411679</v>
       </c>
       <c r="B12">
-        <v>1.698724274695906</v>
+        <v>1.661643739355928</v>
       </c>
       <c r="C12">
-        <v>1.294944158778863</v>
+        <v>-0.3817070081275287</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.7533164519810612</v>
+        <v>-1.149173131746903</v>
       </c>
       <c r="B13">
-        <v>0.8364413586394327</v>
+        <v>0.9404480991189632</v>
       </c>
       <c r="C13">
-        <v>1.137330017277848</v>
+        <v>0.4646738889264001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.7534460798439524</v>
+        <v>0.140522456481962</v>
       </c>
       <c r="B14">
-        <v>0.9661888283607284</v>
+        <v>1.034717233875655</v>
       </c>
       <c r="C14">
-        <v>0.8392043940674466</v>
+        <v>0.5705630206183</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3993505451068483</v>
+        <v>-0.01798251040902406</v>
       </c>
       <c r="B15">
-        <v>0.4172730272610266</v>
+        <v>0.395582850580149</v>
       </c>
       <c r="C15">
-        <v>0.5954387507158064</v>
+        <v>0.112743121001531</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4432539508039373</v>
+        <v>-0.4237552816155532</v>
       </c>
       <c r="B16">
-        <v>0.8377746125212342</v>
+        <v>0.7896466929692085</v>
       </c>
       <c r="C16">
-        <v>1.409700051297897</v>
+        <v>0.1974427529368475</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.7482290398092086</v>
+        <v>-1.142634466908957</v>
       </c>
       <c r="B17">
-        <v>0.4425098019969483</v>
+        <v>0.7486206190181834</v>
       </c>
       <c r="C17">
-        <v>0.4210622037442896</v>
+        <v>1.678124127368986</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.023584399014808</v>
+        <v>-0.6019288300567005</v>
       </c>
       <c r="B18">
-        <v>-0.254385531412149</v>
+        <v>-0.1738135509007338</v>
       </c>
       <c r="C18">
-        <v>0.8734467959357716</v>
+        <v>0.7166279466672486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.6034412865400937</v>
+        <v>-0.3117898232480634</v>
       </c>
       <c r="B19">
-        <v>-0.3785230311101596</v>
+        <v>-0.2360882010929833</v>
       </c>
       <c r="C19">
-        <v>-0.0700775172741876</v>
+        <v>1.13925007853598</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.697602654522015</v>
+        <v>0.4543910293818642</v>
       </c>
       <c r="B20">
-        <v>-1.083703573067608</v>
+        <v>-0.9455952813543598</v>
       </c>
       <c r="C20">
-        <v>0.2645543665654219</v>
+        <v>1.205951898541236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.3455813123515846</v>
+        <v>-0.1050016932201433</v>
       </c>
       <c r="B21">
-        <v>0.936707747247468</v>
+        <v>0.8664054974302471</v>
       </c>
       <c r="C21">
-        <v>0.8911337676901565</v>
+        <v>-0.03959017281434866</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.2305424348532255</v>
+        <v>-1.853043000022333</v>
       </c>
       <c r="B22">
-        <v>0.648969348824246</v>
+        <v>0.8894365440507708</v>
       </c>
       <c r="C22">
-        <v>-0.2087080120118511</v>
+        <v>0.9181048669592656</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.007293265267736208</v>
+        <v>0.2564160418201177</v>
       </c>
       <c r="B23">
-        <v>-0.2885698137247744</v>
+        <v>-0.2930775236075591</v>
       </c>
       <c r="C23">
-        <v>-1.194031187696525</v>
+        <v>-0.2945977669297118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3150614118098021</v>
+        <v>-0.3059073327906019</v>
       </c>
       <c r="B24">
-        <v>0.3019314483878794</v>
+        <v>0.4562432537812108</v>
       </c>
       <c r="C24">
-        <v>-0.8578675286412055</v>
+        <v>0.6209744895837321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.6424538854511294</v>
+        <v>0.5879274192544995</v>
       </c>
       <c r="B25">
-        <v>-0.2508181930228699</v>
+        <v>-0.3619398951083849</v>
       </c>
       <c r="C25">
-        <v>-0.1525331360599108</v>
+        <v>-0.8599397643190967</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.6496266782402018</v>
+        <v>0.8115333393073099</v>
       </c>
       <c r="B26">
-        <v>-0.5961628678646109</v>
+        <v>-0.7539878613966995</v>
       </c>
       <c r="C26">
-        <v>-1.490461848131764</v>
+        <v>-1.312990268369777</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.5646690260104966</v>
+        <v>1.10201975355195</v>
       </c>
       <c r="B27">
-        <v>-0.4646925953346729</v>
+        <v>-0.5391931886766835</v>
       </c>
       <c r="C27">
-        <v>-1.198210401483089</v>
+        <v>-0.7243389198111676</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5206905146625993</v>
+        <v>-0.5170605057015355</v>
       </c>
       <c r="B28">
-        <v>0.7443132217808076</v>
+        <v>0.8232839216927681</v>
       </c>
       <c r="C28">
-        <v>-0.6749482376565995</v>
+        <v>-0.1650642665616485</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.2160987926349</v>
+        <v>0.01172456102213721</v>
       </c>
       <c r="B29">
-        <v>-0.300244559668797</v>
+        <v>-0.5734802275856521</v>
       </c>
       <c r="C29">
-        <v>0.16826247395143</v>
+        <v>-1.730886857090268</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.1540887259093431</v>
+        <v>-1.569333987694341</v>
       </c>
       <c r="B30">
-        <v>1.046058224911667</v>
+        <v>1.216835759889394</v>
       </c>
       <c r="C30">
-        <v>-0.246748200398956</v>
+        <v>0.1200798323681315</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-3.765158084115561</v>
+        <v>1.444681175666985</v>
       </c>
       <c r="B31">
-        <v>1.98444025555347</v>
+        <v>0.8697451446071928</v>
       </c>
       <c r="C31">
-        <v>0.4339363578968728</v>
+        <v>-3.536114125510641</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.074508460148272</v>
+        <v>0.983690608599601</v>
       </c>
       <c r="B32">
-        <v>-0.8489256551102381</v>
+        <v>-0.8800602080748516</v>
       </c>
       <c r="C32">
-        <v>-0.5382179250663461</v>
+        <v>-0.3871120844510623</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.2014803901703386</v>
+        <v>0.5773611271297123</v>
       </c>
       <c r="B33">
-        <v>-1.385457694012237</v>
+        <v>-1.293893894779915</v>
       </c>
       <c r="C33">
-        <v>-1.27159528680024</v>
+        <v>0.08984902887938591</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2020641369505563</v>
+        <v>0.6819087984748291</v>
       </c>
       <c r="B34">
-        <v>-0.3104360834490342</v>
+        <v>-0.3704800024265192</v>
       </c>
       <c r="C34">
-        <v>-1.579546623231507</v>
+        <v>-0.5137453558668088</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3267441414249793</v>
+        <v>-0.2327343553520554</v>
       </c>
       <c r="B35">
-        <v>0.5500077107390493</v>
+        <v>0.3863157004675294</v>
       </c>
       <c r="C35">
-        <v>-0.03333065310946897</v>
+        <v>-0.9975156728168642</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.216632213953931</v>
+        <v>1.585335999594048</v>
       </c>
       <c r="B36">
-        <v>-1.238569120823275</v>
+        <v>-1.28720734649752</v>
       </c>
       <c r="C36">
-        <v>-0.9637142415293369</v>
+        <v>-0.7071074257134103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.7203169326851325</v>
+        <v>0.1031536424375363</v>
       </c>
       <c r="B37">
-        <v>-0.1859996832351015</v>
+        <v>-0.1408456448873611</v>
       </c>
       <c r="C37">
-        <v>-0.05693900361605976</v>
+        <v>0.2780611445731399</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.4386856415690468</v>
+        <v>0.7099040798671317</v>
       </c>
       <c r="B38">
-        <v>-0.2949977054592307</v>
+        <v>-0.3451453514773469</v>
       </c>
       <c r="C38">
-        <v>-1.062028198612821</v>
+        <v>-0.4306267112122582</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.785359354683463</v>
+        <v>0.6551290670885184</v>
       </c>
       <c r="B39">
-        <v>-0.2326568780728585</v>
+        <v>-0.3041702463476004</v>
       </c>
       <c r="C39">
-        <v>-1.561561723748078</v>
+        <v>-0.7307582647658944</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.204156720251938</v>
+        <v>1.095510162598218</v>
       </c>
       <c r="B40">
-        <v>-0.968923612839937</v>
+        <v>-1.05772363209106</v>
       </c>
       <c r="C40">
-        <v>-0.5489860439865679</v>
+        <v>-0.7923695655206817</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0924439721539627</v>
+        <v>-0.7019024551084692</v>
       </c>
       <c r="B41">
-        <v>0.6477206425290444</v>
+        <v>0.5389885248883634</v>
       </c>
       <c r="C41">
-        <v>-1.468741648633252</v>
+        <v>-0.9369915541483195</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.009551418937377166</v>
+        <v>0.3824433491484215</v>
       </c>
       <c r="B42">
-        <v>-0.2193956631132329</v>
+        <v>-0.3267102959906572</v>
       </c>
       <c r="C42">
-        <v>-0.3800369930727864</v>
+        <v>-0.6508599493696415</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.928920441132733</v>
+        <v>-0.5596708879786229</v>
       </c>
       <c r="B43">
-        <v>2.155048261119003</v>
+        <v>2.19367740126539</v>
       </c>
       <c r="C43">
-        <v>-1.297106529093754</v>
+        <v>-0.9900578084303582</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.372839929985229</v>
+        <v>-1.697624910744285</v>
       </c>
       <c r="B2">
-        <v>-1.199509045503913</v>
+        <v>-1.330312389731838</v>
       </c>
       <c r="C2">
-        <v>-0.7774852717073659</v>
+        <v>-0.7596313769370424</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.610218840531201</v>
+        <v>-1.351236232031063</v>
       </c>
       <c r="B3">
-        <v>-1.018106298531392</v>
+        <v>-0.9689358272474393</v>
       </c>
       <c r="C3">
-        <v>-1.388205611750102</v>
+        <v>-1.069805486464481</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.2014860970911793</v>
+        <v>-0.2312899997586485</v>
       </c>
       <c r="B4">
-        <v>-0.8218345067281236</v>
+        <v>-0.6778611032477273</v>
       </c>
       <c r="C4">
-        <v>0.3895418179666774</v>
+        <v>0.7776400576738676</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.5734394825087306</v>
+        <v>-0.2790590106932087</v>
       </c>
       <c r="B5">
-        <v>-0.4284081982440424</v>
+        <v>-0.4246611318389506</v>
       </c>
       <c r="C5">
-        <v>1.693501285822586</v>
+        <v>1.10481972112463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.5566347951925277</v>
+        <v>-0.3521271102708645</v>
       </c>
       <c r="B6">
-        <v>-1.36990336537381</v>
+        <v>-1.386827411660751</v>
       </c>
       <c r="C6">
-        <v>-0.4845197363587233</v>
+        <v>-0.08677141338983717</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.6261466265329646</v>
+        <v>-0.8941363580668221</v>
       </c>
       <c r="B7">
-        <v>-0.6838370507906384</v>
+        <v>-0.695815336833227</v>
       </c>
       <c r="C7">
-        <v>-0.8967118443509933</v>
+        <v>-0.708050023426958</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.858863708903056</v>
+        <v>0.6878197791358569</v>
       </c>
       <c r="B8">
-        <v>-0.097794444878446</v>
+        <v>0.02555659512297243</v>
       </c>
       <c r="C8">
-        <v>0.9508721784948823</v>
+        <v>0.8293778948876276</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.03217992815169909</v>
+        <v>0.1015444687806698</v>
       </c>
       <c r="B9">
-        <v>-1.05664916878822</v>
+        <v>-0.903704207374457</v>
       </c>
       <c r="C9">
-        <v>1.293645590437155</v>
+        <v>1.762772975262772</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6012736568526528</v>
+        <v>-1.717862370160679</v>
       </c>
       <c r="B10">
-        <v>-1.591743144866035</v>
+        <v>-1.373710542684718</v>
       </c>
       <c r="C10">
-        <v>-0.1947537601422232</v>
+        <v>-0.04729717861413571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4132840896923637</v>
+        <v>-2.518693383069869</v>
       </c>
       <c r="B11">
-        <v>-1.366133058688914</v>
+        <v>-1.167130148398043</v>
       </c>
       <c r="C11">
-        <v>0.1086486614711793</v>
+        <v>0.3681297909071091</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.778854423523233</v>
+        <v>-0.6186082425430169</v>
       </c>
       <c r="B12">
-        <v>-0.8287178734826103</v>
+        <v>-0.9556103085476725</v>
       </c>
       <c r="C12">
-        <v>0.09728656331703354</v>
+        <v>-0.1884097724239631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5254271932462385</v>
+        <v>-1.417621113609808</v>
       </c>
       <c r="B13">
-        <v>-1.152558064641229</v>
+        <v>-1.204473800074719</v>
       </c>
       <c r="C13">
-        <v>1.20218673452265</v>
+        <v>0.8160475918425609</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.09731619403136992</v>
+        <v>-0.2341027962037632</v>
       </c>
       <c r="B14">
-        <v>-0.8963727815357985</v>
+        <v>-0.6319246998269032</v>
       </c>
       <c r="C14">
-        <v>0.001904454378074625</v>
+        <v>0.5822676178539448</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.5888498196027632</v>
+        <v>-0.1728286859176748</v>
       </c>
       <c r="B15">
-        <v>-1.116136974101569</v>
+        <v>-1.142660401581311</v>
       </c>
       <c r="C15">
-        <v>2.23067276035759</v>
+        <v>2.531726677074448</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-1.183205159708512</v>
+        <v>0.1891479690198459</v>
       </c>
       <c r="B16">
-        <v>-0.09254996005489381</v>
+        <v>-0.1896074161072547</v>
       </c>
       <c r="C16">
-        <v>1.088288354719491</v>
+        <v>0.6712348203399231</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.3128305312551273</v>
+        <v>-1.729443169821012</v>
       </c>
       <c r="B17">
-        <v>-1.646268263620297</v>
+        <v>-1.46975461951306</v>
       </c>
       <c r="C17">
-        <v>-0.3293038448453783</v>
+        <v>-0.0005336961518417165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.325628052059038</v>
+        <v>-0.4743874116011879</v>
       </c>
       <c r="B18">
-        <v>-0.6236947124454675</v>
+        <v>-0.6323247206375459</v>
       </c>
       <c r="C18">
-        <v>1.161631204239078</v>
+        <v>0.8809328036208842</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.2604800333286926</v>
+        <v>0.8104769920639067</v>
       </c>
       <c r="B19">
-        <v>-0.1834582129623309</v>
+        <v>0.03036811561696861</v>
       </c>
       <c r="C19">
-        <v>1.266638333543854</v>
+        <v>1.550288287501927</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.341416923227822</v>
+        <v>0.1429901889134618</v>
       </c>
       <c r="B20">
-        <v>-0.5156819709153558</v>
+        <v>-0.3340138824316307</v>
       </c>
       <c r="C20">
-        <v>0.4901902344460044</v>
+        <v>1.046487843419754</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.6347867024555043</v>
+        <v>0.8854188702400902</v>
       </c>
       <c r="B21">
-        <v>-0.2655072076815023</v>
+        <v>-0.3089122797883423</v>
       </c>
       <c r="C21">
-        <v>0.3863949470672445</v>
+        <v>0.08352900218721607</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.7008315240699221</v>
+        <v>0.03055393981899595</v>
       </c>
       <c r="B22">
-        <v>0.1362899359246209</v>
+        <v>-0.1035094348620892</v>
       </c>
       <c r="C22">
-        <v>-1.829665823785489</v>
+        <v>-2.03332963680361</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5313755107976132</v>
+        <v>-0.2009152154115994</v>
       </c>
       <c r="B23">
-        <v>-0.1816540920967632</v>
+        <v>-0.3071535395877113</v>
       </c>
       <c r="C23">
-        <v>-0.9236374473415522</v>
+        <v>-1.091111623294307</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.189751186071768</v>
+        <v>-0.122071902609896</v>
       </c>
       <c r="B24">
-        <v>0.0596209593466084</v>
+        <v>-0.08818520540252092</v>
       </c>
       <c r="C24">
-        <v>0.5265523615990355</v>
+        <v>-0.08303010123591412</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.792735690135991</v>
+        <v>1.873853197062561</v>
       </c>
       <c r="B25">
-        <v>1.664121270739698</v>
+        <v>1.904772709840588</v>
       </c>
       <c r="C25">
-        <v>1.05683883536916</v>
+        <v>1.206430455235003</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.3502245455828374</v>
+        <v>0.2067156991981722</v>
       </c>
       <c r="B26">
-        <v>0.5086077708050938</v>
+        <v>0.6184713069855733</v>
       </c>
       <c r="C26">
-        <v>-0.324933288456533</v>
+        <v>-0.1387923795765942</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.4754505826704387</v>
+        <v>0.5922754944379947</v>
       </c>
       <c r="B27">
-        <v>0.768253521950141</v>
+        <v>0.6381903612000536</v>
       </c>
       <c r="C27">
-        <v>0.2824624849864096</v>
+        <v>-0.1031571546759025</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.613502780742879</v>
+        <v>-0.3466745188221867</v>
       </c>
       <c r="B28">
-        <v>0.02155788118953038</v>
+        <v>-0.2895844116311134</v>
       </c>
       <c r="C28">
-        <v>-1.1846275210604</v>
+        <v>-1.570619848758985</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.4194529593363763</v>
+        <v>0.4506533882153447</v>
       </c>
       <c r="B29">
-        <v>1.163120864514573</v>
+        <v>0.9729099926131157</v>
       </c>
       <c r="C29">
-        <v>0.09073485236600289</v>
+        <v>-0.4280577717551634</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9638529668480426</v>
+        <v>-1.061360555059002</v>
       </c>
       <c r="B30">
-        <v>-0.483000433756066</v>
+        <v>-0.7176814155355024</v>
       </c>
       <c r="C30">
-        <v>-1.603730813446615</v>
+        <v>-1.677992704201807</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.7105511789450287</v>
+        <v>0.1395077310193744</v>
       </c>
       <c r="B31">
-        <v>0.2815955523725146</v>
+        <v>0.1000197368408905</v>
       </c>
       <c r="C31">
-        <v>-0.7583528433720289</v>
+        <v>-0.9515233424362515</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.264464005927566</v>
+        <v>0.9512327029952081</v>
       </c>
       <c r="B32">
-        <v>1.233372054658213</v>
+        <v>1.37511273021109</v>
       </c>
       <c r="C32">
-        <v>0.3225239769794494</v>
+        <v>0.7778388757200507</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.9299513383228378</v>
+        <v>0.4295797046350733</v>
       </c>
       <c r="B33">
-        <v>0.4931574024463188</v>
+        <v>0.3221045506118475</v>
       </c>
       <c r="C33">
-        <v>-1.335891688027898</v>
+        <v>-1.319626054171831</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.243020028215338</v>
+        <v>-0.4495296336941053</v>
       </c>
       <c r="B34">
-        <v>-0.1882273183270821</v>
+        <v>-0.2926149418335508</v>
       </c>
       <c r="C34">
-        <v>-1.500646178396138</v>
+        <v>-1.418370888796326</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.6204928611054763</v>
+        <v>-0.1365437968403863</v>
       </c>
       <c r="B35">
-        <v>0.5644137933448817</v>
+        <v>0.4584758688776611</v>
       </c>
       <c r="C35">
-        <v>-1.83135408716187</v>
+        <v>-1.414658716890927</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.6824139190582168</v>
+        <v>1.300335129248859</v>
       </c>
       <c r="B36">
-        <v>1.595827834821776</v>
+        <v>1.562380167422917</v>
       </c>
       <c r="C36">
-        <v>0.0596242915928961</v>
+        <v>-0.333734502864426</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.359491086167374</v>
+        <v>1.744319316081494</v>
       </c>
       <c r="B37">
-        <v>1.780624430680066</v>
+        <v>1.921610824018072</v>
       </c>
       <c r="C37">
-        <v>0.7261004750662536</v>
+        <v>0.1555911084658304</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.9686611025625154</v>
+        <v>1.352128222506079</v>
       </c>
       <c r="B38">
-        <v>1.441619834169265</v>
+        <v>1.472625323813298</v>
       </c>
       <c r="C38">
-        <v>1.116762799500101</v>
+        <v>0.5380848987864743</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.698914074442843</v>
+        <v>0.9623132807942514</v>
       </c>
       <c r="B39">
-        <v>1.563330732800746</v>
+        <v>1.645699281217604</v>
       </c>
       <c r="C39">
-        <v>-0.7140864734157829</v>
+        <v>-0.5049627817652316</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.44394722670985</v>
+        <v>0.7483940835790254</v>
       </c>
       <c r="B40">
-        <v>0.9466147810015072</v>
+        <v>0.7688208119705788</v>
       </c>
       <c r="C40">
-        <v>-0.5144385020925433</v>
+        <v>-0.8020073253060754</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.524206513929265</v>
+        <v>-0.4421240686049265</v>
       </c>
       <c r="B41">
-        <v>0.6968807599380193</v>
+        <v>0.6497793747059118</v>
       </c>
       <c r="C41">
-        <v>-0.9222260267494879</v>
+        <v>-0.2781591658258071</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.5444687568038488</v>
+        <v>1.761335618187271</v>
       </c>
       <c r="B42">
-        <v>1.414124631799679</v>
+        <v>1.616949405400259</v>
       </c>
       <c r="C42">
-        <v>0.4252612641301316</v>
+        <v>0.6832112036793534</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.8101864994082261</v>
+        <v>1.087644709600527</v>
       </c>
       <c r="B43">
-        <v>1.47461213551125</v>
+        <v>1.513122019908678</v>
       </c>
       <c r="C43">
-        <v>0.5463063000881891</v>
+        <v>0.6432213201840407</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.017313787497548</v>
+        <v>-2.092144816733784</v>
       </c>
       <c r="B2">
-        <v>0.4802620205779449</v>
+        <v>-0.7461032955258334</v>
       </c>
       <c r="C2">
-        <v>-0.5892339653779636</v>
+        <v>0.8358500029580709</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.023818619786202</v>
+        <v>-1.417699414321685</v>
       </c>
       <c r="B3">
-        <v>1.760596075826804</v>
+        <v>-1.988398863464428</v>
       </c>
       <c r="C3">
-        <v>1.260379923368621</v>
+        <v>-1.538505400036894</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.3451814422289752</v>
+        <v>-0.3204072248021949</v>
       </c>
       <c r="B4">
-        <v>0.2419376502858173</v>
+        <v>-0.3563469244861848</v>
       </c>
       <c r="C4">
-        <v>-0.5901255342433749</v>
+        <v>0.7358568459362227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.9811014488304629</v>
+        <v>-0.6352000740741026</v>
       </c>
       <c r="B5">
-        <v>0.08777640850029711</v>
+        <v>-0.2099788402352884</v>
       </c>
       <c r="C5">
-        <v>-1.53817850361718</v>
+        <v>1.57987661780453</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.4160477553459787</v>
+        <v>-1.827279266309444</v>
       </c>
       <c r="B6">
-        <v>0.7724292358888155</v>
+        <v>-0.8631115678278823</v>
       </c>
       <c r="C6">
-        <v>-0.6659098335548058</v>
+        <v>0.7293230839493074</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.613482338394832</v>
+        <v>0.458687762551625</v>
       </c>
       <c r="B7">
-        <v>0.04788601545395395</v>
+        <v>-0.175402147683887</v>
       </c>
       <c r="C7">
-        <v>-1.364717083763557</v>
+        <v>1.484964252458311</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.009785067200555582</v>
+        <v>1.579114369245614</v>
       </c>
       <c r="B8">
-        <v>-0.5460406935088973</v>
+        <v>0.7881253049087454</v>
       </c>
       <c r="C8">
-        <v>-0.896036413606267</v>
+        <v>0.6042755088691752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.212385869961582</v>
+        <v>0.1531656199604457</v>
       </c>
       <c r="B9">
-        <v>-0.1024012592543899</v>
+        <v>0.005572710909091024</v>
       </c>
       <c r="C9">
-        <v>-1.317496662769408</v>
+        <v>1.320777069686402</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.05809667262923993</v>
+        <v>-1.1603525511993</v>
       </c>
       <c r="B10">
-        <v>1.36262270075434</v>
+        <v>-1.433459911378927</v>
       </c>
       <c r="C10">
-        <v>-0.461913652830963</v>
+        <v>0.5436291985577477</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.907365608855613</v>
+        <v>-1.948866756717434</v>
       </c>
       <c r="B11">
-        <v>1.894695021091188</v>
+        <v>-2.026371190625884</v>
       </c>
       <c r="C11">
-        <v>-0.5245914160206504</v>
+        <v>0.4824885263004787</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.653866631399974</v>
+        <v>0.4740126036272187</v>
       </c>
       <c r="B12">
-        <v>0.3681525252194073</v>
+        <v>-0.2482962981829177</v>
       </c>
       <c r="C12">
-        <v>0.4090173120877371</v>
+        <v>-0.4586627659273074</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.18398282055043</v>
+        <v>-0.7730078376745884</v>
       </c>
       <c r="B13">
-        <v>0.4603116177171235</v>
+        <v>-0.7140286330633415</v>
       </c>
       <c r="C13">
-        <v>-0.9619875377388991</v>
+        <v>1.145406030873185</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.9179168951425354</v>
+        <v>0.2587936315688142</v>
       </c>
       <c r="B14">
-        <v>0.6677065770609361</v>
+        <v>-0.7279746875666123</v>
       </c>
       <c r="C14">
-        <v>-0.9709182159801782</v>
+        <v>1.015238645840554</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.3445525217745593</v>
+        <v>-0.1259173076109341</v>
       </c>
       <c r="B15">
-        <v>1.041274932353645</v>
+        <v>-0.9765470253425813</v>
       </c>
       <c r="C15">
-        <v>-1.16170851620846</v>
+        <v>1.065892863692722</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.179605299756176</v>
+        <v>0.8174006191859333</v>
       </c>
       <c r="B16">
-        <v>0.7397621022749246</v>
+        <v>-0.1713051192696035</v>
       </c>
       <c r="C16">
-        <v>-1.188594176107758</v>
+        <v>0.6772227798622528</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.009377477376129227</v>
+        <v>-0.8326010622277767</v>
       </c>
       <c r="B17">
-        <v>1.378456020629508</v>
+        <v>-1.503600477313629</v>
       </c>
       <c r="C17">
-        <v>-0.6309450582496818</v>
+        <v>0.6805923481480917</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.305711710639829</v>
+        <v>0.7327948506483034</v>
       </c>
       <c r="B18">
-        <v>0.9058385917306714</v>
+        <v>-0.5959665147964099</v>
       </c>
       <c r="C18">
-        <v>1.80295504988973</v>
+        <v>-1.947725345334897</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.5900899648944138</v>
+        <v>0.6591261644743902</v>
       </c>
       <c r="B19">
-        <v>-1.316461592134986</v>
+        <v>1.273294507266237</v>
       </c>
       <c r="C19">
-        <v>-0.1953472363932966</v>
+        <v>0.3557632509822609</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.7850505702421438</v>
+        <v>-0.0332235919809</v>
       </c>
       <c r="B20">
-        <v>0.5719714795386893</v>
+        <v>-0.4103824534651139</v>
       </c>
       <c r="C20">
-        <v>0.9574203976931777</v>
+        <v>-0.9297859349623658</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.9904069761741783</v>
+        <v>-0.7241105594493988</v>
       </c>
       <c r="B21">
-        <v>1.060610518739458</v>
+        <v>-0.7739940941248373</v>
       </c>
       <c r="C21">
-        <v>1.092930718032246</v>
+        <v>-1.050782256172707</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.14062467399224</v>
+        <v>-0.7468968937391263</v>
       </c>
       <c r="B22">
-        <v>1.29063352671902</v>
+        <v>-1.178694756556208</v>
       </c>
       <c r="C22">
-        <v>1.183820818632525</v>
+        <v>-1.297837277387987</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.471923721395145</v>
+        <v>0.9360299153823495</v>
       </c>
       <c r="B23">
-        <v>-1.47582660943481</v>
+        <v>1.458079499303038</v>
       </c>
       <c r="C23">
-        <v>-1.205389906117442</v>
+        <v>1.162937536811301</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.04962643777594064</v>
+        <v>-0.6147845643654828</v>
       </c>
       <c r="B24">
-        <v>1.231823018355241</v>
+        <v>-1.134908067301147</v>
       </c>
       <c r="C24">
-        <v>-0.1293561684639741</v>
+        <v>0.01496131545483321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.3962551027903214</v>
+        <v>0.8443094711748358</v>
       </c>
       <c r="B25">
-        <v>-0.900173014841002</v>
+        <v>0.9289092539176039</v>
       </c>
       <c r="C25">
-        <v>1.141202689869699</v>
+        <v>-1.183402914515531</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.823325540151605</v>
+        <v>0.7647914140289577</v>
       </c>
       <c r="B26">
-        <v>-0.8821825171404488</v>
+        <v>0.793169708031769</v>
       </c>
       <c r="C26">
-        <v>-1.027062532429999</v>
+        <v>1.084836170644511</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.2386548798977791</v>
+        <v>-0.5823690115664329</v>
       </c>
       <c r="B27">
-        <v>0.1612544482712021</v>
+        <v>-0.2242653520583793</v>
       </c>
       <c r="C27">
-        <v>1.725926592218481</v>
+        <v>-1.575279653155601</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.253775665661656</v>
+        <v>-1.990726561266139</v>
       </c>
       <c r="B28">
-        <v>-0.02662836948397179</v>
+        <v>-0.2270501364572201</v>
       </c>
       <c r="C28">
-        <v>1.34664832367268</v>
+        <v>-1.078814269022192</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.8152914843501916</v>
+        <v>0.6618214331051213</v>
       </c>
       <c r="B29">
-        <v>-0.05296086066382347</v>
+        <v>0.1998387079194509</v>
       </c>
       <c r="C29">
-        <v>0.4664863335206851</v>
+        <v>-0.5867465622026469</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.1526517112247529</v>
+        <v>0.3872333971561502</v>
       </c>
       <c r="B30">
-        <v>1.105439336316283</v>
+        <v>-0.9655279871961162</v>
       </c>
       <c r="C30">
-        <v>1.328182661188493</v>
+        <v>-1.460523868631363</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.05090464450889962</v>
+        <v>-0.7550139999399486</v>
       </c>
       <c r="B31">
-        <v>-0.6057632685459287</v>
+        <v>0.430652536652495</v>
       </c>
       <c r="C31">
-        <v>1.954750414303719</v>
+        <v>-1.769157636993608</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.180620500683372</v>
+        <v>-0.3337808038980192</v>
       </c>
       <c r="B32">
-        <v>-0.8529737550062673</v>
+        <v>0.7650328807522703</v>
       </c>
       <c r="C32">
-        <v>-0.4269560420697058</v>
+        <v>0.6269457025617071</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.3767350874526202</v>
+        <v>-0.9395055502567309</v>
       </c>
       <c r="B33">
-        <v>-0.8683744100457423</v>
+        <v>0.7513718816555869</v>
       </c>
       <c r="C33">
-        <v>0.1222272604881425</v>
+        <v>-0.01288174843340377</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.01445577641562227</v>
+        <v>0.4745004171175275</v>
       </c>
       <c r="B34">
-        <v>-0.2612668184456209</v>
+        <v>0.3089769797882546</v>
       </c>
       <c r="C34">
-        <v>-0.639546317675855</v>
+        <v>0.5027460311929514</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.2578637430198866</v>
+        <v>1.505587590402721</v>
       </c>
       <c r="B35">
-        <v>-1.373394088110778</v>
+        <v>1.462423290209979</v>
       </c>
       <c r="C35">
-        <v>-0.7616731335947856</v>
+        <v>0.7119137804327094</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.09375635084501061</v>
+        <v>0.4492712504786846</v>
       </c>
       <c r="B36">
-        <v>-1.723509087326495</v>
+        <v>1.590325692466613</v>
       </c>
       <c r="C36">
-        <v>0.9985149147858485</v>
+        <v>-0.8669030811511896</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.4018882121276793</v>
+        <v>1.040060485757115</v>
       </c>
       <c r="B37">
-        <v>-1.202730268461106</v>
+        <v>1.186553434063503</v>
       </c>
       <c r="C37">
-        <v>-0.05549658908495268</v>
+        <v>0.05234754294949125</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.9513699443765966</v>
+        <v>0.5937675149966852</v>
       </c>
       <c r="B38">
-        <v>-0.3761926229993274</v>
+        <v>0.3753691260974255</v>
       </c>
       <c r="C38">
-        <v>-0.7292045917933994</v>
+        <v>0.7037522627854397</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.1032647349162238</v>
+        <v>0.4503991025750032</v>
       </c>
       <c r="B39">
-        <v>0.1011628255729508</v>
+        <v>0.01638240732972781</v>
       </c>
       <c r="C39">
-        <v>0.2796008403284678</v>
+        <v>-0.2980437583332123</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.6150048635659779</v>
+        <v>1.479791341158202</v>
       </c>
       <c r="B40">
-        <v>-1.304190314336976</v>
+        <v>1.371756042524906</v>
       </c>
       <c r="C40">
-        <v>0.8045563461025204</v>
+        <v>-0.8364624548710238</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.678877405443329</v>
+        <v>1.592212335028864</v>
       </c>
       <c r="B41">
-        <v>-1.269672436675958</v>
+        <v>1.42633957120515</v>
       </c>
       <c r="C41">
-        <v>0.9619512650802098</v>
+        <v>-1.027957268534271</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.3836316241407882</v>
+        <v>1.173947750202874</v>
       </c>
       <c r="B42">
-        <v>-1.876313924551633</v>
+        <v>1.790924886239619</v>
       </c>
       <c r="C42">
-        <v>0.8755671997552185</v>
+        <v>-0.7653558723046393</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.5594956381448736</v>
+        <v>0.3670688083059957</v>
       </c>
       <c r="B43">
-        <v>-0.7155467379100585</v>
+        <v>0.7286159226809666</v>
       </c>
       <c r="C43">
-        <v>-0.6797499733256447</v>
+        <v>0.5672306992185852</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2470018993654098</v>
+        <v>-3.067539918791311</v>
       </c>
       <c r="B2">
-        <v>0.5174791933520707</v>
+        <v>-1.264353906839766</v>
       </c>
       <c r="C2">
-        <v>-2.100991460914822</v>
+        <v>-2.589942335720321</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.353260064161086</v>
+        <v>-3.906914777051298</v>
       </c>
       <c r="B3">
-        <v>1.717580638139147</v>
+        <v>-2.478930811233417</v>
       </c>
       <c r="C3">
-        <v>-2.118489423227477</v>
+        <v>-2.33411160591046</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.068249783843104</v>
+        <v>0.3437687424123958</v>
       </c>
       <c r="B4">
-        <v>-1.434064152152671</v>
+        <v>1.192092460878202</v>
       </c>
       <c r="C4">
-        <v>-1.364614409650448</v>
+        <v>-1.663125830806903</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3297395393193395</v>
+        <v>0.1956787616390905</v>
       </c>
       <c r="B5">
-        <v>0.5589414942534483</v>
+        <v>-0.4195996695757115</v>
       </c>
       <c r="C5">
-        <v>-0.9661560099932504</v>
+        <v>-0.2392752045156853</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3957755655684444</v>
+        <v>0.5801898595129678</v>
       </c>
       <c r="B6">
-        <v>-1.238238824805452</v>
+        <v>1.233229664567705</v>
       </c>
       <c r="C6">
-        <v>-0.3986254767193207</v>
+        <v>-0.426747123338254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.01690007875627817</v>
+        <v>-0.9738078268022123</v>
       </c>
       <c r="B7">
-        <v>0.7166049736319704</v>
+        <v>-0.6558252412757901</v>
       </c>
       <c r="C7">
-        <v>-0.4838145863106901</v>
+        <v>0.01176559445246205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.7969008133459247</v>
+        <v>0.8371759532980578</v>
       </c>
       <c r="B8">
-        <v>-0.1532661599516618</v>
+        <v>0.2561311114600648</v>
       </c>
       <c r="C8">
-        <v>0.1886809494652709</v>
+        <v>0.2096266600960022</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3464019334782407</v>
+        <v>-1.257161692914691</v>
       </c>
       <c r="B9">
-        <v>1.909878643407938</v>
+        <v>-2.044145847969312</v>
       </c>
       <c r="C9">
-        <v>-0.71257837208524</v>
+        <v>-0.1983357191752105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.08973329195642572</v>
+        <v>-0.03432114983682382</v>
       </c>
       <c r="B10">
-        <v>-0.499584846166905</v>
+        <v>0.4199033305356318</v>
       </c>
       <c r="C10">
-        <v>-1.589706134033887</v>
+        <v>-1.204820809269352</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.447143163806266</v>
+        <v>-0.2857306336375234</v>
       </c>
       <c r="B11">
-        <v>-0.284688454694376</v>
+        <v>0.01070173911808219</v>
       </c>
       <c r="C11">
-        <v>-1.160578661921887</v>
+        <v>-1.294713004284649</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3248669734441334</v>
+        <v>0.2465250655151825</v>
       </c>
       <c r="B12">
-        <v>0.1316085852651009</v>
+        <v>-0.1429329526429816</v>
       </c>
       <c r="C12">
-        <v>-0.1974724637264642</v>
+        <v>-0.294339358990814</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.3384580753592589</v>
+        <v>0.0288732798116903</v>
       </c>
       <c r="B13">
-        <v>0.2298533597977699</v>
+        <v>-0.1040224281178384</v>
       </c>
       <c r="C13">
-        <v>-1.217721268176706</v>
+        <v>-0.5671792372488929</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.014963054661739</v>
+        <v>-0.4568299063266937</v>
       </c>
       <c r="B14">
-        <v>0.2201630730860645</v>
+        <v>-0.3700518221709897</v>
       </c>
       <c r="C14">
-        <v>-1.25589438308595</v>
+        <v>-1.044857037324735</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.2940219459147174</v>
+        <v>1.260668306563194</v>
       </c>
       <c r="B15">
-        <v>-0.1020791336265575</v>
+        <v>0.5078228380232407</v>
       </c>
       <c r="C15">
-        <v>0.2391434261478022</v>
+        <v>0.8282494880366157</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.3761903265523845</v>
+        <v>0.4571339175690153</v>
       </c>
       <c r="B16">
-        <v>0.8269893261998453</v>
+        <v>-0.5317800063359462</v>
       </c>
       <c r="C16">
-        <v>0.5405032475815726</v>
+        <v>0.873225718969745</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.9430868529930063</v>
+        <v>0.4926470094506478</v>
       </c>
       <c r="B17">
-        <v>0.1006372166368752</v>
+        <v>8.184363590349846E-05</v>
       </c>
       <c r="C17">
-        <v>0.3178896196880728</v>
+        <v>0.3987440982111909</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7996589059500649</v>
+        <v>0.2829998227201509</v>
       </c>
       <c r="B18">
-        <v>-0.4854108868304417</v>
+        <v>0.3813036514694251</v>
       </c>
       <c r="C18">
-        <v>-0.4410416693840485</v>
+        <v>-0.6576602898358133</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.8730673614834257</v>
+        <v>-0.8839605572453795</v>
       </c>
       <c r="B19">
-        <v>-0.7862255069405431</v>
+        <v>0.3823922098186582</v>
       </c>
       <c r="C19">
-        <v>-0.8071849740086081</v>
+        <v>-1.313769701109817</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.6788085117736329</v>
+        <v>-0.229703858678575</v>
       </c>
       <c r="B20">
-        <v>-0.3095786857135706</v>
+        <v>0.2604819927279693</v>
       </c>
       <c r="C20">
-        <v>-1.622798011139184</v>
+        <v>-1.161064796504331</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.3024356809538168</v>
+        <v>0.4875206445705134</v>
       </c>
       <c r="B21">
-        <v>-1.305799125218855</v>
+        <v>1.195093811538064</v>
       </c>
       <c r="C21">
-        <v>-0.87070148844998</v>
+        <v>-0.7933731090088666</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3283650285324322</v>
+        <v>0.01757359854452794</v>
       </c>
       <c r="B22">
-        <v>-0.5668986066255437</v>
+        <v>0.4446994633523499</v>
       </c>
       <c r="C22">
-        <v>-0.5281408258271565</v>
+        <v>-0.5928309134712233</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.1399342772174411</v>
+        <v>0.2556886416738562</v>
       </c>
       <c r="B23">
-        <v>-0.02298165334687412</v>
+        <v>0.03988257797612802</v>
       </c>
       <c r="C23">
-        <v>0.9313227185478404</v>
+        <v>0.5466121215875595</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.590505684813985</v>
+        <v>0.1754492792744364</v>
       </c>
       <c r="B24">
-        <v>-1.425845922798342</v>
+        <v>1.466671100631239</v>
       </c>
       <c r="C24">
-        <v>0.0340892696811269</v>
+        <v>-0.0249610437482908</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.529948247895321</v>
+        <v>0.2320126184365665</v>
       </c>
       <c r="B25">
-        <v>0.5040033250702286</v>
+        <v>-0.0212983938112569</v>
       </c>
       <c r="C25">
-        <v>0.1283440052838719</v>
+        <v>0.6480497778493657</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.880735615471985</v>
+        <v>-0.2207308959730381</v>
       </c>
       <c r="B26">
-        <v>0.3649314327475837</v>
+        <v>-0.5518944838342759</v>
       </c>
       <c r="C26">
-        <v>-0.02107904538370545</v>
+        <v>-0.1918271984747794</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.1577458220999158</v>
+        <v>0.4854217233061734</v>
       </c>
       <c r="B27">
-        <v>1.071043193737189</v>
+        <v>-0.7148200164849926</v>
       </c>
       <c r="C27">
-        <v>0.7750883745537217</v>
+        <v>0.9518779454515238</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.3380022491713438</v>
+        <v>0.7696442660626266</v>
       </c>
       <c r="B28">
-        <v>-1.388193971949494</v>
+        <v>1.292566678683124</v>
       </c>
       <c r="C28">
-        <v>0.7281118321813949</v>
+        <v>0.04727724175122126</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.31864931236449</v>
+        <v>-1.075193514763434</v>
       </c>
       <c r="B29">
-        <v>2.236499001683167</v>
+        <v>-2.024006472647164</v>
       </c>
       <c r="C29">
-        <v>0.800332025774022</v>
+        <v>1.545180369548142</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.08369929860943033</v>
+        <v>0.3901332623193993</v>
       </c>
       <c r="B30">
-        <v>-0.3340643347542935</v>
+        <v>0.4427361364956666</v>
       </c>
       <c r="C30">
-        <v>1.437477279755395</v>
+        <v>1.135214219765191</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.096557688571637</v>
+        <v>-0.3852520387098235</v>
       </c>
       <c r="B31">
-        <v>0.004758102944837546</v>
+        <v>0.006678827759656366</v>
       </c>
       <c r="C31">
-        <v>0.9866747266657271</v>
+        <v>0.5973687607107268</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.5474025903106962</v>
+        <v>1.611661900494309</v>
       </c>
       <c r="B32">
-        <v>-1.782314376590019</v>
+        <v>1.850731390384537</v>
       </c>
       <c r="C32">
-        <v>1.264203006050382</v>
+        <v>0.7574366075646033</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2.378075971177081</v>
+        <v>1.035879649094286</v>
       </c>
       <c r="B33">
-        <v>-2.394788606313653</v>
+        <v>2.254230014249175</v>
       </c>
       <c r="C33">
-        <v>0.3600148284128599</v>
+        <v>-0.179986522082286</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.0001571939733256802</v>
+        <v>0.1148282744433962</v>
       </c>
       <c r="B34">
-        <v>1.174454960087228</v>
+        <v>-0.9664897994784102</v>
       </c>
       <c r="C34">
-        <v>0.6463771183705858</v>
+        <v>0.9797782460994233</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.8145264473152314</v>
+        <v>1.118431756425978</v>
       </c>
       <c r="B35">
-        <v>-0.6973924424468106</v>
+        <v>0.9434957776233494</v>
       </c>
       <c r="C35">
-        <v>1.089341644190667</v>
+        <v>0.9813134216795593</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.797363626821275</v>
+        <v>0.7337207705134361</v>
       </c>
       <c r="B36">
-        <v>0.01919579984496193</v>
+        <v>0.1590545703129284</v>
       </c>
       <c r="C36">
-        <v>1.50283155180171</v>
+        <v>1.146872523824332</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.142632953264874</v>
+        <v>-0.2979340762537255</v>
       </c>
       <c r="B37">
-        <v>0.1049348404917203</v>
+        <v>-0.2545939051667238</v>
       </c>
       <c r="C37">
-        <v>0.3519141564456004</v>
+        <v>0.02370238288338268</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.248734333433646</v>
+        <v>0.4860906491865111</v>
       </c>
       <c r="B38">
-        <v>1.142926695945971</v>
+        <v>-0.6464678077407935</v>
       </c>
       <c r="C38">
-        <v>1.37062845441101</v>
+        <v>1.807942072703491</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.9873914074657918</v>
+        <v>1.206185095007148</v>
       </c>
       <c r="B39">
-        <v>-0.4449805148926628</v>
+        <v>0.6636496090196337</v>
       </c>
       <c r="C39">
-        <v>1.472368174203416</v>
+        <v>1.179762930656533</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.8807440598741588</v>
+        <v>-0.151024766283214</v>
       </c>
       <c r="B40">
-        <v>-0.09821659630230746</v>
+        <v>-0.0517574493675932</v>
       </c>
       <c r="C40">
-        <v>0.7047549889246308</v>
+        <v>0.1149243314363701</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.2957027666246045</v>
+        <v>0.1294910490101516</v>
       </c>
       <c r="B41">
-        <v>-0.3941726576287574</v>
+        <v>0.3629757118376937</v>
       </c>
       <c r="C41">
-        <v>0.3860790402673019</v>
+        <v>0.08640347414541129</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.1169767548100681</v>
+        <v>-0.3559835660592316</v>
       </c>
       <c r="B42">
-        <v>1.044660061350061</v>
+        <v>-1.084520840928811</v>
       </c>
       <c r="C42">
-        <v>0.9417415960675798</v>
+        <v>0.9322297428303385</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.1145051203563176</v>
+        <v>-0.3933047175286883</v>
       </c>
       <c r="B43">
-        <v>1.551641542076612</v>
+        <v>-1.439114656476655</v>
       </c>
       <c r="C43">
-        <v>0.6596766295672633</v>
+        <v>0.9693631105674945</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.702924279687749</v>
+        <v>0.6375437770682926</v>
       </c>
       <c r="B2">
-        <v>-1.199633026406066</v>
+        <v>-1.394671733549509</v>
       </c>
       <c r="C2">
-        <v>1.37443735139947</v>
+        <v>1.158806129870855</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.361078994840578</v>
+        <v>1.391283248992694</v>
       </c>
       <c r="B3">
-        <v>-1.391117517860739</v>
+        <v>-1.509185773915917</v>
       </c>
       <c r="C3">
-        <v>-0.2020742980314001</v>
+        <v>-0.05788129695135966</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8588934371240311</v>
+        <v>-1.445423563521193</v>
       </c>
       <c r="B4">
-        <v>0.2363808515585961</v>
+        <v>0.5454521738428247</v>
       </c>
       <c r="C4">
-        <v>-1.525751409452079</v>
+        <v>-1.767140143136897</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.01022492984586568</v>
+        <v>0.657941891496339</v>
       </c>
       <c r="B5">
-        <v>-0.4897139769293355</v>
+        <v>-0.5214706777399343</v>
       </c>
       <c r="C5">
-        <v>-0.01296293470784855</v>
+        <v>-0.02450226460290688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.127339969832657</v>
+        <v>0.456713373957766</v>
       </c>
       <c r="B6">
-        <v>-0.8811035894965304</v>
+        <v>-0.8189136682069303</v>
       </c>
       <c r="C6">
-        <v>-0.9646296078600013</v>
+        <v>-1.020883850175229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.1493404691020517</v>
+        <v>-0.1191186813102225</v>
       </c>
       <c r="B7">
-        <v>-0.4161525159029738</v>
+        <v>-0.2713261936864321</v>
       </c>
       <c r="C7">
-        <v>-1.070432424702221</v>
+        <v>-1.157750110851297</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2014973703072719</v>
+        <v>1.374952044585726</v>
       </c>
       <c r="B8">
-        <v>-1.514284552561763</v>
+        <v>-1.516127239232971</v>
       </c>
       <c r="C8">
-        <v>0.3034816343606314</v>
+        <v>0.1668850038022037</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.4682230693906137</v>
+        <v>0.9451693960805833</v>
       </c>
       <c r="B9">
-        <v>-1.252307252759419</v>
+        <v>-1.314557983206303</v>
       </c>
       <c r="C9">
-        <v>0.3755742294947819</v>
+        <v>0.3129831101292668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3588746496906624</v>
+        <v>0.1477706271881161</v>
       </c>
       <c r="B10">
-        <v>-1.452081547437238</v>
+        <v>-1.25977099288652</v>
       </c>
       <c r="C10">
-        <v>-0.4696618623581276</v>
+        <v>-0.8220720420870467</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.013205236470976</v>
+        <v>0.06711195295960726</v>
       </c>
       <c r="B11">
-        <v>-0.4281635903198449</v>
+        <v>-0.362692085353335</v>
       </c>
       <c r="C11">
-        <v>-0.6427057297870816</v>
+        <v>-0.6562500085106551</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.18635467407695</v>
+        <v>-0.8926456906155525</v>
       </c>
       <c r="B12">
-        <v>1.376939433217272</v>
+        <v>1.439292222776761</v>
       </c>
       <c r="C12">
-        <v>-0.8689847057459391</v>
+        <v>-0.5768225485163543</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.9280030450275633</v>
+        <v>-1.019074368297432</v>
       </c>
       <c r="B13">
-        <v>0.7354472866402357</v>
+        <v>0.8916997057781164</v>
       </c>
       <c r="C13">
-        <v>-0.9414591483828439</v>
+        <v>-0.8812328209549436</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.1015138416729481</v>
+        <v>-0.2416216765161357</v>
       </c>
       <c r="B14">
-        <v>-0.9977121399585918</v>
+        <v>-0.7636155967772026</v>
       </c>
       <c r="C14">
-        <v>-1.353296462721174</v>
+        <v>-1.604281163571131</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6697932821615774</v>
+        <v>-1.680926375050499</v>
       </c>
       <c r="B15">
-        <v>0.1291169436698287</v>
+        <v>0.4409425221618627</v>
       </c>
       <c r="C15">
-        <v>-1.761495696445558</v>
+        <v>-1.879357676387259</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5810120788671919</v>
+        <v>-0.1752188257143718</v>
       </c>
       <c r="B16">
-        <v>0.5231722342846692</v>
+        <v>0.4900963834783247</v>
       </c>
       <c r="C16">
-        <v>-0.05650965001784487</v>
+        <v>0.01983890527780428</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.7049332341300599</v>
+        <v>0.3521409882555468</v>
       </c>
       <c r="B17">
-        <v>0.02380440082825858</v>
+        <v>0.02818841442446391</v>
       </c>
       <c r="C17">
-        <v>-0.3938492468046618</v>
+        <v>-0.3574589339713956</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.4414424941107029</v>
+        <v>-1.854957657141971</v>
       </c>
       <c r="B18">
-        <v>0.9132481812241925</v>
+        <v>1.23876745596312</v>
       </c>
       <c r="C18">
-        <v>-1.029770648509187</v>
+        <v>-1.151348533879467</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.6726653120109016</v>
+        <v>0.7223232784723971</v>
       </c>
       <c r="B19">
-        <v>-1.229514920390202</v>
+        <v>-1.097720612967058</v>
       </c>
       <c r="C19">
-        <v>-0.3283965245264686</v>
+        <v>-0.5681247844216801</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.212322890474337</v>
+        <v>-0.2514065001082786</v>
       </c>
       <c r="B20">
-        <v>0.5901371679400679</v>
+        <v>0.5910471310915072</v>
       </c>
       <c r="C20">
-        <v>-1.004584858813015</v>
+        <v>-0.764499938434032</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.01585166290631052</v>
+        <v>-0.9990401832761713</v>
       </c>
       <c r="B21">
-        <v>0.7282660526643159</v>
+        <v>0.7892900905049044</v>
       </c>
       <c r="C21">
-        <v>-1.927199078901636</v>
+        <v>-1.609499005060985</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3040625272531761</v>
+        <v>-1.243496935196487</v>
       </c>
       <c r="B22">
-        <v>-0.6455437768359177</v>
+        <v>-0.3296256879642044</v>
       </c>
       <c r="C22">
-        <v>-0.7496222585960455</v>
+        <v>-1.221420111787161</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.04073569851353245</v>
+        <v>0.1958935370031007</v>
       </c>
       <c r="B23">
-        <v>0.8354955549953595</v>
+        <v>0.816412190878587</v>
       </c>
       <c r="C23">
-        <v>-0.1628512217548185</v>
+        <v>0.04928408858011241</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.326894058056555</v>
+        <v>0.4669017210507703</v>
       </c>
       <c r="B24">
-        <v>-0.04377284444272078</v>
+        <v>-0.04498983237675201</v>
       </c>
       <c r="C24">
-        <v>0.6548905508653682</v>
+        <v>0.5780808438213333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9328266847484379</v>
+        <v>-1.931014365571592</v>
       </c>
       <c r="B25">
-        <v>1.403322988711967</v>
+        <v>1.663862448218045</v>
       </c>
       <c r="C25">
-        <v>0.3417124602138361</v>
+        <v>0.3383846250626587</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.652286182872126</v>
+        <v>1.856960090961716</v>
       </c>
       <c r="B26">
-        <v>-1.252199815041265</v>
+        <v>-1.417593854856214</v>
       </c>
       <c r="C26">
-        <v>1.065747746971061</v>
+        <v>0.9608079122491339</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.541313052282448</v>
+        <v>0.002147159298109159</v>
       </c>
       <c r="B27">
-        <v>0.2001896390837561</v>
+        <v>0.2376238722972133</v>
       </c>
       <c r="C27">
-        <v>1.175959134466189</v>
+        <v>0.9884532227038559</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.476782711932074</v>
+        <v>1.088321583735401</v>
       </c>
       <c r="B28">
-        <v>-0.9343829953944575</v>
+        <v>-1.004410860223824</v>
       </c>
       <c r="C28">
-        <v>-0.6575486997642835</v>
+        <v>-0.554633267471947</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.1192453265323336</v>
+        <v>0.3184866663385921</v>
       </c>
       <c r="B29">
-        <v>-0.9124750296860057</v>
+        <v>-0.8994242037410638</v>
       </c>
       <c r="C29">
-        <v>0.6993410863592654</v>
+        <v>0.468157008137379</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.3435790652647227</v>
+        <v>-0.1059785753364689</v>
       </c>
       <c r="B30">
-        <v>0.854017069664219</v>
+        <v>0.7693757371785637</v>
       </c>
       <c r="C30">
-        <v>1.268611480541806</v>
+        <v>1.35701073473916</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.9359318886120913</v>
+        <v>-0.07376261826319859</v>
       </c>
       <c r="B31">
-        <v>1.872136221022513</v>
+        <v>1.444841590381944</v>
       </c>
       <c r="C31">
-        <v>-0.1505550443318492</v>
+        <v>0.5268121142396144</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.385177213402388</v>
+        <v>-0.1885017897177753</v>
       </c>
       <c r="B32">
-        <v>-0.1963672561320641</v>
+        <v>-0.08279901590948247</v>
       </c>
       <c r="C32">
-        <v>0.8163420529037739</v>
+        <v>0.5387345387693934</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.5965707730852663</v>
+        <v>1.571577873645554</v>
       </c>
       <c r="B33">
-        <v>-0.8804083574971333</v>
+        <v>-1.210579733312525</v>
       </c>
       <c r="C33">
-        <v>2.281286150705026</v>
+        <v>1.988840453651084</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.313689988203143</v>
+        <v>1.57788166644033</v>
       </c>
       <c r="B34">
-        <v>0.1824119084202124</v>
+        <v>-0.1777093101056875</v>
       </c>
       <c r="C34">
-        <v>0.8216535380420885</v>
+        <v>1.049619600071193</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.613537516282007</v>
+        <v>1.409324807011058</v>
       </c>
       <c r="B35">
-        <v>-1.202078221054349</v>
+        <v>-1.309411350245076</v>
       </c>
       <c r="C35">
-        <v>-0.8361051384850939</v>
+        <v>-0.5075600697336256</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.04332364806865842</v>
+        <v>0.2826687658268625</v>
       </c>
       <c r="B36">
-        <v>-0.1680662027326183</v>
+        <v>-0.2542124025872136</v>
       </c>
       <c r="C36">
-        <v>1.538421233841531</v>
+        <v>1.23669240909106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.02031770853698</v>
+        <v>-0.1260287867674614</v>
       </c>
       <c r="B37">
-        <v>1.57590644181978</v>
+        <v>1.091046457632266</v>
       </c>
       <c r="C37">
-        <v>1.287962164810703</v>
+        <v>1.688171308897239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1540541942701093</v>
+        <v>-0.7327239302706264</v>
       </c>
       <c r="B38">
-        <v>0.3102135945972912</v>
+        <v>0.2695864817072811</v>
       </c>
       <c r="C38">
-        <v>1.301608468611153</v>
+        <v>1.153014175277874</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5480216290735421</v>
+        <v>-1.560797192286285</v>
       </c>
       <c r="B39">
-        <v>1.260538603391317</v>
+        <v>1.389668847623388</v>
       </c>
       <c r="C39">
-        <v>0.3443948560006163</v>
+        <v>0.3471485099980217</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.118102120161458</v>
+        <v>0.5923290770665425</v>
       </c>
       <c r="B40">
-        <v>0.07159411721387021</v>
+        <v>0.03919289105979951</v>
       </c>
       <c r="C40">
-        <v>-0.5751719481392584</v>
+        <v>-0.3783575291316986</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.227738657219229</v>
+        <v>0.6404169198824298</v>
       </c>
       <c r="B41">
-        <v>-0.1053647119124385</v>
+        <v>-0.2032942469117412</v>
       </c>
       <c r="C41">
-        <v>1.153588511077721</v>
+        <v>1.054712765319268</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.369428322231577</v>
+        <v>-0.3949373328633701</v>
       </c>
       <c r="B42">
-        <v>2.014901234013699</v>
+        <v>1.626307273667845</v>
       </c>
       <c r="C42">
-        <v>1.086201175248528</v>
+        <v>1.60300479905688</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.1761655037824558</v>
+        <v>-1.719185399492301</v>
       </c>
       <c r="B43">
-        <v>1.755203915790252</v>
+        <v>1.961409165089079</v>
       </c>
       <c r="C43">
-        <v>-0.2055952270751129</v>
+        <v>-0.02436615910831876</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.378241437020425</v>
+        <v>1.373978522640008</v>
       </c>
       <c r="B2">
-        <v>0.5075707313912071</v>
+        <v>-0.893501427640512</v>
       </c>
       <c r="C2">
-        <v>1.002004500253448</v>
+        <v>-1.04305958436736</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7116144103867053</v>
+        <v>1.312455042872358</v>
       </c>
       <c r="B3">
-        <v>1.643922727901821</v>
+        <v>-1.579046564941588</v>
       </c>
       <c r="C3">
-        <v>0.0733358136155519</v>
+        <v>0.1471347894989536</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.148361770292659</v>
+        <v>0.6323325826591082</v>
       </c>
       <c r="B4">
-        <v>1.74647449739245</v>
+        <v>-1.821530996099717</v>
       </c>
       <c r="C4">
-        <v>0.08149842864650286</v>
+        <v>0.05943059328126423</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4071026117328816</v>
+        <v>0.3598159355077173</v>
       </c>
       <c r="B5">
-        <v>0.4530072155364526</v>
+        <v>-0.4255207434916505</v>
       </c>
       <c r="C5">
-        <v>-0.858929100755864</v>
+        <v>0.8465852919261658</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.1099924519421149</v>
+        <v>0.02500454990502995</v>
       </c>
       <c r="B6">
-        <v>0.5456485882832478</v>
+        <v>-0.6080283005525405</v>
       </c>
       <c r="C6">
-        <v>-0.543565999518952</v>
+        <v>0.4669462926005785</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.4863799387392878</v>
+        <v>1.483876420795363</v>
       </c>
       <c r="B7">
-        <v>0.8295472147302025</v>
+        <v>-0.8792117958626716</v>
       </c>
       <c r="C7">
-        <v>0.09266732308020774</v>
+        <v>0.01039771980743241</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.008598938133236</v>
+        <v>1.64547893208553</v>
       </c>
       <c r="B8">
-        <v>1.845821780023666</v>
+        <v>-1.807130391273599</v>
       </c>
       <c r="C8">
-        <v>0.06785577979662595</v>
+        <v>0.1123972928371716</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.9595559435389688</v>
+        <v>-0.2674084149714639</v>
       </c>
       <c r="B9">
-        <v>0.7777400298591041</v>
+        <v>-0.4961357852685658</v>
       </c>
       <c r="C9">
-        <v>-0.2215090401756278</v>
+        <v>0.482699633861323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.298792715666165</v>
+        <v>1.421531834299482</v>
       </c>
       <c r="B10">
-        <v>2.32384176004692</v>
+        <v>-2.24666395492022</v>
       </c>
       <c r="C10">
-        <v>0.6297754608739915</v>
+        <v>-0.2767186546024044</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.1777673828179346</v>
+        <v>0.6868772248010531</v>
       </c>
       <c r="B11">
-        <v>1.499648333789913</v>
+        <v>-1.26652363631891</v>
       </c>
       <c r="C11">
-        <v>-0.1859847497759568</v>
+        <v>0.5064396117764105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.5341481813477922</v>
+        <v>-0.5759386537656134</v>
       </c>
       <c r="B12">
-        <v>-0.3820949274750681</v>
+        <v>0.5264973100386284</v>
       </c>
       <c r="C12">
-        <v>-1.543303894323504</v>
+        <v>1.480312014097747</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.4743259611196144</v>
+        <v>-1.368071060850413</v>
       </c>
       <c r="B13">
-        <v>-0.5903092892712566</v>
+        <v>0.8484862434722267</v>
       </c>
       <c r="C13">
-        <v>-1.461481845589974</v>
+        <v>1.454442058454019</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.012254104336938</v>
+        <v>-0.7662869486110214</v>
       </c>
       <c r="B14">
-        <v>0.5036440393534307</v>
+        <v>-0.1466440130193657</v>
       </c>
       <c r="C14">
-        <v>-1.36496368497577</v>
+        <v>1.545847103044153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3453174462070679</v>
+        <v>-1.114588722376895</v>
       </c>
       <c r="B15">
-        <v>0.3491284891494565</v>
+        <v>0.01908724313079122</v>
       </c>
       <c r="C15">
-        <v>-2.137394197158097</v>
+        <v>2.312919924747369</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2748286784290271</v>
+        <v>-0.492207439456728</v>
       </c>
       <c r="B16">
-        <v>0.1755817710282649</v>
+        <v>-0.2685018818712912</v>
       </c>
       <c r="C16">
-        <v>-0.9122061766273117</v>
+        <v>0.7473889794865902</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.7322403758453405</v>
+        <v>0.138454924156527</v>
       </c>
       <c r="B17">
-        <v>0.6575304805790202</v>
+        <v>-0.4463997022772681</v>
       </c>
       <c r="C17">
-        <v>-0.6646508882863862</v>
+        <v>0.8319742834167766</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7780551809209313</v>
+        <v>-0.5465375028312638</v>
       </c>
       <c r="B18">
-        <v>-0.3850602130628111</v>
+        <v>0.6247304571007711</v>
       </c>
       <c r="C18">
-        <v>-1.062293227384552</v>
+        <v>1.106517745530588</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.28701998060775</v>
+        <v>0.7900530873218997</v>
       </c>
       <c r="B19">
-        <v>0.8815754470691021</v>
+        <v>-0.9162801126975311</v>
       </c>
       <c r="C19">
-        <v>0.2874385059996225</v>
+        <v>-0.2149365377609343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.461751872477173</v>
+        <v>-0.3080901740671072</v>
       </c>
       <c r="B20">
-        <v>-0.07792443177480345</v>
+        <v>0.3768247182124048</v>
       </c>
       <c r="C20">
-        <v>-0.7278939587185685</v>
+        <v>0.8407267382151794</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.870232136342544</v>
+        <v>0.1587687131632634</v>
       </c>
       <c r="B21">
-        <v>-0.3931050380033678</v>
+        <v>-0.05265989639600371</v>
       </c>
       <c r="C21">
-        <v>-1.361526424240104</v>
+        <v>0.8532980978332159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.7600384992311398</v>
+        <v>0.06677151259530847</v>
       </c>
       <c r="B22">
-        <v>0.103018496668816</v>
+        <v>-0.0188328734059181</v>
       </c>
       <c r="C22">
-        <v>0.135200647785391</v>
+        <v>-0.0492740444208472</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.3855545657082703</v>
+        <v>0.4709562183564628</v>
       </c>
       <c r="B23">
-        <v>0.1177072343134257</v>
+        <v>-0.1184861046127429</v>
       </c>
       <c r="C23">
-        <v>0.02849049760968997</v>
+        <v>0.009528426986427554</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.030356235122172</v>
+        <v>-0.07071532247692695</v>
       </c>
       <c r="B24">
-        <v>-0.8522618615081585</v>
+        <v>0.7559652741878931</v>
       </c>
       <c r="C24">
-        <v>1.186326541413913</v>
+        <v>-1.261882225669012</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8561320935163147</v>
+        <v>-2.329341247573375</v>
       </c>
       <c r="B25">
-        <v>-1.987273602923508</v>
+        <v>2.058239317806001</v>
       </c>
       <c r="C25">
-        <v>-0.2027704509396446</v>
+        <v>-0.1706551225236819</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.07202523766389689</v>
+        <v>0.6512542460411349</v>
       </c>
       <c r="B26">
-        <v>0.412540689328844</v>
+        <v>-0.4325959160589251</v>
       </c>
       <c r="C26">
-        <v>-0.3836492026767215</v>
+        <v>0.4057324759007681</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.454557937907265</v>
+        <v>-0.2117912344505646</v>
       </c>
       <c r="B27">
-        <v>-0.4164711088616082</v>
+        <v>0.5492541234538427</v>
       </c>
       <c r="C27">
-        <v>0.8472121931342633</v>
+        <v>-0.7807554463693112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.1500121488659668</v>
+        <v>0.8865564726683045</v>
       </c>
       <c r="B28">
-        <v>0.1927688076477898</v>
+        <v>-0.4325665355161633</v>
       </c>
       <c r="C28">
-        <v>1.631108170503155</v>
+        <v>-1.523442135125083</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.5729798016729429</v>
+        <v>-0.4539456483699402</v>
       </c>
       <c r="B29">
-        <v>-0.5544258150513168</v>
+        <v>0.2439567223237954</v>
       </c>
       <c r="C29">
-        <v>2.11858664923984</v>
+        <v>-2.22298356551506</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9501667355090605</v>
+        <v>-1.236386476225172</v>
       </c>
       <c r="B30">
-        <v>-0.9415264527407718</v>
+        <v>1.118074700979351</v>
       </c>
       <c r="C30">
-        <v>-0.1990133651935296</v>
+        <v>0.199662088192171</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.3029574518990897</v>
+        <v>-1.885960809836595</v>
       </c>
       <c r="B31">
-        <v>-1.869769911394786</v>
+        <v>1.802686909154417</v>
       </c>
       <c r="C31">
-        <v>0.09826545657986512</v>
+        <v>-0.4747472875561042</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.492842474526692</v>
+        <v>0.1776358006070448</v>
       </c>
       <c r="B32">
-        <v>-0.4401932478939821</v>
+        <v>0.4655264342533257</v>
       </c>
       <c r="C32">
-        <v>0.8584826155229618</v>
+        <v>-0.8701486156548798</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6629053495446509</v>
+        <v>0.3692625112316679</v>
       </c>
       <c r="B33">
-        <v>0.5205950826470712</v>
+        <v>-0.720381430536517</v>
       </c>
       <c r="C33">
-        <v>1.731696285987994</v>
+        <v>-1.460032019242552</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.6764350410373093</v>
+        <v>2.018038149260388</v>
       </c>
       <c r="B34">
-        <v>0.03488883694801889</v>
+        <v>-0.3771457450657661</v>
       </c>
       <c r="C34">
-        <v>0.6443234295784669</v>
+        <v>-0.6981203910388178</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.4163510560811912</v>
+        <v>1.084460703454546</v>
       </c>
       <c r="B35">
-        <v>0.7786276059677627</v>
+        <v>-0.8836376960781507</v>
       </c>
       <c r="C35">
-        <v>-0.4057074050769311</v>
+        <v>0.3867763041052474</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.9225095671638115</v>
+        <v>0.5738399125947472</v>
       </c>
       <c r="B36">
-        <v>-0.2512702495178857</v>
+        <v>-0.1328244950253462</v>
       </c>
       <c r="C36">
-        <v>2.545267195371225</v>
+        <v>-2.504837959070035</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.8299788588358757</v>
+        <v>-1.387165508622924</v>
       </c>
       <c r="B37">
-        <v>-1.344424837997927</v>
+        <v>1.379309318796135</v>
       </c>
       <c r="C37">
-        <v>-0.303060668024467</v>
+        <v>0.1188043358746206</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.9718733819339794</v>
+        <v>-0.8825928164808161</v>
       </c>
       <c r="B38">
-        <v>-0.5895153901797789</v>
+        <v>0.8511056863127322</v>
       </c>
       <c r="C38">
-        <v>-0.3634025976377324</v>
+        <v>0.4496352494839517</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.188652662650645</v>
+        <v>-0.9641071950662848</v>
       </c>
       <c r="B39">
-        <v>-0.662521652818439</v>
+        <v>0.8987202145922776</v>
       </c>
       <c r="C39">
-        <v>0.491282894984213</v>
+        <v>-0.4419517491907689</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.2685324963971938</v>
+        <v>0.6747020767474019</v>
       </c>
       <c r="B40">
-        <v>-0.8854538012704254</v>
+        <v>0.7175632133112692</v>
       </c>
       <c r="C40">
-        <v>-0.5026148861873146</v>
+        <v>0.3188318356687658</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3195981965628096</v>
+        <v>0.2219423701473686</v>
       </c>
       <c r="B41">
-        <v>-0.9568083551165872</v>
+        <v>0.4829468014078588</v>
       </c>
       <c r="C41">
-        <v>1.533056739385936</v>
+        <v>-1.768433404007224</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.03901736012505206</v>
+        <v>-0.8893458571265761</v>
       </c>
       <c r="B42">
-        <v>-1.605254716116197</v>
+        <v>1.491175488314127</v>
       </c>
       <c r="C42">
-        <v>-0.4307635453443092</v>
+        <v>0.06654508935961495</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.2568819580701279</v>
+        <v>-1.47356671075202</v>
       </c>
       <c r="B43">
-        <v>-1.715164956677308</v>
+        <v>1.760099822083115</v>
       </c>
       <c r="C43">
-        <v>-0.2471898207515466</v>
+        <v>0.001004766127571167</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.168737521091736</v>
+        <v>2.067401009521621</v>
       </c>
       <c r="B2">
-        <v>1.048610897461414</v>
+        <v>-1.497667702566118</v>
       </c>
       <c r="C2">
-        <v>-1.677808217875178</v>
+        <v>-1.581308865424789</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.946039544143918</v>
+        <v>1.619554731234004</v>
       </c>
       <c r="B3">
-        <v>1.677198131742281</v>
+        <v>-1.978657201195151</v>
       </c>
       <c r="C3">
-        <v>-0.3278368529048249</v>
+        <v>-0.3449348391720989</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.926808511388362</v>
+        <v>1.602913545386784</v>
       </c>
       <c r="B4">
-        <v>1.552791084415463</v>
+        <v>-1.822197721766349</v>
       </c>
       <c r="C4">
-        <v>0.1439118096331008</v>
+        <v>-0.01380799099986666</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.7506324352959961</v>
+        <v>1.331686252139346</v>
       </c>
       <c r="B5">
-        <v>0.3633204161684794</v>
+        <v>-0.793774231603641</v>
       </c>
       <c r="C5">
-        <v>-1.974607747743266</v>
+        <v>-1.735734101935295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.08099072635118461</v>
+        <v>-0.4252034662232463</v>
       </c>
       <c r="B6">
-        <v>0.3636600972368118</v>
+        <v>-0.09227387876162783</v>
       </c>
       <c r="C6">
-        <v>0.4165495732860335</v>
+        <v>0.7526457609344881</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.139177389864273</v>
+        <v>-0.3261808710219605</v>
       </c>
       <c r="B7">
-        <v>1.294576018094329</v>
+        <v>-1.01300173937422</v>
       </c>
       <c r="C7">
-        <v>0.815275184785069</v>
+        <v>1.103661924463953</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.3177512696818842</v>
+        <v>1.060613128692374</v>
       </c>
       <c r="B8">
-        <v>1.099190746291997</v>
+        <v>-1.223984617936077</v>
       </c>
       <c r="C8">
-        <v>-0.863330022808815</v>
+        <v>-0.6192972676883082</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.9947424043945176</v>
+        <v>0.4468064508609193</v>
       </c>
       <c r="B9">
-        <v>0.8909679899704925</v>
+        <v>-0.7177806273903886</v>
       </c>
       <c r="C9">
-        <v>0.1812728943637929</v>
+        <v>0.471871838306001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.52292767654574</v>
+        <v>0.6676014445261234</v>
       </c>
       <c r="B10">
-        <v>2.149087669715453</v>
+        <v>-2.067888265298881</v>
       </c>
       <c r="C10">
-        <v>0.4266944970458272</v>
+        <v>0.8131398152191259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4074792930094941</v>
+        <v>-1.981300946964688</v>
       </c>
       <c r="B11">
-        <v>0.4475346343540969</v>
+        <v>-0.019378041319662</v>
       </c>
       <c r="C11">
-        <v>1.128620319634117</v>
+        <v>1.463529438313353</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.5269268165660869</v>
+        <v>-0.4594495381110233</v>
       </c>
       <c r="B12">
-        <v>0.08964969819915312</v>
+        <v>0.03857387602623386</v>
       </c>
       <c r="C12">
-        <v>-0.798298134463562</v>
+        <v>-0.4603236887052464</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.68465414928664</v>
+        <v>-1.253978105455174</v>
       </c>
       <c r="B13">
-        <v>0.188420646595703</v>
+        <v>0.203348934502962</v>
       </c>
       <c r="C13">
-        <v>-0.004432750075544193</v>
+        <v>0.4478778518264646</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.5863614030537166</v>
+        <v>-1.226345998496238</v>
       </c>
       <c r="B14">
-        <v>0.5629815151211524</v>
+        <v>-0.1904063506185298</v>
       </c>
       <c r="C14">
-        <v>1.057128134086393</v>
+        <v>1.322197260379092</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.091907587204888</v>
+        <v>0.1982158491169116</v>
       </c>
       <c r="B15">
-        <v>0.5731305432438236</v>
+        <v>-0.3522777093407501</v>
       </c>
       <c r="C15">
-        <v>-0.2708704056768604</v>
+        <v>0.1310561915794866</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.988177021448631</v>
+        <v>-0.4260850697746675</v>
       </c>
       <c r="B16">
-        <v>1.012666155783304</v>
+        <v>-0.8469447596634226</v>
       </c>
       <c r="C16">
-        <v>-0.5544838323749969</v>
+        <v>-0.01819394801513688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.608026923047564</v>
+        <v>-0.7339295223066666</v>
       </c>
       <c r="B17">
-        <v>0.4331644839272111</v>
+        <v>-0.1501360663575764</v>
       </c>
       <c r="C17">
-        <v>-0.03646877929356158</v>
+        <v>0.3091127275368956</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.917166651664586</v>
+        <v>0.58906931978689</v>
       </c>
       <c r="B18">
-        <v>-0.08349513153546496</v>
+        <v>-0.3043816071276702</v>
       </c>
       <c r="C18">
-        <v>-0.4102002758136766</v>
+        <v>-0.5920456073345967</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.5695705412382623</v>
+        <v>1.12318686546716</v>
       </c>
       <c r="B19">
-        <v>1.142963114383137</v>
+        <v>-1.336255920503372</v>
       </c>
       <c r="C19">
-        <v>-1.147810678896253</v>
+        <v>-0.8307587796506163</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.4924298056748349</v>
+        <v>0.2284168316447463</v>
       </c>
       <c r="B20">
-        <v>0.2810992489982174</v>
+        <v>-0.6097289174795234</v>
       </c>
       <c r="C20">
-        <v>-1.850172460920907</v>
+        <v>-1.573706940334298</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.8939417232846274</v>
+        <v>0.7552904959793061</v>
       </c>
       <c r="B21">
-        <v>1.40695787483097</v>
+        <v>-1.333331413724033</v>
       </c>
       <c r="C21">
-        <v>0.1915352251827956</v>
+        <v>0.4683774542918371</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.7185241109818581</v>
+        <v>0.5665573054281334</v>
       </c>
       <c r="B22">
-        <v>1.033845880229006</v>
+        <v>-0.9550925988622463</v>
       </c>
       <c r="C22">
-        <v>-0.1170784180016805</v>
+        <v>0.1580610588671998</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.6101899571375324</v>
+        <v>-0.7436177507276031</v>
       </c>
       <c r="B23">
-        <v>-0.5379090115356063</v>
+        <v>0.8124878136456853</v>
       </c>
       <c r="C23">
-        <v>1.373008323257032</v>
+        <v>1.260320302151522</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.246461332778493</v>
+        <v>-0.394259625090344</v>
       </c>
       <c r="B24">
-        <v>-0.7252716411759659</v>
+        <v>0.8374277438232622</v>
       </c>
       <c r="C24">
-        <v>0.6816405672880181</v>
+        <v>0.4770267816758313</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.079584928904455</v>
+        <v>0.7255901064828796</v>
       </c>
       <c r="B25">
-        <v>-0.5548553907810994</v>
+        <v>0.5481967245301997</v>
       </c>
       <c r="C25">
-        <v>-0.4230799026195108</v>
+        <v>-0.5347360356385349</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.5483135794637956</v>
+        <v>0.8847712753876893</v>
       </c>
       <c r="B26">
-        <v>-0.007460223041278734</v>
+        <v>-0.127853300309049</v>
       </c>
       <c r="C26">
-        <v>-0.1916283618883994</v>
+        <v>-0.2655687388700028</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.5159062790092875</v>
+        <v>0.3781962363888731</v>
       </c>
       <c r="B27">
-        <v>-0.3531883070698827</v>
+        <v>0.3912174876503279</v>
       </c>
       <c r="C27">
-        <v>0.4103769816227182</v>
+        <v>0.2260208583653631</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.4741123176269001</v>
+        <v>-1.150247410971452</v>
       </c>
       <c r="B28">
-        <v>-0.4705996287594968</v>
+        <v>0.7374290035484538</v>
       </c>
       <c r="C28">
-        <v>1.451127958735699</v>
+        <v>1.32929733025163</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.4778144956991309</v>
+        <v>-0.261389335580953</v>
       </c>
       <c r="B29">
-        <v>-0.09447690753161875</v>
+        <v>0.3354455509533191</v>
       </c>
       <c r="C29">
-        <v>1.732064609465113</v>
+        <v>1.536840778464931</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.6287602774032164</v>
+        <v>-1.354223523842579</v>
       </c>
       <c r="B30">
-        <v>-1.12168942056321</v>
+        <v>1.244860160703353</v>
       </c>
       <c r="C30">
-        <v>0.6188222164957899</v>
+        <v>0.4211917797139347</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.4686090666537855</v>
+        <v>0.1116566927154818</v>
       </c>
       <c r="B31">
-        <v>-1.354814419316788</v>
+        <v>1.313687154297232</v>
       </c>
       <c r="C31">
-        <v>-0.87208087671007</v>
+        <v>-1.111155386021127</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.007494227562489</v>
+        <v>0.4813780889383696</v>
       </c>
       <c r="B32">
-        <v>-1.070348120511171</v>
+        <v>0.8904874126118083</v>
       </c>
       <c r="C32">
-        <v>-0.8139173095798565</v>
+        <v>-1.112586793428461</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.894551673695603</v>
+        <v>-0.605651417244769</v>
       </c>
       <c r="B33">
-        <v>0.4661974440870559</v>
+        <v>-0.2977823889073188</v>
       </c>
       <c r="C33">
-        <v>2.60849876340424</v>
+        <v>2.252598809045103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.5622351943560917</v>
+        <v>-1.594212502654946</v>
       </c>
       <c r="B34">
-        <v>-1.563875169684581</v>
+        <v>1.274082049284686</v>
       </c>
       <c r="C34">
-        <v>-0.3804276247774535</v>
+        <v>-0.7639224044845204</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.2831634835529124</v>
+        <v>-1.580776507311221</v>
       </c>
       <c r="B35">
-        <v>-1.158699295728757</v>
+        <v>1.283897906912103</v>
       </c>
       <c r="C35">
-        <v>1.233053826567203</v>
+        <v>0.8899477254838709</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.7953492801673879</v>
+        <v>0.8858392688154937</v>
       </c>
       <c r="B36">
-        <v>-1.078209462209143</v>
+        <v>0.406068641747632</v>
       </c>
       <c r="C36">
-        <v>-1.095893183137499</v>
+        <v>-1.626026356049154</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.2086018070092985</v>
+        <v>-0.5233335162995099</v>
       </c>
       <c r="B37">
-        <v>-1.350839852678777</v>
+        <v>1.266515061352758</v>
       </c>
       <c r="C37">
-        <v>-1.114376923409458</v>
+        <v>-1.267862069541336</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.5631201016652417</v>
+        <v>0.4994874905488291</v>
       </c>
       <c r="B38">
-        <v>-0.7746109218040085</v>
+        <v>0.593616046979817</v>
       </c>
       <c r="C38">
-        <v>0.5406974481907949</v>
+        <v>0.1154988216755978</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.02198970570770074</v>
+        <v>-2.174375780208287</v>
       </c>
       <c r="B39">
-        <v>-1.049874096236967</v>
+        <v>1.377892204922289</v>
       </c>
       <c r="C39">
-        <v>1.546478816986141</v>
+        <v>1.373441270025941</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.311080621243955</v>
+        <v>0.5394010710174961</v>
       </c>
       <c r="B40">
-        <v>-0.7758514180970985</v>
+        <v>0.6982175321484009</v>
       </c>
       <c r="C40">
-        <v>-0.2691130337757919</v>
+        <v>-0.4732150112432947</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.5377624651290372</v>
+        <v>0.8042534202910044</v>
       </c>
       <c r="B41">
-        <v>-1.334182275422236</v>
+        <v>0.9435612662499465</v>
       </c>
       <c r="C41">
-        <v>-1.081798518891592</v>
+        <v>-1.473105824303737</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.8276797735021654</v>
+        <v>-0.4051819485411849</v>
       </c>
       <c r="B42">
-        <v>-0.8899128720270971</v>
+        <v>0.9843716045548395</v>
       </c>
       <c r="C42">
-        <v>0.341752943537256</v>
+        <v>0.1343180590531761</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.326982283475193</v>
+        <v>0.05185595645605991</v>
       </c>
       <c r="B43">
-        <v>-1.727850725139303</v>
+        <v>1.549410883660299</v>
       </c>
       <c r="C43">
-        <v>-0.6227957819283757</v>
+        <v>-1.059743188784377</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-2.112759754454259</v>
+        <v>-1.721949676547748</v>
       </c>
       <c r="B2">
-        <v>1.814913918860076</v>
+        <v>2.195801823433239</v>
       </c>
       <c r="C2">
-        <v>-1.219802546300833</v>
+        <v>-0.8549743400027126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-2.289625673510653</v>
+        <v>-1.135126179776507</v>
       </c>
       <c r="B3">
-        <v>1.13596557102024</v>
+        <v>1.373208089417962</v>
       </c>
       <c r="C3">
-        <v>0.2376778112719566</v>
+        <v>0.2458419658529407</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-1.098769587150646</v>
+        <v>-1.085271661030721</v>
       </c>
       <c r="B4">
-        <v>0.6655068806478986</v>
+        <v>1.050857142583475</v>
       </c>
       <c r="C4">
-        <v>-1.537201282630632</v>
+        <v>-1.332859418620855</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.6656070480529093</v>
+        <v>0.260567029807425</v>
       </c>
       <c r="B5">
-        <v>0.5679799780606493</v>
+        <v>0.2303574783246216</v>
       </c>
       <c r="C5">
-        <v>1.403249841285174</v>
+        <v>1.541756768146397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.8078586011785245</v>
+        <v>-0.6282564928668899</v>
       </c>
       <c r="B6">
-        <v>1.254529309053214</v>
+        <v>1.27325852269787</v>
       </c>
       <c r="C6">
-        <v>-0.3360164317208961</v>
+        <v>-0.008512510777486767</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.492781796410217</v>
+        <v>0.1914373239493193</v>
       </c>
       <c r="B7">
-        <v>0.9535053281887977</v>
+        <v>0.7970834900536712</v>
       </c>
       <c r="C7">
-        <v>1.609606378103336</v>
+        <v>1.443017959515905</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.890113268890765</v>
+        <v>-1.933996331522605</v>
       </c>
       <c r="B8">
-        <v>1.698626680242614</v>
+        <v>2.07772774610674</v>
       </c>
       <c r="C8">
-        <v>-1.225002217665489</v>
+        <v>-0.851014087126126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.1321096266109144</v>
+        <v>-1.590905112372948</v>
       </c>
       <c r="B9">
-        <v>1.750153421430728</v>
+        <v>1.784825365712591</v>
       </c>
       <c r="C9">
-        <v>-0.6410884699109038</v>
+        <v>-0.1116547556670184</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.1917066932860643</v>
+        <v>0.3881274299712369</v>
       </c>
       <c r="B10">
-        <v>1.081443594215274</v>
+        <v>0.5425945510178648</v>
       </c>
       <c r="C10">
-        <v>1.452733154523218</v>
+        <v>1.870362497427469</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.7023331912494216</v>
+        <v>0.03877866504367651</v>
       </c>
       <c r="B11">
-        <v>0.6207879148569928</v>
+        <v>0.302951596743162</v>
       </c>
       <c r="C11">
-        <v>1.098922590674361</v>
+        <v>1.22973738451164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.4844693891022311</v>
+        <v>0.3593138554905226</v>
       </c>
       <c r="B12">
-        <v>0.5416752993894205</v>
+        <v>0.2072850707531709</v>
       </c>
       <c r="C12">
-        <v>1.001853566803558</v>
+        <v>1.148397707922013</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.4997125739744685</v>
+        <v>0.4984293446231545</v>
       </c>
       <c r="B13">
-        <v>0.3241259456318275</v>
+        <v>0.1093290823078609</v>
       </c>
       <c r="C13">
-        <v>0.3148137475387232</v>
+        <v>0.4945434799762599</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3037456152547292</v>
+        <v>-0.6120667841053473</v>
       </c>
       <c r="B14">
-        <v>1.083887997455153</v>
+        <v>0.8459899343093543</v>
       </c>
       <c r="C14">
-        <v>0.71078847939956</v>
+        <v>1.015479622359915</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.9486824415526341</v>
+        <v>0.6633141518386919</v>
       </c>
       <c r="B15">
-        <v>0.3293947265661997</v>
+        <v>0.1457762830383996</v>
       </c>
       <c r="C15">
-        <v>0.2348973935874674</v>
+        <v>0.3831827983108801</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.259208537900282</v>
+        <v>0.1899893658105329</v>
       </c>
       <c r="B16">
-        <v>0.7025021729863931</v>
+        <v>0.2895657602497685</v>
       </c>
       <c r="C16">
-        <v>1.091052188211413</v>
+        <v>1.367245406160492</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.6349533362979524</v>
+        <v>0.04828998944362708</v>
       </c>
       <c r="B17">
-        <v>0.5557278203395094</v>
+        <v>0.2790941452270573</v>
       </c>
       <c r="C17">
-        <v>0.7612835193963355</v>
+        <v>0.9347895186446945</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.6824730535200785</v>
+        <v>-0.04383678841764433</v>
       </c>
       <c r="B18">
-        <v>0.8500990581571873</v>
+        <v>0.656652690789656</v>
       </c>
       <c r="C18">
-        <v>0.8972946845483115</v>
+        <v>1.042668457423991</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.6043965636270182</v>
+        <v>-1.343764237837985</v>
       </c>
       <c r="B19">
-        <v>1.08941652158088</v>
+        <v>1.382753104060382</v>
       </c>
       <c r="C19">
-        <v>-1.444371737608116</v>
+        <v>-1.076045705603189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-2.435597867939376</v>
+        <v>-0.8054736372367625</v>
       </c>
       <c r="B20">
-        <v>0.2587408615331819</v>
+        <v>0.7786613499838755</v>
       </c>
       <c r="C20">
-        <v>-2.183763292780145</v>
+        <v>-2.108338095422639</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.3523224864214884</v>
+        <v>0.6319219491396655</v>
       </c>
       <c r="B21">
-        <v>0.6745441852059356</v>
+        <v>0.2876798302040426</v>
       </c>
       <c r="C21">
-        <v>1.423692407415064</v>
+        <v>1.535404323415024</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.6994589651606833</v>
+        <v>0.08726217020490244</v>
       </c>
       <c r="B22">
-        <v>0.4606204709714514</v>
+        <v>0.2486654699869889</v>
       </c>
       <c r="C22">
-        <v>0.3234721037225434</v>
+        <v>0.5043203386077576</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8512176578083731</v>
+        <v>-0.6509132293918999</v>
       </c>
       <c r="B23">
-        <v>-0.3828777063494787</v>
+        <v>-0.3365059908893502</v>
       </c>
       <c r="C23">
-        <v>-0.5116720326597763</v>
+        <v>-0.5502416524458149</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3401387369354978</v>
+        <v>-0.007249716717874024</v>
       </c>
       <c r="B24">
-        <v>-0.4335888153814181</v>
+        <v>-0.5818195217191271</v>
       </c>
       <c r="C24">
-        <v>0.4458874130892678</v>
+        <v>0.3504319958066915</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8471982984419225</v>
+        <v>-0.942934402461953</v>
       </c>
       <c r="B25">
-        <v>-0.2907623379709243</v>
+        <v>-0.01525412841515996</v>
       </c>
       <c r="C25">
-        <v>-1.105599127701763</v>
+        <v>-1.110656217806357</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.119705130084148</v>
+        <v>-1.276900410156839</v>
       </c>
       <c r="B26">
-        <v>-0.3469324968965949</v>
+        <v>0.02701075674934645</v>
       </c>
       <c r="C26">
-        <v>-0.8628991156474043</v>
+        <v>-1.028270300151739</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.09571294672110205</v>
+        <v>-0.5974617504535755</v>
       </c>
       <c r="B27">
-        <v>-0.5529294638489596</v>
+        <v>-0.2952011963795341</v>
       </c>
       <c r="C27">
-        <v>-1.59800514369662</v>
+        <v>-1.620483808338234</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.2800861304831486</v>
+        <v>0.8156773548545238</v>
       </c>
       <c r="B28">
-        <v>-1.317322599985347</v>
+        <v>-1.252077067394066</v>
       </c>
       <c r="C28">
-        <v>0.07451517121773572</v>
+        <v>-0.3152455055284634</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.123281833813668</v>
+        <v>-0.2216764726941132</v>
       </c>
       <c r="B29">
-        <v>-0.1581487877888917</v>
+        <v>-0.3261365112444737</v>
       </c>
       <c r="C29">
-        <v>0.6538561874054792</v>
+        <v>0.5964815405786252</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.397911867192975</v>
+        <v>0.05698183145023188</v>
       </c>
       <c r="B30">
-        <v>-0.7483440613634696</v>
+        <v>-0.934527067092303</v>
       </c>
       <c r="C30">
-        <v>-0.0009260512287495018</v>
+        <v>-0.06469071726862406</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.088099046119337</v>
+        <v>-0.1463043391950834</v>
       </c>
       <c r="B31">
-        <v>-0.357575788115091</v>
+        <v>-0.1645775522150547</v>
       </c>
       <c r="C31">
-        <v>-1.163668220272803</v>
+        <v>-1.100637212663924</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.9744126900978558</v>
+        <v>0.5538427242618279</v>
       </c>
       <c r="B32">
-        <v>-1.182496629386938</v>
+        <v>-1.172669039071199</v>
       </c>
       <c r="C32">
-        <v>-0.3405871609762424</v>
+        <v>-0.5530242276626255</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.1676056970669434</v>
+        <v>2.432207103879866</v>
       </c>
       <c r="B33">
-        <v>-1.578111543917958</v>
+        <v>-1.670415930659771</v>
       </c>
       <c r="C33">
-        <v>1.334108653847575</v>
+        <v>0.7630260268083517</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.1872727544015841</v>
+        <v>1.276817461396938</v>
       </c>
       <c r="B34">
-        <v>-1.618191649633594</v>
+        <v>-1.577190575623659</v>
       </c>
       <c r="C34">
-        <v>0.5183746343880726</v>
+        <v>0.009314652386020542</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.7851683631142639</v>
+        <v>0.9394882730948823</v>
       </c>
       <c r="B35">
-        <v>-0.9689507096212731</v>
+        <v>-1.077845385499291</v>
       </c>
       <c r="C35">
-        <v>0.6618959692398684</v>
+        <v>0.3893101786228955</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.4249968462863222</v>
+        <v>1.009738605452243</v>
       </c>
       <c r="B36">
-        <v>-1.439398796376231</v>
+        <v>-1.227766038596668</v>
       </c>
       <c r="C36">
-        <v>-0.1526540462234552</v>
+        <v>-0.5952964978033943</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.9166265773650294</v>
+        <v>0.09937000083869567</v>
       </c>
       <c r="B37">
-        <v>-1.075111964794138</v>
+        <v>-0.9385147365299555</v>
       </c>
       <c r="C37">
-        <v>-0.6993207530186695</v>
+        <v>-0.901349277414266</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.4314658121061765</v>
+        <v>1.680695694346408</v>
       </c>
       <c r="B38">
-        <v>-1.428112233168906</v>
+        <v>-1.445973949935403</v>
       </c>
       <c r="C38">
-        <v>0.6997623268415827</v>
+        <v>0.2604108609017065</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.5674095796087525</v>
+        <v>1.320790205108371</v>
       </c>
       <c r="B39">
-        <v>-0.979833009338289</v>
+        <v>-1.17863541109842</v>
       </c>
       <c r="C39">
-        <v>0.8348972968715974</v>
+        <v>0.5788553354073702</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2294188100490733</v>
+        <v>-1.201619911768972</v>
       </c>
       <c r="B40">
-        <v>-0.3535380935942956</v>
+        <v>0.06771883485024491</v>
       </c>
       <c r="C40">
-        <v>-1.8708911684704</v>
+        <v>-1.910248603318752</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.3819029747663</v>
+        <v>-0.2172142266390296</v>
       </c>
       <c r="B41">
-        <v>-0.6144345920929073</v>
+        <v>-0.5519915190931537</v>
       </c>
       <c r="C41">
-        <v>-0.3222270300089182</v>
+        <v>-0.4452463003226629</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.129768510469137</v>
+        <v>0.2479639369907957</v>
       </c>
       <c r="B42">
-        <v>-0.694094693234336</v>
+        <v>-0.6573665348211374</v>
       </c>
       <c r="C42">
-        <v>-0.03034790019835727</v>
+        <v>-0.2024120644075007</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.364665803419244</v>
+        <v>2.371916894197021</v>
       </c>
       <c r="B43">
-        <v>-1.893391683534583</v>
+        <v>-1.550379962323617</v>
       </c>
       <c r="C43">
-        <v>-0.5385917906620256</v>
+        <v>-0.9633775204346544</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.9308323989752627</v>
+        <v>-0.7205189149293018</v>
       </c>
       <c r="B2">
-        <v>-0.9403309567215572</v>
+        <v>-1.097417371438038</v>
       </c>
       <c r="C2">
-        <v>0.104902687903722</v>
+        <v>-0.0004039118642277812</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.2636924787115943</v>
+        <v>-0.6679223555624854</v>
       </c>
       <c r="B3">
-        <v>-0.7163026799659983</v>
+        <v>-0.7774325333942438</v>
       </c>
       <c r="C3">
-        <v>0.4536649631904012</v>
+        <v>0.3729979504032365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-3.112357076803705</v>
+        <v>-1.573340759528464</v>
       </c>
       <c r="B4">
-        <v>-1.37480348805178</v>
+        <v>-1.96504343639207</v>
       </c>
       <c r="C4">
-        <v>-0.5321061501732101</v>
+        <v>-0.8070625157211722</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.6897190280411656</v>
+        <v>-0.4302924510786174</v>
       </c>
       <c r="B5">
-        <v>-0.8113651000372519</v>
+        <v>-0.5852568818924486</v>
       </c>
       <c r="C5">
-        <v>0.6828552476015295</v>
+        <v>0.7953879632775734</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.9651241784304823</v>
+        <v>-1.169237935898024</v>
       </c>
       <c r="B6">
-        <v>-1.275097800704461</v>
+        <v>-1.341723420551052</v>
       </c>
       <c r="C6">
-        <v>0.5380897647874442</v>
+        <v>0.7037885760604254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.6513913130498654</v>
+        <v>0.3822263017300939</v>
       </c>
       <c r="B7">
-        <v>-0.1921164106686183</v>
+        <v>0.1076306484201368</v>
       </c>
       <c r="C7">
-        <v>1.75024420069731</v>
+        <v>1.662673679247383</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-2.298225447052099</v>
+        <v>-1.222782057120909</v>
       </c>
       <c r="B8">
-        <v>-1.035441485339736</v>
+        <v>-1.497602483422786</v>
       </c>
       <c r="C8">
-        <v>-0.9098223801164803</v>
+        <v>-1.087189720906534</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.02006321719761165</v>
+        <v>-1.003636254120577</v>
       </c>
       <c r="B9">
-        <v>-1.140340245661418</v>
+        <v>-1.103566748990757</v>
       </c>
       <c r="C9">
-        <v>0.2427752759395852</v>
+        <v>0.4258780587008742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.705039983509349</v>
+        <v>-1.500538785680753</v>
       </c>
       <c r="B10">
-        <v>-1.572003427539579</v>
+        <v>-1.81287391523877</v>
       </c>
       <c r="C10">
-        <v>-0.5449175638082395</v>
+        <v>-0.4199634669777235</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4392032809968676</v>
+        <v>-0.09841713545344136</v>
       </c>
       <c r="B11">
-        <v>-0.3687847206627036</v>
+        <v>-0.1956296284136934</v>
       </c>
       <c r="C11">
-        <v>0.9741799635517172</v>
+        <v>0.9635947053329266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.1602001308152451</v>
+        <v>-0.8036975145953871</v>
       </c>
       <c r="B12">
-        <v>-1.331379845787561</v>
+        <v>-1.133709120376286</v>
       </c>
       <c r="C12">
-        <v>1.104536862421888</v>
+        <v>1.336465939351672</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.7302248160343396</v>
+        <v>0.9555471760513241</v>
       </c>
       <c r="B13">
-        <v>0.7363545043286895</v>
+        <v>0.924980195685702</v>
       </c>
       <c r="C13">
-        <v>1.574861160203613</v>
+        <v>1.350666017195219</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.2260536090047983</v>
+        <v>-0.5575039913043388</v>
       </c>
       <c r="B14">
-        <v>-0.8879882628341675</v>
+        <v>-0.7515138285564953</v>
       </c>
       <c r="C14">
-        <v>0.8276657688206016</v>
+        <v>0.8720432905243146</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4384532620576534</v>
+        <v>-0.8165045275110074</v>
       </c>
       <c r="B15">
-        <v>-0.7546752329060701</v>
+        <v>-0.6885174075674543</v>
       </c>
       <c r="C15">
-        <v>0.02902379304133955</v>
+        <v>0.1217087579807079</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.7328454482320803</v>
+        <v>0.1765273086739721</v>
       </c>
       <c r="B16">
-        <v>-0.3876336736220153</v>
+        <v>-0.1256212456850561</v>
       </c>
       <c r="C16">
-        <v>1.127358150445901</v>
+        <v>1.137231780822115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.685279467734779</v>
+        <v>-0.7611930129958938</v>
       </c>
       <c r="B17">
-        <v>-0.9951086547422693</v>
+        <v>-0.7823568227691756</v>
       </c>
       <c r="C17">
-        <v>0.6472731029954321</v>
+        <v>0.9066935017245109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.349377982298984</v>
+        <v>-0.9035522823474128</v>
       </c>
       <c r="B18">
-        <v>-1.049453973423839</v>
+        <v>-0.9548633511359295</v>
       </c>
       <c r="C18">
-        <v>1.262161941796621</v>
+        <v>1.621692830673296</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.03282968926565242</v>
+        <v>-0.8881676605301601</v>
       </c>
       <c r="B19">
-        <v>-1.187136026539947</v>
+        <v>-1.113518017807773</v>
       </c>
       <c r="C19">
-        <v>0.2719290252747463</v>
+        <v>0.3962559312727746</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.5632882015560544</v>
+        <v>-0.4061640182655342</v>
       </c>
       <c r="B20">
-        <v>-0.5053426092493092</v>
+        <v>-0.3971339570399355</v>
       </c>
       <c r="C20">
-        <v>0.3616848834756693</v>
+        <v>0.4510916866279975</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.3387869565095181</v>
+        <v>-0.448825146123812</v>
       </c>
       <c r="B21">
-        <v>-1.074470447674201</v>
+        <v>-0.8685321600676128</v>
       </c>
       <c r="C21">
-        <v>0.8362246520048692</v>
+        <v>1.027691497044011</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4886163132327885</v>
+        <v>-0.2359005635308165</v>
       </c>
       <c r="B22">
-        <v>0.04410114407643646</v>
+        <v>0.09352961870478989</v>
       </c>
       <c r="C22">
-        <v>-1.268620538405483</v>
+        <v>-1.144858479265888</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.1478665956488369</v>
+        <v>-0.9133773224897122</v>
       </c>
       <c r="B23">
-        <v>-0.3207351836711367</v>
+        <v>-0.4579389362665143</v>
       </c>
       <c r="C23">
-        <v>-1.757390665493517</v>
+        <v>-1.725664585118878</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.4002552034241245</v>
+        <v>0.3229493742245358</v>
       </c>
       <c r="B24">
-        <v>0.4752318079835185</v>
+        <v>0.5606135442960144</v>
       </c>
       <c r="C24">
-        <v>-0.8997662346185968</v>
+        <v>-0.8499811803627533</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.557829246503563</v>
+        <v>-0.1438871832796355</v>
       </c>
       <c r="B25">
-        <v>0.3202945173930307</v>
+        <v>0.4337256544673487</v>
       </c>
       <c r="C25">
-        <v>-1.116510761789581</v>
+        <v>-0.9622575035894192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.2776125109514376</v>
+        <v>-0.750857188386118</v>
       </c>
       <c r="B26">
-        <v>-0.156468639808261</v>
+        <v>-0.1667885318320663</v>
       </c>
       <c r="C26">
-        <v>-2.03525878811923</v>
+        <v>-2.023850182548788</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.9797597250980551</v>
+        <v>-0.6640592362645045</v>
       </c>
       <c r="B27">
-        <v>0.0833666170535043</v>
+        <v>-0.08540368541046317</v>
       </c>
       <c r="C27">
-        <v>-2.185541530938628</v>
+        <v>-2.205169996004416</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5416215507428555</v>
+        <v>-0.5409194358869597</v>
       </c>
       <c r="B28">
-        <v>-0.08399268543204605</v>
+        <v>0.01435494597285004</v>
       </c>
       <c r="C28">
-        <v>-1.609325570381734</v>
+        <v>-1.519019597593698</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.8030295127057061</v>
+        <v>-0.4651230487780035</v>
       </c>
       <c r="B29">
-        <v>0.009886239417308472</v>
+        <v>0.1295790645331506</v>
       </c>
       <c r="C29">
-        <v>-1.165313644220907</v>
+        <v>-1.049264487817488</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.432519597264277</v>
+        <v>0.3693575824615101</v>
       </c>
       <c r="B30">
-        <v>0.6911049398357428</v>
+        <v>0.8397584053646637</v>
       </c>
       <c r="C30">
-        <v>-0.2852659747612316</v>
+        <v>-0.2127165705072074</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.8103846730602898</v>
+        <v>1.036808965872487</v>
       </c>
       <c r="B31">
-        <v>0.6543369305363815</v>
+        <v>0.8325858038951384</v>
       </c>
       <c r="C31">
-        <v>0.174118478518951</v>
+        <v>0.2241841550977348</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.512973400040882</v>
+        <v>0.67153007055378</v>
       </c>
       <c r="B32">
-        <v>0.8912900405327531</v>
+        <v>1.004118227965313</v>
       </c>
       <c r="C32">
-        <v>0.07750892641032256</v>
+        <v>0.09476585917911697</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.351670554978321</v>
+        <v>1.15431449736197</v>
       </c>
       <c r="B33">
-        <v>1.349617395622455</v>
+        <v>1.288303011574453</v>
       </c>
       <c r="C33">
-        <v>0.4199947716735679</v>
+        <v>0.2753044662097545</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.219368770040005</v>
+        <v>0.9791097887435191</v>
       </c>
       <c r="B34">
-        <v>1.119847802782891</v>
+        <v>1.079198108756089</v>
       </c>
       <c r="C34">
-        <v>-0.314748826498102</v>
+        <v>-0.3150747365710578</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.8795069466226336</v>
+        <v>2.418636238399346</v>
       </c>
       <c r="B35">
-        <v>1.839053668477105</v>
+        <v>1.519817939126196</v>
       </c>
       <c r="C35">
-        <v>1.235315566300088</v>
+        <v>0.7581356664826575</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.04032418064698225</v>
+        <v>1.642773474637818</v>
       </c>
       <c r="B36">
-        <v>1.783008220179244</v>
+        <v>1.643037449469509</v>
       </c>
       <c r="C36">
-        <v>0.5649377252030332</v>
+        <v>0.3242779662795226</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.9385675278346811</v>
+        <v>1.086944188340768</v>
       </c>
       <c r="B37">
-        <v>0.9783743751577937</v>
+        <v>1.044066280308074</v>
       </c>
       <c r="C37">
-        <v>0.1488194963071404</v>
+        <v>0.1267097092975033</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2583943536899339</v>
+        <v>1.61179631285195</v>
       </c>
       <c r="B38">
-        <v>1.528390479489874</v>
+        <v>1.438473835965536</v>
       </c>
       <c r="C38">
-        <v>0.5348350971532214</v>
+        <v>0.3274027486494542</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9695252353865577</v>
+        <v>1.228336603900351</v>
       </c>
       <c r="B39">
-        <v>1.279392571541491</v>
+        <v>1.28407493927686</v>
       </c>
       <c r="C39">
-        <v>0.47905702628515</v>
+        <v>0.3450727022533981</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.003455373947237</v>
+        <v>-0.5778299415139039</v>
       </c>
       <c r="B40">
-        <v>0.1711583325154511</v>
+        <v>-0.07993825411343879</v>
       </c>
       <c r="C40">
-        <v>-1.923498930946667</v>
+        <v>-2.019752291683321</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.02048863307647789</v>
+        <v>0.9641189102562991</v>
       </c>
       <c r="B41">
-        <v>1.310847441965158</v>
+        <v>1.143106561860023</v>
       </c>
       <c r="C41">
-        <v>-0.6829822550582089</v>
+        <v>-0.7387670970545339</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.3905049177979341</v>
+        <v>1.821195679022402</v>
       </c>
       <c r="B42">
-        <v>1.441118146764355</v>
+        <v>1.315032251015504</v>
       </c>
       <c r="C42">
-        <v>0.6113606368070772</v>
+        <v>0.4093693098327858</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.378527324509308</v>
+        <v>1.442076250093655</v>
       </c>
       <c r="B43">
-        <v>1.454196375390743</v>
+        <v>1.286395251704707</v>
       </c>
       <c r="C43">
-        <v>0.1956906465188763</v>
+        <v>0.04991157406614156</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-2.964335173306723</v>
+        <v>2.260188479720656</v>
       </c>
       <c r="B2">
-        <v>-2.068150073127186</v>
+        <v>2.581629447840052</v>
       </c>
       <c r="C2">
-        <v>2.024284574676992</v>
+        <v>-1.930420392192531</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-2.351421841921467</v>
+        <v>2.226135170981471</v>
       </c>
       <c r="B3">
-        <v>-2.082866469462773</v>
+        <v>2.333813379015201</v>
       </c>
       <c r="C3">
-        <v>1.229427920126537</v>
+        <v>-0.7812986791963072</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-2.808426377405036</v>
+        <v>1.749957525855786</v>
       </c>
       <c r="B4">
-        <v>-0.831076112080755</v>
+        <v>1.91600134647509</v>
       </c>
       <c r="C4">
-        <v>0.9609745369967349</v>
+        <v>-1.112451467483753</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.08637814839721696</v>
+        <v>0.3912057367427618</v>
       </c>
       <c r="B5">
-        <v>-0.7119151456280581</v>
+        <v>0.3032886334474162</v>
       </c>
       <c r="C5">
-        <v>-1.236695798667021</v>
+        <v>1.385396624569958</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.4036417477049951</v>
+        <v>0.7432974041624844</v>
       </c>
       <c r="B6">
-        <v>-1.154321897203666</v>
+        <v>0.757738773660742</v>
       </c>
       <c r="C6">
-        <v>-1.418215800172985</v>
+        <v>1.628279926878305</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2987169890113638</v>
+        <v>0.06584847417560157</v>
       </c>
       <c r="B7">
-        <v>-0.5527062364607641</v>
+        <v>0.1679701601674997</v>
       </c>
       <c r="C7">
-        <v>-0.6559868755892895</v>
+        <v>0.7825012086427582</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.8786700536315204</v>
+        <v>0.9580313703088553</v>
       </c>
       <c r="B8">
-        <v>-1.07443598470482</v>
+        <v>1.221455673434209</v>
       </c>
       <c r="C8">
-        <v>1.537173338935958</v>
+        <v>-1.15369282464752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.5037087736286403</v>
+        <v>1.384344320210083</v>
       </c>
       <c r="B9">
-        <v>-1.480749570902813</v>
+        <v>1.28699910611371</v>
       </c>
       <c r="C9">
-        <v>1.153832969177466</v>
+        <v>-0.6452539619536491</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.850716338546469</v>
+        <v>1.850530654549795</v>
       </c>
       <c r="B10">
-        <v>-1.854954055241963</v>
+        <v>2.03788955304854</v>
       </c>
       <c r="C10">
-        <v>1.300778475170148</v>
+        <v>-0.823770872499122</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.6049871337685733</v>
+        <v>-0.2423094784416423</v>
       </c>
       <c r="B11">
-        <v>0.02124648683433026</v>
+        <v>-0.1891050947878884</v>
       </c>
       <c r="C11">
-        <v>-0.3506025769721185</v>
+        <v>0.3394714935126287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3128134301750157</v>
+        <v>0.168635362083816</v>
       </c>
       <c r="B12">
-        <v>-0.6959102701141027</v>
+        <v>0.426018130570135</v>
       </c>
       <c r="C12">
-        <v>-1.65644825554142</v>
+        <v>1.609154060679001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.5826386008062451</v>
+        <v>-0.9892321400945688</v>
       </c>
       <c r="B13">
-        <v>0.374702877559792</v>
+        <v>-0.4294389841815826</v>
       </c>
       <c r="C13">
-        <v>0.08234131400538655</v>
+        <v>-0.1259174463725725</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.1877672049876187</v>
+        <v>0.2636944292022689</v>
       </c>
       <c r="B14">
-        <v>-0.6867256010457965</v>
+        <v>0.2705508303385175</v>
       </c>
       <c r="C14">
-        <v>-0.4710499673238575</v>
+        <v>0.6765045361809967</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4075668412015553</v>
+        <v>0.3069327303183391</v>
       </c>
       <c r="B15">
-        <v>-0.3900674157940031</v>
+        <v>0.3683965447329727</v>
       </c>
       <c r="C15">
-        <v>0.8503861099222848</v>
+        <v>-0.648791825794698</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.4877180561084342</v>
+        <v>0.1672017120506753</v>
       </c>
       <c r="B16">
-        <v>-0.4464989493230888</v>
+        <v>0.1215745135624443</v>
       </c>
       <c r="C16">
-        <v>-2.022971137228759</v>
+        <v>2.035506930371334</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.5964367388752793</v>
+        <v>-0.7614602394609057</v>
       </c>
       <c r="B17">
-        <v>0.2587598958705395</v>
+        <v>-0.4229570161879862</v>
       </c>
       <c r="C17">
-        <v>-0.7699988566613151</v>
+        <v>0.5996530241888973</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.5929522242103752</v>
+        <v>0.2177652898022361</v>
       </c>
       <c r="B18">
-        <v>-0.7590252657207431</v>
+        <v>0.4328060176512326</v>
       </c>
       <c r="C18">
-        <v>-2.167931276860248</v>
+        <v>2.183228900554909</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.4004028492339639</v>
+        <v>0.5151997645054065</v>
       </c>
       <c r="B19">
-        <v>-0.9708021973593203</v>
+        <v>0.7502982047254063</v>
       </c>
       <c r="C19">
-        <v>-0.607599091557717</v>
+        <v>0.7569566346334115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.389960794988123</v>
+        <v>1.467774199338592</v>
       </c>
       <c r="B20">
-        <v>-1.434037032393396</v>
+        <v>1.2676855475918</v>
       </c>
       <c r="C20">
-        <v>-1.710364809389081</v>
+        <v>2.133283876410144</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.7671818509977085</v>
+        <v>1.130998649519996</v>
       </c>
       <c r="B21">
-        <v>-1.179500841946012</v>
+        <v>0.8818707568334789</v>
       </c>
       <c r="C21">
-        <v>-1.602572604381341</v>
+        <v>1.881581011199949</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3241839646076433</v>
+        <v>0.3823541653724494</v>
       </c>
       <c r="B22">
-        <v>-0.1188002293110205</v>
+        <v>0.0430874872899521</v>
       </c>
       <c r="C22">
-        <v>1.219562528636295</v>
+        <v>-1.072597558924599</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.044540127548299</v>
+        <v>-0.1439070801049225</v>
       </c>
       <c r="B23">
-        <v>0.6643690395542919</v>
+        <v>-0.6259022388165605</v>
       </c>
       <c r="C23">
-        <v>-0.3999444643624904</v>
+        <v>0.1824004489992281</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.4525188966021557</v>
+        <v>-0.2406780572198425</v>
       </c>
       <c r="B24">
-        <v>0.7537389137748071</v>
+        <v>-0.5247728141694644</v>
       </c>
       <c r="C24">
-        <v>1.0613836457046</v>
+        <v>-1.119472700415512</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0006425514155253568</v>
+        <v>0.0300782964906776</v>
       </c>
       <c r="B25">
-        <v>0.306320176038327</v>
+        <v>-0.3400900638162054</v>
       </c>
       <c r="C25">
-        <v>0.1259594501243133</v>
+        <v>-0.1788452528985719</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2658926277666525</v>
+        <v>0.05255842653453743</v>
       </c>
       <c r="B26">
-        <v>0.3992242846278106</v>
+        <v>-0.3251157812696348</v>
       </c>
       <c r="C26">
-        <v>0.1821331123544779</v>
+        <v>-0.277508883049492</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.3578957827291167</v>
+        <v>0.4386673108695463</v>
       </c>
       <c r="B27">
-        <v>0.1168574788073119</v>
+        <v>0.04127530433045208</v>
       </c>
       <c r="C27">
-        <v>1.502550807333249</v>
+        <v>-1.425741538878635</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.596721482608338</v>
+        <v>-0.2728349835492624</v>
       </c>
       <c r="B28">
-        <v>0.4329045517677018</v>
+        <v>-0.5504096361714974</v>
       </c>
       <c r="C28">
-        <v>-0.1190833613159951</v>
+        <v>0.04624755982830718</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.8068292207404512</v>
+        <v>-0.1837268456843684</v>
       </c>
       <c r="B29">
-        <v>0.6514439106118181</v>
+        <v>-0.5825007831085427</v>
       </c>
       <c r="C29">
-        <v>0.665429759542513</v>
+        <v>-0.7198785735025305</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.5048505952069755</v>
+        <v>-0.7180069165135196</v>
       </c>
       <c r="B30">
-        <v>0.9790756921670022</v>
+        <v>-0.8622432866643613</v>
       </c>
       <c r="C30">
-        <v>-0.1734693486974521</v>
+        <v>-0.06834464650687606</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7664379453344348</v>
+        <v>-1.356657288464808</v>
       </c>
       <c r="B31">
-        <v>1.095000622185591</v>
+        <v>-0.9897415009194366</v>
       </c>
       <c r="C31">
-        <v>-0.06444133987956994</v>
+        <v>-0.1746826798368835</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.9305321592361568</v>
+        <v>-0.9601799482926165</v>
       </c>
       <c r="B32">
-        <v>1.019342171015619</v>
+        <v>-0.9668321561346512</v>
       </c>
       <c r="C32">
-        <v>0.0227275234027987</v>
+        <v>-0.2254211827011707</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.9645899098557305</v>
+        <v>-1.112479130711174</v>
       </c>
       <c r="B33">
-        <v>1.0810769096355</v>
+        <v>-0.9924956983747908</v>
       </c>
       <c r="C33">
-        <v>0.07501887999376153</v>
+        <v>-0.2906291975282678</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8356297447093869</v>
+        <v>-1.338493057287624</v>
       </c>
       <c r="B34">
-        <v>1.207606347367443</v>
+        <v>-1.090016336511803</v>
       </c>
       <c r="C34">
-        <v>-0.09614546781404418</v>
+        <v>-0.1833476425919504</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.7294301204700397</v>
+        <v>-1.539434464844061</v>
       </c>
       <c r="B35">
-        <v>1.249647532235352</v>
+        <v>-1.121335209359198</v>
       </c>
       <c r="C35">
-        <v>-0.1589602543998868</v>
+        <v>-0.1419104557474067</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.7968258383282639</v>
+        <v>-0.740126722525749</v>
       </c>
       <c r="B36">
-        <v>0.8304403576239996</v>
+        <v>-0.7422198691153965</v>
       </c>
       <c r="C36">
-        <v>0.631882391740836</v>
+        <v>-0.711516496165565</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.8266096233992269</v>
+        <v>-0.7239901279339677</v>
       </c>
       <c r="B37">
-        <v>0.9334450724003949</v>
+        <v>-0.8408887088343203</v>
       </c>
       <c r="C37">
-        <v>0.4532067036083045</v>
+        <v>-0.5687864355215005</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.8440834773236106</v>
+        <v>-1.004776708079711</v>
       </c>
       <c r="B38">
-        <v>1.062012332341548</v>
+        <v>-0.9966220216638273</v>
       </c>
       <c r="C38">
-        <v>-0.00926385965874631</v>
+        <v>-0.2173842964155298</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9117495223271653</v>
+        <v>-1.26238129552566</v>
       </c>
       <c r="B39">
-        <v>1.185496229730617</v>
+        <v>-1.068507295846197</v>
       </c>
       <c r="C39">
-        <v>-0.02201677631412005</v>
+        <v>-0.2369045904398983</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.4026882315977624</v>
+        <v>-0.08030600215845815</v>
       </c>
       <c r="B40">
-        <v>0.7648288472608438</v>
+        <v>-0.6508196850805926</v>
       </c>
       <c r="C40">
-        <v>0.644126288119823</v>
+        <v>-0.7505818231903612</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.7995201547015739</v>
+        <v>-0.7348940455408327</v>
       </c>
       <c r="B41">
-        <v>0.9734145948948041</v>
+        <v>-0.8594651878151103</v>
       </c>
       <c r="C41">
-        <v>0.4904910035919998</v>
+        <v>-0.628028938672324</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8819323229848275</v>
+        <v>-0.9640464105949106</v>
       </c>
       <c r="B42">
-        <v>0.8496372847533781</v>
+        <v>-0.9051691007989399</v>
       </c>
       <c r="C42">
-        <v>-0.40051126501139</v>
+        <v>0.1727553905143802</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.7919014175699073</v>
+        <v>-1.40147852976745</v>
       </c>
       <c r="B43">
-        <v>1.281951738761461</v>
+        <v>-1.133700941200863</v>
       </c>
       <c r="C43">
-        <v>-0.09939814536563195</v>
+        <v>-0.1997412640369816</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-2.484249907239396</v>
+        <v>2.450710408157238</v>
       </c>
       <c r="B2">
-        <v>1.908649136963724</v>
+        <v>2.37014463959622</v>
       </c>
       <c r="C2">
-        <v>2.653692182087006</v>
+        <v>-2.145249130938343</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-2.469408704910374</v>
+        <v>2.061711190858122</v>
       </c>
       <c r="B3">
-        <v>1.536490645951754</v>
+        <v>2.021448514946449</v>
       </c>
       <c r="C3">
-        <v>3.103564538832028</v>
+        <v>-2.752026837336435</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-3.303867792284927</v>
+        <v>2.951887605481718</v>
       </c>
       <c r="B4">
-        <v>2.517004378166664</v>
+        <v>3.100306248004502</v>
       </c>
       <c r="C4">
-        <v>2.533157772100451</v>
+        <v>-2.138370951034974</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.5020249174247413</v>
+        <v>0.6028953573257649</v>
       </c>
       <c r="B5">
-        <v>1.12530583944429</v>
+        <v>0.804160584767271</v>
       </c>
       <c r="C5">
-        <v>-0.7970246862685829</v>
+        <v>1.060454542173974</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-1.248698296000113</v>
+        <v>0.7948140241385978</v>
       </c>
       <c r="B6">
-        <v>1.431694627161703</v>
+        <v>1.106928374160072</v>
       </c>
       <c r="C6">
-        <v>-2.025188757288442</v>
+        <v>2.294344514776633</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1792184151942944</v>
+        <v>-0.1364404146264938</v>
       </c>
       <c r="B7">
-        <v>0.1186797372322833</v>
+        <v>-0.07559231705265324</v>
       </c>
       <c r="C7">
-        <v>-1.034202395412389</v>
+        <v>0.9556730947682887</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.04965739460696162</v>
+        <v>0.8381241471048391</v>
       </c>
       <c r="B8">
-        <v>0.4545615609202169</v>
+        <v>0.484368662704239</v>
       </c>
       <c r="C8">
-        <v>0.03483913303767962</v>
+        <v>0.05656024036246172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.09896084629091056</v>
+        <v>0.001589072021694002</v>
       </c>
       <c r="B9">
-        <v>0.1704522114130129</v>
+        <v>0.1712069774939609</v>
       </c>
       <c r="C9">
-        <v>0.2658731126495872</v>
+        <v>-0.1824617582544131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.06449126688867882</v>
+        <v>-0.1247647141688198</v>
       </c>
       <c r="B10">
-        <v>0.3908290730253277</v>
+        <v>0.133986475023285</v>
       </c>
       <c r="C10">
-        <v>-1.047867664125804</v>
+        <v>1.053970991220797</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.8257215015242835</v>
+        <v>-1.00025173848894</v>
       </c>
       <c r="B11">
-        <v>-0.3421693091723398</v>
+        <v>-0.5056348846652511</v>
       </c>
       <c r="C11">
-        <v>-0.497873131164172</v>
+        <v>0.39078148639724</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.2266210629263906</v>
+        <v>-0.4253862125028788</v>
       </c>
       <c r="B12">
-        <v>0.1945543227574475</v>
+        <v>-0.04506269533263488</v>
       </c>
       <c r="C12">
-        <v>-0.8681997906896396</v>
+        <v>0.8321444405215078</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.2106148272934331</v>
+        <v>-0.1848549323653726</v>
       </c>
       <c r="B13">
-        <v>0.2762802021854139</v>
+        <v>0.05993473924920681</v>
       </c>
       <c r="C13">
-        <v>-0.3710898504397375</v>
+        <v>0.4095356392633214</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.153656579820835</v>
+        <v>0.8598110568689128</v>
       </c>
       <c r="B14">
-        <v>1.549822781279232</v>
+        <v>1.247728275541155</v>
       </c>
       <c r="C14">
-        <v>-0.8913253478766707</v>
+        <v>1.258842584790021</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.5368081140666541</v>
+        <v>-0.5685602471515828</v>
       </c>
       <c r="B15">
-        <v>-0.2134896967974298</v>
+        <v>-0.3226985303180682</v>
       </c>
       <c r="C15">
-        <v>-0.3470995866961242</v>
+        <v>0.2618996035063152</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4023394605676658</v>
+        <v>-0.0322891267455663</v>
       </c>
       <c r="B16">
-        <v>0.4021901536274003</v>
+        <v>0.06517713338346999</v>
       </c>
       <c r="C16">
-        <v>-1.095857549018923</v>
+        <v>1.090042069586464</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.09594043874904613</v>
+        <v>-0.03211015002030387</v>
       </c>
       <c r="B17">
-        <v>0.3822062278401613</v>
+        <v>0.154951797620033</v>
       </c>
       <c r="C17">
-        <v>-0.7305543975253891</v>
+        <v>0.7575204169934892</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.716905136334001</v>
+        <v>1.950530764993643</v>
       </c>
       <c r="B18">
-        <v>2.10211691265528</v>
+        <v>1.955185222333989</v>
       </c>
       <c r="C18">
-        <v>-1.477979302015454</v>
+        <v>1.89310826129455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.116809926549281</v>
+        <v>0.1141317202908082</v>
       </c>
       <c r="B19">
-        <v>0.3768081973335719</v>
+        <v>0.1459955967787687</v>
       </c>
       <c r="C19">
-        <v>-0.3721695941732841</v>
+        <v>0.4434568722705871</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.554474429230381</v>
+        <v>1.549633717659152</v>
       </c>
       <c r="B20">
-        <v>1.742972279973994</v>
+        <v>1.635121762347718</v>
       </c>
       <c r="C20">
-        <v>-0.6924310063399997</v>
+        <v>1.11197378921005</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.7979656260863293</v>
+        <v>0.9196737997964551</v>
       </c>
       <c r="B21">
-        <v>1.061134039892262</v>
+        <v>0.8356728527318275</v>
       </c>
       <c r="C21">
-        <v>-1.527911550755011</v>
+        <v>1.660107875006307</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4913233306941917</v>
+        <v>-0.1623855452243381</v>
       </c>
       <c r="B22">
-        <v>-0.4437943808470275</v>
+        <v>-0.4982439492177154</v>
       </c>
       <c r="C22">
-        <v>0.05510696501001323</v>
+        <v>-0.1171572948910355</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.1536014755389151</v>
+        <v>0.01504178967489931</v>
       </c>
       <c r="B23">
-        <v>-0.6064834931722916</v>
+        <v>-0.5058228999616216</v>
       </c>
       <c r="C23">
-        <v>-0.04310980495654435</v>
+        <v>-0.1089953476127938</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.6531081841395494</v>
+        <v>-0.1903403432185342</v>
       </c>
       <c r="B24">
-        <v>-0.6280780135979783</v>
+        <v>-0.5710955007075624</v>
       </c>
       <c r="C24">
-        <v>0.5404563970349793</v>
+        <v>-0.6018977716649753</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.01490677628809821</v>
+        <v>0.4114882194941363</v>
       </c>
       <c r="B25">
-        <v>-0.2013559490660118</v>
+        <v>-0.1736745389980926</v>
       </c>
       <c r="C25">
-        <v>0.5925966850828641</v>
+        <v>-0.5557703967868352</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.1733854127400815</v>
+        <v>-0.2788527144951419</v>
       </c>
       <c r="B26">
-        <v>-0.9066705535572319</v>
+        <v>-0.7124184311640795</v>
       </c>
       <c r="C26">
-        <v>0.6978481230192409</v>
+        <v>-0.8480322101154661</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.6283958632726595</v>
+        <v>-0.6067825177958353</v>
       </c>
       <c r="B27">
-        <v>-0.7376179644338727</v>
+        <v>-0.6932484091255499</v>
       </c>
       <c r="C27">
-        <v>0.2969647320202529</v>
+        <v>-0.4112756024343767</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.6246322937754943</v>
+        <v>-0.2790844719427872</v>
       </c>
       <c r="B28">
-        <v>-0.6857644794643719</v>
+        <v>-0.6364314811666856</v>
       </c>
       <c r="C28">
-        <v>0.3178794459375153</v>
+        <v>-0.4275593637363321</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.7385508929554598</v>
+        <v>-0.4631544335291295</v>
       </c>
       <c r="B29">
-        <v>-0.8337148034393251</v>
+        <v>-0.7727697901135986</v>
       </c>
       <c r="C29">
-        <v>0.1980712810058692</v>
+        <v>-0.3496120131366767</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.7054366777450793</v>
+        <v>-0.9658881827042433</v>
       </c>
       <c r="B30">
-        <v>-0.7981270549002015</v>
+        <v>-0.7922373460396648</v>
       </c>
       <c r="C30">
-        <v>0.1267803176622219</v>
+        <v>-0.2705511041890203</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.743571553637719</v>
+        <v>-0.7892378840143142</v>
       </c>
       <c r="B31">
-        <v>-0.7203331529085845</v>
+        <v>-0.667627488932853</v>
       </c>
       <c r="C31">
-        <v>0.4408573460807877</v>
+        <v>-0.5333535952404089</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.7744454662615485</v>
+        <v>-1.157464618652153</v>
       </c>
       <c r="B32">
-        <v>-0.8710142098654533</v>
+        <v>-0.8853146147358528</v>
       </c>
       <c r="C32">
-        <v>-0.1925029118539736</v>
+        <v>-0.00684576626562852</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6962919206610447</v>
+        <v>-1.375166719112024</v>
       </c>
       <c r="B33">
-        <v>-0.8943255268474557</v>
+        <v>-0.8871288567913193</v>
       </c>
       <c r="C33">
-        <v>-0.1305584370413748</v>
+        <v>-0.06497409282671529</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7831982084343619</v>
+        <v>-1.43497864419932</v>
       </c>
       <c r="B34">
-        <v>-0.8298187797471764</v>
+        <v>-0.8610038064341498</v>
       </c>
       <c r="C34">
-        <v>-0.1808760790610822</v>
+        <v>-0.003556579550627391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.7716517205127248</v>
+        <v>-0.9400463182038408</v>
       </c>
       <c r="B35">
-        <v>-0.7503568804494718</v>
+        <v>-0.7399810056255886</v>
       </c>
       <c r="C35">
-        <v>0.1287146045263087</v>
+        <v>-0.2565642279879738</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.3841886584038884</v>
+        <v>-0.2810726460572743</v>
       </c>
       <c r="B36">
-        <v>-0.6621193620982847</v>
+        <v>-0.452347275173253</v>
       </c>
       <c r="C36">
-        <v>0.671472772259176</v>
+        <v>-0.7493895833245185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.7175088212365781</v>
+        <v>-0.6193522265129252</v>
       </c>
       <c r="B37">
-        <v>-0.8867479569126294</v>
+        <v>-0.7553630364820659</v>
       </c>
       <c r="C37">
-        <v>0.0738290101324902</v>
+        <v>-0.2695172091148568</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.6330258510527031</v>
+        <v>-0.675098267074309</v>
       </c>
       <c r="B38">
-        <v>-1.073005201710671</v>
+        <v>-0.8910465040625934</v>
       </c>
       <c r="C38">
-        <v>0.1409472077495576</v>
+        <v>-0.37812119573089</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.6965687119283562</v>
+        <v>-0.8132265872329918</v>
       </c>
       <c r="B39">
-        <v>-1.020626686731036</v>
+        <v>-0.8700165764000753</v>
       </c>
       <c r="C39">
-        <v>0.1711964809854244</v>
+        <v>-0.3786255185422551</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3307582346423682</v>
+        <v>0.07937082818718827</v>
       </c>
       <c r="B40">
-        <v>-0.8981850127071849</v>
+        <v>-0.5997073026287943</v>
       </c>
       <c r="C40">
-        <v>0.7894025110297795</v>
+        <v>-0.9320253399538612</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.4440518701217706</v>
+        <v>-0.3156624660601048</v>
       </c>
       <c r="B41">
-        <v>-0.9849625030315516</v>
+        <v>-0.7443528632311762</v>
       </c>
       <c r="C41">
-        <v>0.4410296295055761</v>
+        <v>-0.631320546983749</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.6920320098329135</v>
+        <v>-0.736965332894601</v>
       </c>
       <c r="B42">
-        <v>-0.9117809785351286</v>
+        <v>-0.8026781806580292</v>
       </c>
       <c r="C42">
-        <v>0.07543645370999151</v>
+        <v>-0.2739437244753574</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.8017315237892763</v>
+        <v>-1.011996247059302</v>
       </c>
       <c r="B43">
-        <v>-0.8412103778310279</v>
+        <v>-0.8308195716632377</v>
       </c>
       <c r="C43">
-        <v>-0.02589485875620457</v>
+        <v>-0.143219260013488</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.171558795810901</v>
+        <v>0.1493866774591431</v>
       </c>
       <c r="B2">
-        <v>0.5400352773671007</v>
+        <v>-0.5476281765236127</v>
       </c>
       <c r="C2">
-        <v>-0.485526054581485</v>
+        <v>-0.1754376527590837</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.368397986799037</v>
+        <v>0.9205581241849333</v>
       </c>
       <c r="B3">
-        <v>1.784572451752519</v>
+        <v>-1.856127150821456</v>
       </c>
       <c r="C3">
-        <v>-1.15104405649517</v>
+        <v>-0.6925072061730291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.3894718480360944</v>
+        <v>1.186370717754551</v>
       </c>
       <c r="B4">
-        <v>1.576039291778892</v>
+        <v>-1.711891610055639</v>
       </c>
       <c r="C4">
-        <v>-0.6210242226974027</v>
+        <v>-0.5180248081483372</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.146495653887093</v>
+        <v>-0.8728488164304244</v>
       </c>
       <c r="B5">
-        <v>0.06885369301985433</v>
+        <v>-0.04312697321083159</v>
       </c>
       <c r="C5">
-        <v>-1.358774602867737</v>
+        <v>-0.7327415377536156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-2.167160567036135</v>
+        <v>0.2089366167444801</v>
       </c>
       <c r="B6">
-        <v>2.344593436708063</v>
+        <v>-2.052323623693975</v>
       </c>
       <c r="C6">
-        <v>0.1901782337104698</v>
+        <v>1.054862153959068</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.4116921099354959</v>
+        <v>1.614276041611565</v>
       </c>
       <c r="B7">
-        <v>0.8464951011765549</v>
+        <v>-1.058382893854177</v>
       </c>
       <c r="C7">
-        <v>-1.262536742945016</v>
+        <v>-1.274613581714437</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1938358063578083</v>
+        <v>1.363670602149337</v>
       </c>
       <c r="B8">
-        <v>1.36456534197593</v>
+        <v>-1.345355732664151</v>
       </c>
       <c r="C8">
-        <v>-0.03152187108380838</v>
+        <v>-0.1200785737238652</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.1151103320625561</v>
+        <v>-0.8694412886376058</v>
       </c>
       <c r="B9">
-        <v>0.5960864264870607</v>
+        <v>-0.532581320213028</v>
       </c>
       <c r="C9">
-        <v>-0.4703057256072536</v>
+        <v>0.04803990667440387</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6334300807383251</v>
+        <v>0.8632795574809444</v>
       </c>
       <c r="B10">
-        <v>1.449200474484787</v>
+        <v>-1.330722687349508</v>
       </c>
       <c r="C10">
-        <v>0.7668253814847803</v>
+        <v>0.7128133571960348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.307568909684062</v>
+        <v>0.9423305527702872</v>
       </c>
       <c r="B11">
-        <v>0.8747270409256709</v>
+        <v>-0.961726705757357</v>
       </c>
       <c r="C11">
-        <v>0.2565982005964835</v>
+        <v>0.02730774407745947</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.1726500309568414</v>
+        <v>-0.8660468576671799</v>
       </c>
       <c r="B12">
-        <v>-1.038746431365374</v>
+        <v>1.160140889570489</v>
       </c>
       <c r="C12">
-        <v>0.6279328860278928</v>
+        <v>0.7107942851546536</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.49492807850332</v>
+        <v>1.363636285668181</v>
       </c>
       <c r="B13">
-        <v>0.6257044353588181</v>
+        <v>-0.8321111770164376</v>
       </c>
       <c r="C13">
-        <v>-0.8664401810229406</v>
+        <v>-1.061332722318278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.035690619572564</v>
+        <v>1.316289595901868</v>
       </c>
       <c r="B14">
-        <v>0.25466250312011</v>
+        <v>-0.4534422988078096</v>
       </c>
       <c r="C14">
-        <v>-1.26791224565197</v>
+        <v>-1.273042618690074</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.7324136213695256</v>
+        <v>0.2497235012513725</v>
       </c>
       <c r="B15">
-        <v>0.5679370574192506</v>
+        <v>-0.5325940599993697</v>
       </c>
       <c r="C15">
-        <v>0.3019534895327696</v>
+        <v>0.2955848316458866</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.3770748196296866</v>
+        <v>-1.108964164596025</v>
       </c>
       <c r="B16">
-        <v>0.3663664035920507</v>
+        <v>-0.1008659996587251</v>
       </c>
       <c r="C16">
-        <v>0.6040284246221346</v>
+        <v>1.094063447961942</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.1880806842563556</v>
+        <v>-0.2159143410139871</v>
       </c>
       <c r="B17">
-        <v>0.5563867672914767</v>
+        <v>-0.5825011839380975</v>
       </c>
       <c r="C17">
-        <v>0.03844529611772608</v>
+        <v>0.1704781803925374</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7754823221548396</v>
+        <v>-1.461871683906828</v>
       </c>
       <c r="B18">
-        <v>0.09579917956282809</v>
+        <v>0.08611559386695775</v>
       </c>
       <c r="C18">
-        <v>-0.007473944306442242</v>
+        <v>0.6835046507347973</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.128277753069121</v>
+        <v>-0.9639288339538107</v>
       </c>
       <c r="B19">
-        <v>1.076144634231571</v>
+        <v>-0.7700384103949147</v>
       </c>
       <c r="C19">
-        <v>1.794029222535795</v>
+        <v>2.210061905641152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.089730592227475</v>
+        <v>-0.8036019314301885</v>
       </c>
       <c r="B20">
-        <v>1.037709885447931</v>
+        <v>-0.6885909211140507</v>
       </c>
       <c r="C20">
-        <v>0.4587915049699766</v>
+        <v>1.250281212859961</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.935223457279153</v>
+        <v>0.9968269208505495</v>
       </c>
       <c r="B21">
-        <v>0.9079839191088206</v>
+        <v>-0.6837767637463436</v>
       </c>
       <c r="C21">
-        <v>2.234423204424503</v>
+        <v>1.932956023735481</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.493679431490125</v>
+        <v>-0.5930554974219613</v>
       </c>
       <c r="B22">
-        <v>-0.3021459114901653</v>
+        <v>0.347409212298306</v>
       </c>
       <c r="C22">
-        <v>1.096827361877279</v>
+        <v>0.8661686828063848</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5541113462182072</v>
+        <v>-1.573454701965716</v>
       </c>
       <c r="B23">
-        <v>-0.5626277827635202</v>
+        <v>0.8527736479134943</v>
       </c>
       <c r="C23">
-        <v>1.377746592714745</v>
+        <v>1.438583969321694</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-2.091338456412238</v>
+        <v>-0.557695770587421</v>
       </c>
       <c r="B24">
-        <v>-1.151920656652926</v>
+        <v>1.418810112739745</v>
       </c>
       <c r="C24">
-        <v>2.248746914770835</v>
+        <v>1.839025139756322</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.1677958079221733</v>
+        <v>-0.2066182058874838</v>
       </c>
       <c r="B25">
-        <v>-0.7187218707818066</v>
+        <v>0.7623025225179388</v>
       </c>
       <c r="C25">
-        <v>1.241697965417228</v>
+        <v>0.8645651936219306</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2072823887356423</v>
+        <v>0.7324666802032409</v>
       </c>
       <c r="B26">
-        <v>0.4971020433465757</v>
+        <v>-0.6325355701282092</v>
       </c>
       <c r="C26">
-        <v>-0.5303739624037893</v>
+        <v>-0.6391437745562799</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.8605817496314725</v>
+        <v>-1.045634681210497</v>
       </c>
       <c r="B27">
-        <v>-0.8195673458611042</v>
+        <v>0.8779680376846948</v>
       </c>
       <c r="C27">
-        <v>0.2075825678998019</v>
+        <v>0.2262253463978461</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7595645655938595</v>
+        <v>-0.529477791254268</v>
       </c>
       <c r="B28">
-        <v>-0.9665620243373775</v>
+        <v>0.8088521717576683</v>
       </c>
       <c r="C28">
-        <v>-1.169522193251598</v>
+        <v>-1.231198256699384</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.1878901110913885</v>
+        <v>0.9468315930574059</v>
       </c>
       <c r="B29">
-        <v>-0.4557119188811943</v>
+        <v>0.2928609008794811</v>
       </c>
       <c r="C29">
-        <v>1.081786334276352</v>
+        <v>0.3790938267956762</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.188048299571868</v>
+        <v>1.050429634918818</v>
       </c>
       <c r="B30">
-        <v>-0.7286483573662477</v>
+        <v>0.3954976800658571</v>
       </c>
       <c r="C30">
-        <v>-0.9517683918352154</v>
+        <v>-1.29844645488081</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.5942213948562396</v>
+        <v>0.1401342228864151</v>
       </c>
       <c r="B31">
-        <v>-1.005987106701713</v>
+        <v>0.7461125783428642</v>
       </c>
       <c r="C31">
-        <v>-1.158667256551986</v>
+        <v>-1.419731571188596</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.899358590477491</v>
+        <v>1.627951393893458</v>
       </c>
       <c r="B32">
-        <v>0.201329448841417</v>
+        <v>-0.476319335339227</v>
       </c>
       <c r="C32">
-        <v>-0.9397698931460338</v>
+        <v>-1.220149984120395</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.7122736681072486</v>
+        <v>-0.9635337523961934</v>
       </c>
       <c r="B33">
-        <v>-1.277468276812351</v>
+        <v>1.36734276043153</v>
       </c>
       <c r="C33">
-        <v>0.4570179337346733</v>
+        <v>0.3487319834122684</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.2950631207179544</v>
+        <v>-0.5859035579129429</v>
       </c>
       <c r="B34">
-        <v>-1.273422950541367</v>
+        <v>1.330034903272017</v>
       </c>
       <c r="C34">
-        <v>0.6422413175283653</v>
+        <v>0.3067767126446699</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.5785769972913652</v>
+        <v>1.135129134085251</v>
       </c>
       <c r="B35">
-        <v>0.2662429848873005</v>
+        <v>-0.4124337266985125</v>
       </c>
       <c r="C35">
-        <v>0.2279554834731355</v>
+        <v>-0.2645870682775956</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.02805139689572451</v>
+        <v>-1.148877569077449</v>
       </c>
       <c r="B36">
-        <v>-1.511329360348924</v>
+        <v>1.537430013054154</v>
       </c>
       <c r="C36">
-        <v>-0.1319260422789885</v>
+        <v>-0.2283850853568532</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.1292670468587511</v>
+        <v>-1.42350774832716</v>
       </c>
       <c r="B37">
-        <v>-1.60625831343765</v>
+        <v>1.649310333814186</v>
       </c>
       <c r="C37">
-        <v>-0.6737065441900528</v>
+        <v>-0.5907030500418159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.605168039702966</v>
+        <v>0.1587582957456007</v>
       </c>
       <c r="B38">
-        <v>-0.3058220512323719</v>
+        <v>0.1824027119544392</v>
       </c>
       <c r="C38">
-        <v>0.2746292193708372</v>
+        <v>-0.06663176923929848</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.7177333338045007</v>
+        <v>-1.094409311639971</v>
       </c>
       <c r="B39">
-        <v>-1.122008581465026</v>
+        <v>1.145893628115249</v>
       </c>
       <c r="C39">
-        <v>-0.2654750518823991</v>
+        <v>-0.1690819167681809</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.343895957705746</v>
+        <v>-1.062325833431921</v>
       </c>
       <c r="B40">
-        <v>-0.8751462991647212</v>
+        <v>0.9351448594871903</v>
       </c>
       <c r="C40">
-        <v>0.3269129033180611</v>
+        <v>0.2779156302952449</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.354283463994332</v>
+        <v>-1.074698970622768</v>
       </c>
       <c r="B41">
-        <v>-1.662491340035269</v>
+        <v>1.697699111618046</v>
       </c>
       <c r="C41">
-        <v>-1.835956094400247</v>
+        <v>-1.778897476207258</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.1603949567744413</v>
+        <v>0.5853984090568718</v>
       </c>
       <c r="B42">
-        <v>-0.6244342805674024</v>
+        <v>0.5019956325326318</v>
       </c>
       <c r="C42">
-        <v>0.5433197689285963</v>
+        <v>0.01291463242930262</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.290626011690879</v>
+        <v>1.469426751697502</v>
       </c>
       <c r="B43">
-        <v>0.1104830619219271</v>
+        <v>-0.4910209809315059</v>
       </c>
       <c r="C43">
-        <v>-1.819945130132903</v>
+        <v>-1.99601370889753</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -915,4 +916,502 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.994647765747102</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8367057457127326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.192266818098839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.86772206882043</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.204475366241777</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.289725633269637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.127623562693259</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.62057322142867</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7139960187375143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.4816381564282841</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02961153256303976</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8937960463425733</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.5480605845240096</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.114215381860983</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.02388416818892873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.06139926852898639</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.005599656927286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00795346385541559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.492270237551662</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.339122815472717</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6348760108235055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1.47731950641712</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3386899131637285</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.002031874611906574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9007221101860247</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.335953945388388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.066726755256328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.2572099463999449</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7884936791166547</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.8358065975800163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.260565869441451</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1158642386178366</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.385288585878457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9011129038409196</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4008307518976707</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5544111371203673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.3582635003683902</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.637146014565573</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.670940191784219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9526004859940198</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.676360858582423</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3957923746105957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.573603982348297</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1702039334008838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.471465939910465</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1912765876272335</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3590695113997917</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.521418632085678</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.406042704588829</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5824698476315108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5699094975130976</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.7102649847790931</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.6385896445519337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4920578118180404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.7771737282586377</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.3675114056534109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9727390110238644</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.105298340209612</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6743298778375534</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.022096382916795</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1816799179334019</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.283066393357074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5845017012862088</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6995240969175199</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1136656770588325</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9765214364411046</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2083658086506759</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1644625441989008</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1218789958357293</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.694901719039584</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.356234010207737</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.05481614065173718</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.223173515500401</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2555082269004887</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4309345556104396</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.06189061583748898</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3344860479294234</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2977177474571929</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.672787016769547</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5471494947422639</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.805378156218934</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7053164253161495</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1279392168908709</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9791234377274997</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4066608909851814</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8604415040091579</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.102860012758923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.111437274074901</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.359131465958323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5047961257761014</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.09766612944190255</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08980501545773158</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3194457783873378</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.76874803034764</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.987800161356253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9504329724315373</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.5251078217129145</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.189794255725579</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5769524283228801</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.159609478379985</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.752081288704997</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9940214909163279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.588096998749208</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.235804794488801</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.838794389783425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5372675184141614</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.794647094567656</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6478614397695814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.1826420184204232</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9002690339700172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3510976464182303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.140641997770234</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3117515588637492</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.125220186365006</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.14980221411294</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3500020419683619</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2477725611310466</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.2292703638665679</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4378600906300411</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6729632635057378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.103466394815835</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.256136353313128</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.7898888896333776</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.004932394944984</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3149399627892487</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6811176967468859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -9,6 +9,16 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -918,6 +928,1500 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.426123985137212</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.0533179947273016</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.5982767059781859</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.005788286678977</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5592596514699516</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.701070113190745</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5100384481776564</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7512144433043773</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.189131950105758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4768824930782537</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9520873464046924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3002309584341615</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.097092336952661</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3141813840187275</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3525357112774942</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8242978452794282</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3623774459200745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.03844307085840476</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.07655460558001469</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.202402710590963</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.775521154931209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5917228769431628</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03469029899662254</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.742421463541953</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.50528826306731</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4967661298975029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3909107949047296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.763147983668859</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.101445890951827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.309170834412846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.7901527466969331</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5335663256418894</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2889386593589807</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.263597102296312</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1653786558027071</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2698988035233301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.05100025892147467</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.682140144087652</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.479707771106199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.8631633243786641</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03987941225338516</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.250208276105301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.103467551203375</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.240513627136326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0259330712744592</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.52108849857179</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01601182901926521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2184458082485154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.5485240557621243</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3311786630114066</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3048757134247517</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3343960265053393</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2361443734452818</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.745976488600506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1466542330442712</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.9880970341082417</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.665387566333985</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.06586527380502372</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9501141174682403</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.260017268635008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1693934831017116</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4500183579715608</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3785071807266626</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.331235467605041</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.014421784768142</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3840042825164478</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08752169399905803</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9111778773958893</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2865893458621168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.953871069308079</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.463811352971457</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1964697829725437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.7136972456437761</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.7489090663347824</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.9872498761897108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.467046411448514</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1557134175201742</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1121982560705759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3793447193151395</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4703686705673761</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3090256755218127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7009099453876629</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2370831355463501</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4271561993969044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.8510583199916105</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1828785944597051</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7195198947746579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.07125473666620366</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05471258787945415</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2399386138850363</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.489629742087611</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.471121954655191</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3254101628007586</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.2124451952217437</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0524063463159943</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.06848187553730192</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4061705794513505</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5090377023026315</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.237672497707961</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.2588985494357792</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8817190396414971</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.597785211777983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.239413504435116</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.5766662609036728</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.278103406563223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2.168425026627631</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.458373091314519</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.4613452336660469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.375886830560419</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.539709986121401</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.7461349694608779</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.64060533589508</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7538910497331545</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.501418278601194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.6855386012192218</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3313333977153277</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3824893394516654</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.3352382583594396</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.90576291166</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.475352909888664</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.761775380066937</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5541861260943273</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7727598307549304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.435542836011238</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.059845285375638</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.088190897467276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.604753275997381</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.690664259125406</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1582206615590067</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.876849728242528</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.701013331345307</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5476960022996803</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5044514529844576</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7425259630006742</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5801994619656905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.5732703806085282</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4419955290715653</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.069782735720438</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.917279916937137</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.405270144467943</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3286125561064658</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.1223864128958922</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07469693189951984</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.7793770743702677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.274017507884013</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4182885190280084</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.6293044986530113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.2007775285624818</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3493872782451546</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5165597132982954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.610624159945405</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2195172294194468</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.9752654500850318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.831476615364752</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.492534837284864</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2750553187928073</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.2172246235267927</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.803253127932576</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8193925765319905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5140796211781647</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.08966986427718046</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.9975007048998469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1860319806154544</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4348405365738686</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1884557574974318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4498744792061351</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9787224163182484</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5130807298733193</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.8595924856645381</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.24057889590415</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.7197217938069221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9505734569488967</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5668416828458918</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.8025292419190655</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.1510355557168644</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.601630815822504</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.309702913190048</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.9425376378040599</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.017330022513376</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7302807256968886</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.08200756471686364</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4122807771477663</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.201949879629733</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.138831155468046</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.02811896524389855</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.508231513868149</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.052153005738548</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.736015090192219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1176501009034966</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.227772398476193</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.8368297341423661</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5167832427651136</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.8455413129622937</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.085714392072587</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2992552850143808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.8225839800229682</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.001644206355272954</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7511166614339915</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6752884256924342</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4294870386050036</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6189309373101372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3309023228429691</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1596155876636899</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9909768696705479</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.213035964517176</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.94349188275575</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.183929728778206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5619914270109534</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9470010701303996</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3043859354283692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1866125654328835</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.362185772873607</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.126306026470926</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1523812339411614</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.260775333546685</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.886460999312986</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.4734318892834375</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.221316113502928</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.623125791336914</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5496658717945938</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.185177691587301</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6928280751741803</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.4230804761903863</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5901487870663388</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.355722016466951</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.393249735641876</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2252253192453817</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.5840327229351397</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.8396730964100935</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.29811429315383</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.084495542698452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.383648651487495</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.005343426380780628</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5031507343894399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.5529002162217052</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.2282624805412712</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.207878350592205</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.1190234748476432</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2031871885413598</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5749806153630759</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.209333571571415</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.004054619512067612</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6637342644968629</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.817290968079041</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3389924043927477</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.174804039028616</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.459666421408541</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.850305977803764</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5702769929943637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.8438895810445511</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.0606874127256695</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.244223050808674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.695762555539545</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3744218455368098</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.78294849484649</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.331947767513168</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.452612242993305</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.148143149774349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.4329148472945955</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.329506196860836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.4753056523708577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1345821332396411</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5581942151290903</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3424041700428425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.5409545187316481</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5425921764706804</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5714966434680361</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.461549483540279</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.250334284636527</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.477945841527564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.3527870986358402</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09745539446055243</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5643715924157048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.087557250112396</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.827427730461705</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.07027414311911033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.01537189930947207</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3269580751272852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.8563643551352382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1083795997866221</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1630763693866825</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.051457957815212</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.01754156490030381</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1040368111282686</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4231715284215923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.05077400709396603</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3082380053793667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1905751280574496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2383727623572159</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1879607419143048</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.9766162571800547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.6001199099688194</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5162886748350584</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2847844798924946</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1735337774886293</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9750147940849321</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4409042120181983</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.2113132645729744</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3978408632140869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06654000221164569</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.07963637080042016</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4902405434917214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006397009336791422</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1269569004734588</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.4663951839450224</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.880325440939554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.05430764124856528</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.5212413694076574</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.153856469895449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.5934317996131409</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6784711770703232</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4640999859059869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.09355056543797959</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5215626034667874</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3283601399521518</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3411318161209243</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.05331997064557643</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.048493326556088</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.8423003838117106</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.499778626530038</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.220664129572726</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1603930189279212</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4602809251533186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6768469819198148</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1164244799433349</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2581252864694428</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.04000476363281097</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1975354341683528</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.519497244744082</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.423823133041713</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.6457815216824575</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7526470247989834</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.382673814020057</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.732322634883236</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.51231768936646</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3330105101589558</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2794090627178987</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.002013537064662196</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3529203076875242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.009377957314278654</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3595909389448871</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4146075156460329</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.208159271926233</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.9998928033451931</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.002834597194651</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.620557769776028</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.878424443154253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.068352171204927</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.0679307120825598</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8809717976159956</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5882487838121815</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.8220297922644568</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.004345710805318946</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7703735356742513</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.4160617244336632</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2071166346159526</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9624721354827099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.01029492671392228</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0362842571721729</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.0069670995937212</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.1288723681283025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.288396645167408</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9436450104069659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.653193688713693</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1256194369050533</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5669005785652209</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.05359313013755892</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1427981765350303</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2777078341866617</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.4494122299712257</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.9154629400109632</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.00279647194987594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.2706672634123569</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.209098011958597</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5649996038465538</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.4323787542797052</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.239717181417078</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4094563628221133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1414,4 +2918,3490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.521294135721042</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7086051760981693</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.663035518043187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.323968828474049</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.4140344516924914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01509015947504634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.01089233738596</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.265487045132671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06033052616025366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1689093491874598</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5900036786031968</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003100394486074045</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.12804347994926</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.501114259376788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.978127241701547</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8740630115722574</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.02209152745031801</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5236959993106729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.002827680172028</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5966960572448267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00919679805004036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3085490027244117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3400151842370743</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.6076439421021416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.104449083582076</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4628921668821749</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2590192094597391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8832829499414382</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6401753084930951</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7362881209135539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.6211582920660572</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6145571077372497</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.3997566260467907</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.445709736641573</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.084221543708231</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.8591716585916842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.0005001761516029312</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.9808871101411737</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.076603056604504</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.1828723425979312</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.726827168827075</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.564909993327857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.2231261348730889</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.036173503005999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.02349024867713838</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.2400009129462612</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7792201392307286</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.661456898113897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.4847616439124132</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.36618112782358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.438006461947674</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7064434699062242</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1932427745562292</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4311469048006385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.3884064583780349</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2381945206900722</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4403015623533056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.01463697426025002</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7222079069799224</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8005329368841447</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.06837770613631063</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1438339501242434</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03701844946963759</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2402545701663361</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.08716047209890719</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.985596859833352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4779222147211143</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.126657060612244</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3643705597634652</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.057647300098394</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4914697974620393</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8249682473727754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.302381969499492</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1554100625402166</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.7074590650409681</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3439134530247546</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6864044160110409</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2170416314163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.3901100630211133</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5444284209315543</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1722707059810225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6147024111207824</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.971209768331184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.871962808893197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.116823338213344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8699645494300861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.18351461324201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.774938501415966</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.662053541961255</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7238053179829775</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.2893694235168396</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8400787724846859</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.07412816746114864</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.15394674880514</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.706292091257305</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.4934979845975044</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.1598997829373583</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6683871679187657</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1027040493346773</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.091481821795233</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1887115128996815</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.241932910171985</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.3769984992767519</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.784866914658491</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.652940049176808</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.455295539375261</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2182459893013315</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.008466921998199366</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.5655282718320209</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1406509779297904</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.020399675513509</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.6821872626955684</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5631128033571006</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.6190763781563829</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.8424192720708162</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3078614299098419</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.9663811496557547</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4768026590217103</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.615706906828915</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.104406480220884</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.21240180364359</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4290139659720389</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.099568349320532</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.579206478195473</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3523399845738049</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2848346974245096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.247020450642403</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.123040896282088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0153740501396977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.462096763907769</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1494149068805983</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.7943737691731777</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.63690018331823</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2536286849177447</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.657242782865601</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.7040903330544516</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.495507274548462</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7365114022247319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5744493225041019</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5321671192572621</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2127019804341103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.4986125430387262</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.70005630387718</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001896049619619844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.020604335976387</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3432364073994082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2099024997115059</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.3733498935411332</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4141666867454055</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2381383924543478</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-2.203933936251779</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.190375823597011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.846720201245185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8465429167630806</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.562696339416385</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.797868087214507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.335512529805289</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1809340090793898</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9886015593648614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.7101479833488004</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4816696715030097</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.231318194114922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.4361568179700856</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.319810376262653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.33600977689412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.06833865756034482</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.04139975949617988</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9281556294284345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.3020353052535407</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2300330015017931</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.53214935197748</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3143549554548086</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3407011523489693</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7762173784152772</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.002310321363599882</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.56125707408294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.080618308713184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.342191909016082</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7518226362386574</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9417519578931348</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.2828884638916564</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.944294725025396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8568226968789611</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.129508428841114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3954081873722446</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9702834104172454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.8067298140918614</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1846048880282011</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4470875724789072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.802830959987655</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.7255036540784219</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.587123872903946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6547835843436505</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2545046448212598</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5857140803340155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1470805216067682</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5666526402489067</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3736206689907763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6837365629188853</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6009347773106205</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.21413541504818</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1107832524613844</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.006162576158231151</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4695830102344034</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.733935721934855</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.040231011013558</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03363169631218078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2349192369488029</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.118714160738655</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.040644208232173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.169792093991536</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.253447161764422</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.04345630847197799</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9121351462614645</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9361712704919103</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3628859791268815</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4665690255001487</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.045696399968398</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5669581036124252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.4070103674034704</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.845768208920717</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.221292433676552</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.681792085839791</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.354557371471267</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4520348791740419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.23440549799739</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.560467508943754</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.4388897070024953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.3823281895350051</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.380440257801394</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.471757242773959</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.130171217220414</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.114076557799868</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7067904793975099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.06184885286641999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.09209414563023627</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.073063788626897</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.600046123968053</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.122327326850102</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5074724947368248</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3180047174221352</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.530368778870138</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1527589979834536</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.387086988287694</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.578585487089484</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.5449122036876101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.7270372594743945</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01459046574132883</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.5230495976094359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9586790049205147</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9943564569131397</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.5504142719868125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.717393657697218</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.6047324442901283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.069228736391003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.469180024281066</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8801137289269451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8161842559570406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.249250767823186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.327619511186937</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.663204605273544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.2461282029625826</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7927894013124567</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4498073424550661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.108933490312676</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8104135890875478</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.231742777107986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5289849773625894</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.809458827711055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.640948810296109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.055066826552562</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7385842796702258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.227212831167971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.569442482374117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3816948360343669</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08019910989804256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1378382941538628</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.748860884177063</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6977603237376502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.07063712248394011</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.180239517655049</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002388243358009137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.1271713229068064</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.177447911833139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1653174559395492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.3648334274583607</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4925008368706833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.4168974166666228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5006465707466796</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7421732788507176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4701706835080596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.2860253148876843</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1219875054875658</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3430454346396539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1450153460847518</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.065567393964536</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.08694951573019337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1350560714842799</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.010063982835586</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.507314801973591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1700748386058911</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.054318634065449</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2471221271270973</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.474834379028295</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.151104831752376</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.5259136471171922</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.6466746408273309</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.409480264765599</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3021958877376578</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1503766024063261</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.643993705847001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.06101257899318881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.106506281769878</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4035534816713209</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1223925086109815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.02018862039169868</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4673908318955331</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9069067151618535</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4407825241692699</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.248548929674523</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6350927300348749</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4047428233329967</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9399730006692499</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.174855641929628</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4549474998662849</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.9678566760078918</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.232325027054551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.2875737760535481</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.9098399906595123</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.161425558557822</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.9989467023782979</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2265250047597688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1646207415420618</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.02614678199207401</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6586433514459776</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8668132279684255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.5101440888544049</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.07565810700138587</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8953225009518379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.06055708328616953</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.6478790014393225</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.540963019754838</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.9738036175902859</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.4941839092547919</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.473050758486792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.990146819872349</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3446631613011558</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.9784991244124137</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-1.372585188785733</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.6778986322753396</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.3065805188143883</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.029304348138723</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1079902223424121</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1593929870335385</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.127135017129554</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.075336931175599</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.6211779571902242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.4123320953814923</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.844632672747902</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5632928805768497</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.330710380934971</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3123484547074673</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006365179034891437</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.043931617291824</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6327617186557899</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4674874762066272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5167603922424431</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.34440241912154</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.174581905048592</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.200378919873317</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.3877121153003515</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7485487751704138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.3903926424639684</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1098022763110038</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3925401829161438</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-2.217006414590449</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.219520454173352</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3.052786861879646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.268751476441151</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1393562122528066</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6572121251834414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8303831819868039</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2445444590953834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2794967025831078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.769136456868323</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.050027052398552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.650308266269913</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2207331264020901</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5368039898330899</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4554317225011346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.292418211012073</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.129315808629067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.097682930583472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.4628899250140193</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.220227609237834</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.10171457257384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.780392635141676</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01050029673222468</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.024608208491724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9000939955433737</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8101355013378588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.326814245506068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.745534861459117</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.9370129842022833</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.06807401747221843</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.002672300707989141</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3907024987515019</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4799469526032651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.589460735875046</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.9441122783807584</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.029850445027533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.9674704690505685</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04775840006822104</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.747728961681721</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3905877031066285</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.5769101961739757</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5340954448911892</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.7055198658978138</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2887299873143176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01346359066745383</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.244968512803996</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5368152041523737</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8373510421735095</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4327928749703188</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7799628887621437</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6671718772642423</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.6600326214284823</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.918008234264598</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.424261975342867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7281435892402486</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.5631503491819082</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1101086344957885</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1421712075299445</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.4305440299068825</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1926081047400536</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.355990661489071</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7970507599004146</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.017222816662987</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.06986455597120533</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06004926969074276</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9480340014847075</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6682621137864023</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2989638377498786</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.997163762135973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4744072287633987</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03029539147774992</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8147599697622704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2142154196544941</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.07246049090879803</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.984236525841521</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.3741056806373235</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3044332519680285</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.831840146219121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4933932438332302</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1572098575718861</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.529170938915553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1512002839286894</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5039018391554723</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.249929777206161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0414879218573892</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1941736737566486</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.6882486914755477</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.602986001587331</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09256479801263037</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.3339261221281321</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.9031642677020617</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2849182904068894</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.283298141137804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.7614299148567962</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1372572944145133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.07474737495126436</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.097145070593137</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.509943621850836</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0831553362825105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.9510787594352711</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3521880262323596</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.3492176497981221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.868041448763888</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8520008603517712</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8032749094855125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.43259565267353</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.54610379021207</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1595007884373835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.992611905788875</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3179987828283021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2045972780220711</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.411103371532926</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6041442071277298</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1609481883295359</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.14688789310679</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3284461002740544</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.215204280762645</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5715051843938964</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.585077869866277</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.465338992472095</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.9058728964326016</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6573246152014326</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.7150749832915124</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.485062316602441</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.548060021336122</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5113043971647119</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.262703435146161</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5021554229642662</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03061743127216239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.159244700635321</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.558390399610518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.07854024865815255</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.025563895335055</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.613512418941469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.05461347458164319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.453661398703355</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.266527546291692</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3968324117524442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2060476584363246</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.02170180502560691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03711070545533217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1074476818946233</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2849764639518196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3668303044210933</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.2417844315074385</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.05560408690874078</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1821367117535871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.323736415178095</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.480927067814391</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.582767045554103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.2891183733712895</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9922106227691352</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.07714705881325822</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.564168026392893</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.925467345267426</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.479418642080098</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1866688571603007</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1058068911729163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003066649777398268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.01314591270575256</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3222976778089142</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.919756908783948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3238150629741411</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2856447380864935</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.09927316058514749</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2060164757720701</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.03498790778208125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0314560339512431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.3161744814328178</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4056438520947787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3100857031874215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1909248101741976</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1584834217182354</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5835663481011504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3995728955270222</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3294942725213287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05820084413030496</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1179748288775863</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1208037610655856</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6667691525976736</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3055773648342568</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.4050084605529535</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6647040394143532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.2658193606732952</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.6295606788744088</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9648892546439505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1365763759525722</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3632428278461829</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8773306343479569</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1257866675538957</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.00798481741231283</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.297264111089769</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4453632779683572</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3988141649159392</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.002055364563869236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2498259614868963</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3719652662142358</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1108406432933181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.357247497405896</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.287879025655804</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1665321115259709</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.3012250798151234</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1441122091832809</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1284673569194247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1358543457130006</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3894655051382103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2341650061683682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4587416406665822</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3481364201401998</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.03619687226538705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4182241820243945</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3524179381918195</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1325971073650982</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.514226763878661</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.570447714869578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.08663295199237059</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.5317383554302568</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5433116215467838</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1390494532748272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.5327068423988288</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5669871760169908</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1148945026479794</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5297408273681449</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5340035372809647</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1386507219002258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.5674230165425768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6172366383015701</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1235721858781721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5805884321388513</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.617832275786947</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1305221243847257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.4646603034442423</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4239149935147884</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.147196437524266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5151504913322575</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4966418714146468</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1442999028860297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5488722101815272</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5634966712834003</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1117198084363459</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5631533419146827</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5979508180396771</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1295036886174172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4154102122065037</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4432063098630832</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1044293680467904</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4631981956338801</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4172904734890826</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.2006274051834101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5459821771860728</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5325773872237112</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.08859610514436946</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5811219551888622</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6216366813167412</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.1361748561367063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.950547481898897</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9308849756718733</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.594111776325478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.521088581507973</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.223653148426063</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.803656929732422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.248983336720818</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.456647352724341</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.507781358906326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3257673905807376</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4547716344533592</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3082555835091353</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5556714008626752</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.195553873950137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6160598617786569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.3387188874318549</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2461979364482232</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2031933170630685</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4275096293509734</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.06265443934849592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.663475039645493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3191301613390686</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7126255162586398</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.112425700775813</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.02324631235045874</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4286508572011496</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3263118789358885</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.4995771485916602</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0942082703869303</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.02201927311724637</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.2803011391446045</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1399150086456163</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4677744550498901</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.08237265361464675</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1300205296511454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.08664392790308037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6679258990748469</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.6674183452843692</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.086932409831675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.2959423594200739</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.009658095303553878</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2704080952699036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.2410265704381355</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3297669281383291</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1406562646274602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.09425063487834755</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4641211984328475</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3915266738181744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.017887670383692</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-4.574757436104358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.931559293869948</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.1169561488109303</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06956392022450464</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2447352771612325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.41690613428486</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.039326597640277</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9430185346424779</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5124043433666479</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.585676946169703</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9843637625498703</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.4944296811015397</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.08207890149269417</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06750807981842859</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.7114579276910525</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1809501257961497</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.700602175410398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4687608254069064</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3310463448263437</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2863771858997808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2862844304197408</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.267385813401112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1211032315634053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.5096955692437722</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.45764558103993</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1495174669265667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5815478939660278</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1968823550732497</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2091233631926154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.5719721231132872</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2360701943279535</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03268595231157347</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7055650449981532</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2489501738155893</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.046181247929788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.6197199746051498</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1514148566722841</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1212067771298716</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4741460870092588</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2848402299512744</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2075503948782282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.693996162026981</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1081185822933918</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.115173226335695</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.6963827837604778</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.09373177093948205</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1589195853763686</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.6794703964304036</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.09920885119015675</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1152752457727209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.5638184145123967</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.170909879774365</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.145951087558463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.06191050581581939</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3748734807986953</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8610193324451344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.7316356396760609</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3844372300172998</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.02759199845678992</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.7995825861126902</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4355501653478529</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.104685486560494</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.7996661435904645</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2933788362808967</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2208188621962252</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.6116819275197568</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8784032719517244</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1797594996723911</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.5523629236366375</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4431393898832318</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.2401521538333424</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.7017464865450105</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3458579904875953</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06184103594707521</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.6755966475088876</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1296591317067911</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1529103183988751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.666062821633197</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04870799556723293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4596837280126652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.360951037713888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1550299021552341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6161709474925349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.252944124402886</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1937190813023298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7580699708487273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.07237999670411305</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8869086369240901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2086034288875545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.408151414164389</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.021649721260596</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.208161352417354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.111475910962141</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2647692953710274</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.8158535520469232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.122339581473892</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2963583570673393</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3648665050720874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3704140118740279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9818814533121776</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5017335095243985</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9673917583692808</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.308918815975861</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08549181439257347</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8669893534408979</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.08568559245420249</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.541032359975508</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.8959571342497687</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.02153896098916741</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5091758917261658</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.8680490341842846</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5082901452961317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.7527051884870213</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6367842178899066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8976061385516053</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4575593674422958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4609917426881088</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2408839059866215</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4555688584605849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1370283656040031</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.9560370263178997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.54681168810005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.6267658054939512</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3298517045531398</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2600010966066676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.002384249505031977</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1887180997808573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6807521416225307</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4523942233978151</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.671237488014379</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.889295693148415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.5182677048615696</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.261715953833972</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.495377367656221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.6240993600080368</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8065808560143753</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1625817314577535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1292518394866308</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.8923207931157956</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07291961121745258</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.094025383567964</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9169464618670355</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.583816219836085</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.7470344100845056</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6841966103879019</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.151561689144986</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.7659632099470532</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.4994019166158553</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3894630403472145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.7894168473948276</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3273431738972529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3959538461274857</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8110918311306721</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4625647625660557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7907982577117405</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.4832578360823735</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.101028021606298</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2300824559310553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4121836330887266</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06918519196481959</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5879205964379162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.419838840132314</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.930103344372643</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6593811415198652</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.04332470933521363</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.153544281927112</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7584465690135241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8612393796212958</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5946127476216657</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.8898122480100109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.039418739346406</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2284297972981343</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.05045526862976772</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.8293705958949995</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7670129154034911</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5462057251281971</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5724867417947741</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02155187809115807</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.658158102841968</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.641047948501352</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.6783178428980301</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.5642162327575256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2.138696584106615</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9103564187904822</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.138005402887783</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1989310492794626</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1116795221262632</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.4346562398661071</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-2.26221371516268</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.7962022409966905</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3500060804214948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-2.391556913280055</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-2.739896321596437</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.593313850294127</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.510317205785167</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.78899698874635</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7646054039916294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.5130041380627912</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5142210675766089</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.651853095682854</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.7943962185594972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7198387562625369</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.195160953695895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -8,6 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -915,4 +926,5482 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.426123985137212</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.0533179947273016</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.5982767059781859</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.005788286678977</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5592596514699516</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.701070113190745</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5100384481776564</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7512144433043773</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.189131950105758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4768824930782537</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9520873464046924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3002309584341615</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.097092336952661</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3141813840187275</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3525357112774942</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8242978452794282</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3623774459200745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.03844307085840476</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.07655460558001469</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.202402710590963</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.775521154931209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5917228769431628</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03469029899662254</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.742421463541953</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.50528826306731</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4967661298975029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3909107949047296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.763147983668859</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.101445890951827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.309170834412846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.7901527466969331</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5335663256418894</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2889386593589807</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.263597102296312</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1653786558027071</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2698988035233301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.05100025892147467</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.682140144087652</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.479707771106199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.8631633243786641</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03987941225338516</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.250208276105301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.103467551203375</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.240513627136326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0259330712744592</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.52108849857179</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01601182901926521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2184458082485154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.5485240557621243</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3311786630114066</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3048757134247517</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3343960265053393</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2361443734452818</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.745976488600506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1466542330442712</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.9880970341082417</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.665387566333985</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.06586527380502372</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9501141174682403</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.260017268635008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1693934831017116</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4500183579715608</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3785071807266626</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.331235467605041</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.014421784768142</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3840042825164478</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08752169399905803</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9111778773958893</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2865893458621168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.953871069308079</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.463811352971457</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1964697829725437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.7136972456437761</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.7489090663347824</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.9872498761897108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.467046411448514</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1557134175201742</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1121982560705759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3793447193151395</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4703686705673761</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3090256755218127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7009099453876629</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2370831355463501</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4271561993969044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.8510583199916105</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1828785944597051</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7195198947746579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.07125473666620366</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05471258787945415</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2399386138850363</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.489629742087611</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.471121954655191</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3254101628007586</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.2124451952217437</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0524063463159943</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.06848187553730192</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4061705794513505</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5090377023026315</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.237672497707961</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.2588985494357792</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8817190396414971</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.597785211777983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.239413504435116</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.5766662609036728</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.278103406563223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2.168425026627631</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.458373091314519</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.4613452336660469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.375886830560419</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.539709986121401</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.7461349694608779</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.64060533589508</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7538910497331545</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.501418278601194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.6855386012192218</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3313333977153277</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3824893394516654</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.3352382583594396</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.90576291166</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.475352909888664</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.761775380066937</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5541861260943273</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7727598307549304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.435542836011238</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.059845285375638</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.088190897467276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.604753275997381</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.690664259125406</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1582206615590067</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.876849728242528</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.701013331345307</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5476960022996803</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5044514529844576</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7425259630006742</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5801994619656905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.5732703806085282</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4419955290715653</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.069782735720438</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.917279916937137</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.405270144467943</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3286125561064658</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.1223864128958922</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07469693189951984</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.7793770743702677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.274017507884013</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4182885190280084</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.6293044986530113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.2007775285624818</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3493872782451546</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5165597132982954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.610624159945405</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2195172294194468</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.9752654500850318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.831476615364752</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.492534837284864</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2750553187928073</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.2172246235267927</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.803253127932576</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8193925765319905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5140796211781647</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.08966986427718046</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.9975007048998469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1860319806154544</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4348405365738686</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1884557574974318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4498744792061351</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9787224163182484</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5130807298733193</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.8595924856645381</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.24057889590415</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.7197217938069221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9505734569488967</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5668416828458918</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.8025292419190655</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.1510355557168644</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.601630815822504</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.309702913190048</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.9425376378040599</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.017330022513376</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7302807256968886</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.08200756471686364</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4122807771477663</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.201949879629733</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.138831155468046</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.02811896524389855</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.508231513868149</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.052153005738548</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.736015090192219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1176501009034966</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.227772398476193</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.8368297341423661</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5167832427651136</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.8455413129622937</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.085714392072587</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2992552850143808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.8225839800229682</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.001644206355272954</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7511166614339915</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6752884256924342</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4294870386050036</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6189309373101372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3309023228429691</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1596155876636899</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9909768696705479</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.213035964517176</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.94349188275575</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.183929728778206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5619914270109534</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9470010701303996</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3043859354283692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1866125654328835</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.362185772873607</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.126306026470926</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1523812339411614</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.260775333546685</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.886460999312986</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.4734318892834375</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.221316113502928</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.623125791336914</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5496658717945938</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.185177691587301</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6928280751741803</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.4230804761903863</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5901487870663388</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.355722016466951</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.393249735641876</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2252253192453817</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.5840327229351397</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.8396730964100935</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.29811429315383</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.084495542698452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.383648651487495</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.005343426380780628</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5031507343894399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.5529002162217052</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.2282624805412712</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.207878350592205</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.1190234748476432</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2031871885413598</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5749806153630759</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.209333571571415</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.004054619512067612</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6637342644968629</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.817290968079041</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3389924043927477</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.174804039028616</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.459666421408541</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.850305977803764</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5702769929943637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.8438895810445511</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.0606874127256695</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.244223050808674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.695762555539545</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3744218455368098</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.78294849484649</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.331947767513168</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.452612242993305</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.148143149774349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.4329148472945955</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.329506196860836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.4753056523708577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1345821332396411</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5581942151290903</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3424041700428425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.5409545187316481</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5425921764706804</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5714966434680361</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.461549483540279</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.250334284636527</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.477945841527564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.3527870986358402</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09745539446055243</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5643715924157048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.087557250112396</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.827427730461705</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.07027414311911033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.01537189930947207</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3269580751272852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.8563643551352382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1083795997866221</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1630763693866825</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.051457957815212</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.01754156490030381</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1040368111282686</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4231715284215923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.05077400709396603</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3082380053793667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1905751280574496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2383727623572159</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1879607419143048</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.9766162571800547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.6001199099688194</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5162886748350584</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2847844798924946</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1735337774886293</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9750147940849321</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4409042120181983</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.2113132645729744</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3978408632140869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06654000221164569</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.07963637080042016</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4902405434917214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006397009336791422</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1269569004734588</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.4663951839450224</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.880325440939554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.05430764124856528</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.5212413694076574</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.153856469895449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.5934317996131409</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6784711770703232</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4640999859059869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.09355056543797959</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5215626034667874</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3283601399521518</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3411318161209243</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.05331997064557643</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.048493326556088</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.8423003838117106</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.499778626530038</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.220664129572726</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1603930189279212</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4602809251533186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6768469819198148</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1164244799433349</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2581252864694428</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.04000476363281097</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1975354341683528</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.519497244744082</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.423823133041713</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.6457815216824575</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7526470247989834</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.382673814020057</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.732322634883236</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.51231768936646</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3330105101589558</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2794090627178987</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.002013537064662196</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3529203076875242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.009377957314278654</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3595909389448871</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4146075156460329</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.208159271926233</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.9998928033451931</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.002834597194651</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.620557769776028</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.878424443154253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.068352171204927</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.0679307120825598</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8809717976159956</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5882487838121815</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.8220297922644568</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.004345710805318946</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7703735356742513</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.4160617244336632</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2071166346159526</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9624721354827099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.01029492671392228</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0362842571721729</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.0069670995937212</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.1288723681283025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.288396645167408</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9436450104069659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.653193688713693</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1256194369050533</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5669005785652209</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.05359313013755892</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1427981765350303</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2777078341866617</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.4494122299712257</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.9154629400109632</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.00279647194987594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.2706672634123569</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.209098011958597</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5649996038465538</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.4323787542797052</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.239717181417078</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4094563628221133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.994647765747102</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8367057457127326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.192266818098839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.86772206882043</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.204475366241777</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.289725633269637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.127623562693259</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.62057322142867</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7139960187375143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.4816381564282841</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02961153256303976</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8937960463425733</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.5480605845240096</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.114215381860983</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.02388416818892873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.06139926852898639</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.005599656927286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00795346385541559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.492270237551662</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.339122815472717</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6348760108235055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1.47731950641712</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3386899131637285</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.002031874611906574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9007221101860247</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.335953945388388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.066726755256328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.2572099463999449</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7884936791166547</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.8358065975800163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.260565869441451</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1158642386178366</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.385288585878457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9011129038409196</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4008307518976707</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5544111371203673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.3582635003683902</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.637146014565573</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.670940191784219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9526004859940198</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.676360858582423</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3957923746105957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.573603982348297</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1702039334008838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.471465939910465</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1912765876272335</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3590695113997917</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.521418632085678</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.406042704588829</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5824698476315108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5699094975130976</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.7102649847790931</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.6385896445519337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4920578118180404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.7771737282586377</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.3675114056534109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9727390110238644</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.105298340209612</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6743298778375534</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.022096382916795</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1816799179334019</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.283066393357074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5845017012862088</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6995240969175199</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1136656770588325</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9765214364411046</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2083658086506759</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1644625441989008</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1218789958357293</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.694901719039584</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.356234010207737</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.05481614065173718</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.223173515500401</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2555082269004887</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4309345556104396</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.06189061583748898</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3344860479294234</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2977177474571929</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.672787016769547</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5471494947422639</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.805378156218934</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7053164253161495</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1279392168908709</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9791234377274997</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4066608909851814</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8604415040091579</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.102860012758923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.111437274074901</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.359131465958323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5047961257761014</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.09766612944190255</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08980501545773158</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3194457783873378</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.76874803034764</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.987800161356253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9504329724315373</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.5251078217129145</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.189794255725579</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5769524283228801</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.159609478379985</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.752081288704997</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9940214909163279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.588096998749208</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.235804794488801</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.838794389783425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5372675184141614</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.794647094567656</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6478614397695814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.1826420184204232</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9002690339700172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3510976464182303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.140641997770234</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3117515588637492</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.125220186365006</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.14980221411294</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3500020419683619</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2477725611310466</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.2292703638665679</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4378600906300411</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6729632635057378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.103466394815835</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.256136353313128</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.7898888896333776</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.004932394944984</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3149399627892487</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6811176967468859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.521294135721042</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7086051760981693</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.663035518043187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.323968828474049</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.4140344516924914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01509015947504634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.01089233738596</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.265487045132671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06033052616025366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1689093491874598</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5900036786031968</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003100394486074045</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.12804347994926</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.501114259376788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.978127241701547</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8740630115722574</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.02209152745031801</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5236959993106729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.002827680172028</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5966960572448267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00919679805004036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3085490027244117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3400151842370743</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.6076439421021416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.104449083582076</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4628921668821749</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2590192094597391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8832829499414382</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6401753084930951</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7362881209135539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.6211582920660572</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6145571077372497</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.3997566260467907</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.445709736641573</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.084221543708231</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.8591716585916842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.0005001761516029312</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.9808871101411737</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.076603056604504</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.1828723425979312</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.726827168827075</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.564909993327857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.2231261348730889</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.036173503005999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.02349024867713838</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.2400009129462612</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7792201392307286</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.661456898113897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.4847616439124132</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.36618112782358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.438006461947674</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7064434699062242</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1932427745562292</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4311469048006385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.3884064583780349</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2381945206900722</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4403015623533056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.01463697426025002</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7222079069799224</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8005329368841447</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.06837770613631063</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1438339501242434</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03701844946963759</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2402545701663361</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.08716047209890719</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.985596859833352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4779222147211143</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.126657060612244</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3643705597634652</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.057647300098394</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4914697974620393</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8249682473727754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.302381969499492</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1554100625402166</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.7074590650409681</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3439134530247546</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6864044160110409</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2170416314163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.3901100630211133</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5444284209315543</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1722707059810225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6147024111207824</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.971209768331184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.871962808893197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.116823338213344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8699645494300861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.18351461324201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.774938501415966</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.662053541961255</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7238053179829775</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.2893694235168396</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8400787724846859</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.07412816746114864</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.15394674880514</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.706292091257305</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.4934979845975044</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.1598997829373583</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6683871679187657</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1027040493346773</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.091481821795233</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1887115128996815</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.241932910171985</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.3769984992767519</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.784866914658491</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.652940049176808</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.455295539375261</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2182459893013315</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.008466921998199366</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.5655282718320209</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1406509779297904</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.020399675513509</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.6821872626955684</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5631128033571006</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.6190763781563829</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.8424192720708162</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3078614299098419</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.9663811496557547</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4768026590217103</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.615706906828915</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.104406480220884</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.21240180364359</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4290139659720389</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.099568349320532</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.579206478195473</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3523399845738049</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2848346974245096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.247020450642403</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.123040896282088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0153740501396977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.462096763907769</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1494149068805983</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.7943737691731777</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.63690018331823</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2536286849177447</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.657242782865601</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.7040903330544516</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.495507274548462</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7365114022247319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5744493225041019</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5321671192572621</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2127019804341103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.4986125430387262</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.70005630387718</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001896049619619844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.020604335976387</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3432364073994082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2099024997115059</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.3733498935411332</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4141666867454055</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2381383924543478</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-2.203933936251779</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.190375823597011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.846720201245185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8465429167630806</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.562696339416385</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.797868087214507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.335512529805289</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1809340090793898</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9886015593648614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.7101479833488004</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4816696715030097</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.231318194114922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.4361568179700856</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.319810376262653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.33600977689412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.06833865756034482</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.04139975949617988</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9281556294284345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.3020353052535407</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2300330015017931</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.53214935197748</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3143549554548086</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3407011523489693</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7762173784152772</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.002310321363599882</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.56125707408294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.080618308713184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.342191909016082</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7518226362386574</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9417519578931348</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.2828884638916564</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.944294725025396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8568226968789611</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.129508428841114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3954081873722446</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9702834104172454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.8067298140918614</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1846048880282011</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4470875724789072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.802830959987655</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.7255036540784219</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.587123872903946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6547835843436505</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2545046448212598</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5857140803340155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1470805216067682</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5666526402489067</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3736206689907763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6837365629188853</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6009347773106205</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.21413541504818</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1107832524613844</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.006162576158231151</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4695830102344034</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.733935721934855</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.040231011013558</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03363169631218078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2349192369488029</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.118714160738655</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.040644208232173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.169792093991536</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.253447161764422</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.04345630847197799</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9121351462614645</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9361712704919103</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3628859791268815</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4665690255001487</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.045696399968398</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5669581036124252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.4070103674034704</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.845768208920717</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.221292433676552</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.681792085839791</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.354557371471267</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4520348791740419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.23440549799739</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.560467508943754</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.4388897070024953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.3823281895350051</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.380440257801394</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.471757242773959</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.130171217220414</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.114076557799868</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7067904793975099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.06184885286641999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.09209414563023627</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.073063788626897</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.600046123968053</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.122327326850102</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5074724947368248</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3180047174221352</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.530368778870138</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1527589979834536</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.387086988287694</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.578585487089484</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.5449122036876101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.7270372594743945</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01459046574132883</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.5230495976094359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9586790049205147</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9943564569131397</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.5504142719868125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.717393657697218</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.6047324442901283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.069228736391003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.469180024281066</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8801137289269451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8161842559570406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.249250767823186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.327619511186937</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.663204605273544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.2461282029625826</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7927894013124567</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4498073424550661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.108933490312676</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8104135890875478</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.231742777107986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5289849773625894</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.809458827711055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.640948810296109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.055066826552562</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7385842796702258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.227212831167971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.569442482374117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3816948360343669</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08019910989804256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1378382941538628</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.748860884177063</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6977603237376502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.07063712248394011</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.180239517655049</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002388243358009137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.1271713229068064</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.177447911833139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1653174559395492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.3648334274583607</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4925008368706833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.4168974166666228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5006465707466796</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7421732788507176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4701706835080596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.2860253148876843</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1219875054875658</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3430454346396539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1450153460847518</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.065567393964536</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.08694951573019337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1350560714842799</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.010063982835586</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.507314801973591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1700748386058911</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.054318634065449</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2471221271270973</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.474834379028295</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.151104831752376</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.5259136471171922</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.6466746408273309</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.409480264765599</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3021958877376578</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1503766024063261</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.643993705847001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.06101257899318881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.106506281769878</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4035534816713209</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1223925086109815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.02018862039169868</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4673908318955331</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9069067151618535</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4407825241692699</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.248548929674523</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6350927300348749</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4047428233329967</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9399730006692499</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.174855641929628</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4549474998662849</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.9678566760078918</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.232325027054551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.2875737760535481</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.9098399906595123</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.161425558557822</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.9989467023782979</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2265250047597688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1646207415420618</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.02614678199207401</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6586433514459776</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8668132279684255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.5101440888544049</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.07565810700138587</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8953225009518379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.06055708328616953</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.6478790014393225</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.540963019754838</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.9738036175902859</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.4941839092547919</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.473050758486792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.990146819872349</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3446631613011558</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.9784991244124137</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-1.372585188785733</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.6778986322753396</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.3065805188143883</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.029304348138723</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1079902223424121</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1593929870335385</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.127135017129554</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.075336931175599</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.6211779571902242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.4123320953814923</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.844632672747902</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5632928805768497</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.330710380934971</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3123484547074673</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006365179034891437</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.043931617291824</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6327617186557899</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4674874762066272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5167603922424431</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.34440241912154</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.174581905048592</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.200378919873317</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.3877121153003515</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7485487751704138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.3903926424639684</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1098022763110038</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3925401829161438</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-2.217006414590449</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.219520454173352</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3.052786861879646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.268751476441151</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1393562122528066</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6572121251834414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8303831819868039</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2445444590953834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2794967025831078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.769136456868323</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.050027052398552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.650308266269913</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2207331264020901</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5368039898330899</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4554317225011346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.292418211012073</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.129315808629067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.097682930583472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.4628899250140193</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.220227609237834</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.10171457257384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.780392635141676</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01050029673222468</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.024608208491724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9000939955433737</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8101355013378588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.326814245506068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.745534861459117</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.9370129842022833</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.06807401747221843</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.002672300707989141</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3907024987515019</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4799469526032651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.589460735875046</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.9441122783807584</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.029850445027533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.9674704690505685</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04775840006822104</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.747728961681721</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3905877031066285</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.5769101961739757</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5340954448911892</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.7055198658978138</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2887299873143176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01346359066745383</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.244968512803996</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5368152041523737</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8373510421735095</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4327928749703188</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7799628887621437</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6671718772642423</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.6600326214284823</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.918008234264598</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.424261975342867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7281435892402486</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.5631503491819082</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1101086344957885</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1421712075299445</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.4305440299068825</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1926081047400536</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.355990661489071</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7970507599004146</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.017222816662987</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.06986455597120533</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06004926969074276</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9480340014847075</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6682621137864023</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2989638377498786</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.997163762135973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4744072287633987</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03029539147774992</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8147599697622704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2142154196544941</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.07246049090879803</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.984236525841521</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.3741056806373235</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3044332519680285</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.831840146219121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4933932438332302</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1572098575718861</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.529170938915553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1512002839286894</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5039018391554723</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.249929777206161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0414879218573892</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1941736737566486</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.6882486914755477</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.602986001587331</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09256479801263037</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.3339261221281321</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.9031642677020617</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2849182904068894</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.283298141137804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.7614299148567962</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1372572944145133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.07474737495126436</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.097145070593137</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.509943621850836</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0831553362825105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.9510787594352711</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3521880262323596</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.3492176497981221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.868041448763888</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8520008603517712</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8032749094855125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.43259565267353</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.54610379021207</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1595007884373835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.992611905788875</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3179987828283021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2045972780220711</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.411103371532926</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6041442071277298</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1609481883295359</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.14688789310679</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3284461002740544</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.215204280762645</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5715051843938964</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.585077869866277</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.465338992472095</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.9058728964326016</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6573246152014326</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.7150749832915124</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.485062316602441</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.548060021336122</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5113043971647119</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.262703435146161</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5021554229642662</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03061743127216239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.159244700635321</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.558390399610518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.07854024865815255</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.025563895335055</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.613512418941469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.05461347458164319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.453661398703355</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.266527546291692</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3968324117524442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2060476584363246</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.02170180502560691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03711070545533217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1074476818946233</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2849764639518196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3668303044210933</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.2417844315074385</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.05560408690874078</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1821367117535871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.323736415178095</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.480927067814391</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.582767045554103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.2891183733712895</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9922106227691352</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.07714705881325822</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.564168026392893</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.925467345267426</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.479418642080098</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1866688571603007</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1058068911729163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003066649777398268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.01314591270575256</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3222976778089142</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.919756908783948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3238150629741411</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2856447380864935</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.09927316058514749</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2060164757720701</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.03498790778208125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0314560339512431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.3161744814328178</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4056438520947787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3100857031874215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1909248101741976</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1584834217182354</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5835663481011504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3995728955270222</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3294942725213287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05820084413030496</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1179748288775863</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1208037610655856</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6667691525976736</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3055773648342568</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.4050084605529535</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6647040394143532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.2658193606732952</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.6295606788744088</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9648892546439505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1365763759525722</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3632428278461829</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8773306343479569</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1257866675538957</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.00798481741231283</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.297264111089769</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4453632779683572</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3988141649159392</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.002055364563869236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2498259614868963</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3719652662142358</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1108406432933181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.357247497405896</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.287879025655804</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1665321115259709</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.3012250798151234</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1441122091832809</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1284673569194247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1358543457130006</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3894655051382103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2341650061683682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4587416406665822</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3481364201401998</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.03619687226538705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4182241820243945</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3524179381918195</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1325971073650982</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.514226763878661</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.570447714869578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.08663295199237059</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.5317383554302568</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5433116215467838</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1390494532748272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.5327068423988288</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5669871760169908</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1148945026479794</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5297408273681449</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5340035372809647</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1386507219002258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.5674230165425768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6172366383015701</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1235721858781721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5805884321388513</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.617832275786947</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1305221243847257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.4646603034442423</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4239149935147884</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.147196437524266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5151504913322575</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4966418714146468</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1442999028860297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5488722101815272</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5634966712834003</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1117198084363459</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5631533419146827</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5979508180396771</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1295036886174172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4154102122065037</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4432063098630832</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1044293680467904</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4631981956338801</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4172904734890826</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.2006274051834101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5459821771860728</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5325773872237112</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.08859610514436946</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5811219551888622</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6216366813167412</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.1361748561367063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.950547481898897</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9308849756718733</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.594111776325478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.521088581507973</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.223653148426063</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.803656929732422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.248983336720818</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.456647352724341</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.507781358906326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3257673905807376</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4547716344533592</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3082555835091353</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5556714008626752</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.195553873950137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6160598617786569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.3387188874318549</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2461979364482232</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2031933170630685</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4275096293509734</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.06265443934849592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.663475039645493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3191301613390686</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7126255162586398</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.112425700775813</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.02324631235045874</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4286508572011496</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3263118789358885</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.4995771485916602</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0942082703869303</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.02201927311724637</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.2803011391446045</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1399150086456163</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4677744550498901</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.08237265361464675</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1300205296511454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.08664392790308037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6679258990748469</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.6674183452843692</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.086932409831675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.2959423594200739</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.009658095303553878</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2704080952699036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.2410265704381355</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3297669281383291</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1406562646274602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.09425063487834755</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4641211984328475</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3915266738181744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.017887670383692</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-4.574757436104358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.931559293869948</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.1169561488109303</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06956392022450464</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2447352771612325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.41690613428486</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.039326597640277</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9430185346424779</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5124043433666479</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.585676946169703</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9843637625498703</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.4944296811015397</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.08207890149269417</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06750807981842859</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.7114579276910525</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1809501257961497</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.700602175410398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4687608254069064</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3310463448263437</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2863771858997808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2862844304197408</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.267385813401112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1211032315634053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.5096955692437722</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.45764558103993</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1495174669265667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5815478939660278</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1968823550732497</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2091233631926154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.5719721231132872</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2360701943279535</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03268595231157347</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7055650449981532</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2489501738155893</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.046181247929788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.6197199746051498</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1514148566722841</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1212067771298716</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4741460870092588</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2848402299512744</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2075503948782282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.693996162026981</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1081185822933918</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.115173226335695</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.6963827837604778</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.09373177093948205</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1589195853763686</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.6794703964304036</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.09920885119015675</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1152752457727209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.5638184145123967</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.170909879774365</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.145951087558463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.06191050581581939</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3748734807986953</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8610193324451344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.7316356396760609</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3844372300172998</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.02759199845678992</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.7995825861126902</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4355501653478529</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.104685486560494</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.7996661435904645</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2933788362808967</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2208188621962252</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.6116819275197568</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8784032719517244</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1797594996723911</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.5523629236366375</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4431393898832318</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.2401521538333424</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.7017464865450105</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3458579904875953</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06184103594707521</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.6755966475088876</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1296591317067911</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1529103183988751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.666062821633197</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04870799556723293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4596837280126652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.360951037713888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1550299021552341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6161709474925349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.252944124402886</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1937190813023298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7580699708487273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.07237999670411305</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8869086369240901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2086034288875545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.408151414164389</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.021649721260596</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.208161352417354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.111475910962141</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2647692953710274</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.8158535520469232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.122339581473892</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2963583570673393</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3648665050720874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3704140118740279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9818814533121776</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5017335095243985</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9673917583692808</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.308918815975861</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08549181439257347</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8669893534408979</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.08568559245420249</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.541032359975508</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.8959571342497687</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.02153896098916741</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5091758917261658</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.8680490341842846</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5082901452961317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.7527051884870213</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6367842178899066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8976061385516053</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4575593674422958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4609917426881088</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2408839059866215</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4555688584605849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1370283656040031</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.9560370263178997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.54681168810005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.6267658054939512</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3298517045531398</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2600010966066676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.002384249505031977</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1887180997808573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6807521416225307</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4523942233978151</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.671237488014379</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.889295693148415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.5182677048615696</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.261715953833972</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.495377367656221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.6240993600080368</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8065808560143753</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1625817314577535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1292518394866308</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.8923207931157956</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07291961121745258</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.094025383567964</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9169464618670355</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.583816219836085</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.7470344100845056</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6841966103879019</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.151561689144986</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.7659632099470532</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.4994019166158553</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3894630403472145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.7894168473948276</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3273431738972529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3959538461274857</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8110918311306721</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4625647625660557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7907982577117405</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.4832578360823735</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.101028021606298</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2300824559310553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4121836330887266</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06918519196481959</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5879205964379162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.419838840132314</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.930103344372643</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6593811415198652</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.04332470933521363</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.153544281927112</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7584465690135241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8612393796212958</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5946127476216657</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.8898122480100109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.039418739346406</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2284297972981343</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.05045526862976772</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.8293705958949995</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7670129154034911</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5462057251281971</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5724867417947741</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02155187809115807</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.658158102841968</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.641047948501352</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.6783178428980301</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.5642162327575256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2.138696584106615</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9103564187904822</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.138005402887783</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1989310492794626</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1116795221262632</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.4346562398661071</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-2.26221371516268</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.7962022409966905</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3500060804214948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-2.391556913280055</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-2.739896321596437</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.593313850294127</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.510317205785167</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.78899698874635</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7646054039916294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.5130041380627912</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5142210675766089</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.651853095682854</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.7943962185594972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7198387562625369</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.195160953695895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/pc_timeseries.xlsx
@@ -3451,464 +3451,464 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.247020450642403</v>
+        <v>1.247020450642403</v>
       </c>
       <c r="B2" t="n">
-        <v>1.123040896282088</v>
+        <v>-1.123040896282088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0153740501396977</v>
+        <v>-0.0153740501396977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.462096763907769</v>
+        <v>2.462096763907769</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1494149068805983</v>
+        <v>-0.1494149068805983</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7943737691731777</v>
+        <v>0.7943737691731777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.63690018331823</v>
+        <v>2.63690018331823</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2536286849177447</v>
+        <v>0.2536286849177447</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.657242782865601</v>
+        <v>1.657242782865601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7040903330544516</v>
+        <v>0.7040903330544516</v>
       </c>
       <c r="B5" t="n">
-        <v>1.495507274548462</v>
+        <v>-1.495507274548462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7365114022247319</v>
+        <v>-0.7365114022247319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5744493225041019</v>
+        <v>-0.5744493225041019</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5321671192572621</v>
+        <v>0.5321671192572621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2127019804341103</v>
+        <v>-0.2127019804341103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4986125430387262</v>
+        <v>0.4986125430387262</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.70005630387718</v>
+        <v>1.70005630387718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001896049619619844</v>
+        <v>-0.001896049619619844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.020604335976387</v>
+        <v>1.020604335976387</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3432364073994082</v>
+        <v>-0.3432364073994082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2099024997115059</v>
+        <v>-0.2099024997115059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3733498935411332</v>
+        <v>0.3733498935411332</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4141666867454055</v>
+        <v>0.4141666867454055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2381383924543478</v>
+        <v>-0.2381383924543478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.203933936251779</v>
+        <v>2.203933936251779</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.190375823597011</v>
+        <v>1.190375823597011</v>
       </c>
       <c r="C10" t="n">
-        <v>1.846720201245185</v>
+        <v>-1.846720201245185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8465429167630806</v>
+        <v>-0.8465429167630806</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.562696339416385</v>
+        <v>1.562696339416385</v>
       </c>
       <c r="C11" t="n">
-        <v>1.797868087214507</v>
+        <v>-1.797868087214507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.335512529805289</v>
+        <v>-0.335512529805289</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1809340090793898</v>
+        <v>-0.1809340090793898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9886015593648614</v>
+        <v>-0.9886015593648614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7101479833488004</v>
+        <v>-0.7101479833488004</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4816696715030097</v>
+        <v>0.4816696715030097</v>
       </c>
       <c r="C13" t="n">
-        <v>1.231318194114922</v>
+        <v>-1.231318194114922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4361568179700856</v>
+        <v>-0.4361568179700856</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.319810376262653</v>
+        <v>1.319810376262653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33600977689412</v>
+        <v>-0.33600977689412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.06833865756034482</v>
+        <v>0.06833865756034482</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.04139975949617988</v>
+        <v>0.04139975949617988</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9281556294284345</v>
+        <v>-0.9281556294284345</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3020353052535407</v>
+        <v>0.3020353052535407</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2300330015017931</v>
+        <v>0.2300330015017931</v>
       </c>
       <c r="C16" t="n">
-        <v>2.53214935197748</v>
+        <v>-2.53214935197748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3143549554548086</v>
+        <v>-0.3143549554548086</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3407011523489693</v>
+        <v>0.3407011523489693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7762173784152772</v>
+        <v>-0.7762173784152772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.002310321363599882</v>
+        <v>-0.002310321363599882</v>
       </c>
       <c r="B18" t="n">
-        <v>0.56125707408294</v>
+        <v>-0.56125707408294</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.080618308713184</v>
+        <v>1.080618308713184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.342191909016082</v>
+        <v>1.342191909016082</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7518226362386574</v>
+        <v>-0.7518226362386574</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9417519578931348</v>
+        <v>-0.9417519578931348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2828884638916564</v>
+        <v>0.2828884638916564</v>
       </c>
       <c r="B20" t="n">
-        <v>1.944294725025396</v>
+        <v>-1.944294725025396</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8568226968789611</v>
+        <v>-0.8568226968789611</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.129508428841114</v>
+        <v>1.129508428841114</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3954081873722446</v>
+        <v>0.3954081873722446</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9702834104172454</v>
+        <v>-0.9702834104172454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.8067298140918614</v>
+        <v>0.8067298140918614</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1846048880282011</v>
+        <v>0.1846048880282011</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4470875724789072</v>
+        <v>-0.4470875724789072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.802830959987655</v>
+        <v>-0.802830959987655</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7255036540784219</v>
+        <v>0.7255036540784219</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.587123872903946</v>
+        <v>0.587123872903946</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6547835843436505</v>
+        <v>-0.6547835843436505</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2545046448212598</v>
+        <v>0.2545046448212598</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5857140803340155</v>
+        <v>0.5857140803340155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1470805216067682</v>
+        <v>-0.1470805216067682</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5666526402489067</v>
+        <v>-0.5666526402489067</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3736206689907763</v>
+        <v>0.3736206689907763</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.6837365629188853</v>
+        <v>0.6837365629188853</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6009347773106205</v>
+        <v>-0.6009347773106205</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.21413541504818</v>
+        <v>0.21413541504818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1107832524613844</v>
+        <v>-0.1107832524613844</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.006162576158231151</v>
+        <v>0.006162576158231151</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4695830102344034</v>
+        <v>0.4695830102344034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.733935721934855</v>
+        <v>-0.733935721934855</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.040231011013558</v>
+        <v>1.040231011013558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03363169631218078</v>
+        <v>-0.03363169631218078</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2349192369488029</v>
+        <v>-0.2349192369488029</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.118714160738655</v>
+        <v>1.118714160738655</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.040644208232173</v>
+        <v>1.040644208232173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.169792093991536</v>
+        <v>-1.169792093991536</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.253447161764422</v>
+        <v>0.253447161764422</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.04345630847197799</v>
+        <v>0.04345630847197799</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9121351462614645</v>
+        <v>-0.9121351462614645</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9361712704919103</v>
+        <v>-0.9361712704919103</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3628859791268815</v>
+        <v>0.3628859791268815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4665690255001487</v>
+        <v>-0.4665690255001487</v>
       </c>
       <c r="B32" t="n">
-        <v>1.045696399968398</v>
+        <v>-1.045696399968398</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5669581036124252</v>
+        <v>0.5669581036124252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4070103674034704</v>
+        <v>0.4070103674034704</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.845768208920717</v>
+        <v>2.845768208920717</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.221292433676552</v>
+        <v>2.221292433676552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.681792085839791</v>
+        <v>-1.681792085839791</v>
       </c>
       <c r="B34" t="n">
-        <v>1.354557371471267</v>
+        <v>-1.354557371471267</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4520348791740419</v>
+        <v>-0.4520348791740419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.23440549799739</v>
+        <v>-1.23440549799739</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.560467508943754</v>
+        <v>0.560467508943754</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4388897070024953</v>
+        <v>0.4388897070024953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3823281895350051</v>
+        <v>0.3823281895350051</v>
       </c>
       <c r="B36" t="n">
-        <v>1.380440257801394</v>
+        <v>-1.380440257801394</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.471757242773959</v>
+        <v>2.471757242773959</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.130171217220414</v>
+        <v>-1.130171217220414</v>
       </c>
       <c r="B37" t="n">
-        <v>1.114076557799868</v>
+        <v>-1.114076557799868</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7067904793975099</v>
+        <v>-0.7067904793975099</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.06184885286641999</v>
+        <v>-0.06184885286641999</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.09209414563023627</v>
+        <v>0.09209414563023627</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.073063788626897</v>
+        <v>1.073063788626897</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.600046123968053</v>
+        <v>-1.600046123968053</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.122327326850102</v>
+        <v>1.122327326850102</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5074724947368248</v>
+        <v>0.5074724947368248</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3180047174221352</v>
+        <v>-0.3180047174221352</v>
       </c>
       <c r="B40" t="n">
-        <v>0.530368778870138</v>
+        <v>-0.530368778870138</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1527589979834536</v>
+        <v>0.1527589979834536</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.387086988287694</v>
+        <v>-0.387086988287694</v>
       </c>
       <c r="B41" t="n">
-        <v>1.578585487089484</v>
+        <v>-1.578585487089484</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5449122036876101</v>
+        <v>0.5449122036876101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7270372594743945</v>
+        <v>-0.7270372594743945</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01459046574132883</v>
+        <v>-0.01459046574132883</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5230495976094359</v>
+        <v>0.5230495976094359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9586790049205147</v>
+        <v>-0.9586790049205147</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9943564569131397</v>
+        <v>-0.9943564569131397</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.5504142719868125</v>
+        <v>0.5504142719868125</v>
       </c>
     </row>
   </sheetData>
